--- a/4.3 EED - Content migration spreadsheet template.xlsx
+++ b/4.3 EED - Content migration spreadsheet template.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\dsdm-project-management-standards\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41E11D3B-4024-4EF5-BE9F-B491FDCF71B0}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Content" sheetId="1" r:id="rId3"/>
+    <sheet name="Content" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -82,24 +91,29 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -109,51 +123,356 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:26" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -225,7 +544,7 @@
       <c r="Y1" s="3"/>
       <c r="Z1" s="3"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -241,7 +560,7 @@
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -257,7 +576,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -273,7 +592,7 @@
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -289,7 +608,7 @@
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -305,7 +624,7 @@
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -321,7 +640,7 @@
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -337,7 +656,7 @@
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -353,7 +672,7 @@
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -368,7 +687,7 @@
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -383,7 +702,7 @@
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -399,7 +718,7 @@
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -415,7 +734,7 @@
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -431,7 +750,7 @@
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -447,7 +766,7 @@
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -463,7 +782,7 @@
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -479,7 +798,7 @@
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -495,7 +814,7 @@
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -511,7 +830,7 @@
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -527,7 +846,7 @@
       <c r="N20" s="4"/>
       <c r="O20" s="4"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -543,7 +862,7 @@
       <c r="N21" s="4"/>
       <c r="O21" s="4"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -559,7 +878,7 @@
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -576,7 +895,7 @@
       <c r="N23" s="4"/>
       <c r="O23" s="4"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -593,7 +912,7 @@
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -610,7 +929,7 @@
       <c r="N25" s="4"/>
       <c r="O25" s="4"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -627,7 +946,7 @@
       <c r="N26" s="4"/>
       <c r="O26" s="4"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -644,7 +963,7 @@
       <c r="N27" s="4"/>
       <c r="O27" s="4"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -661,7 +980,7 @@
       <c r="N28" s="4"/>
       <c r="O28" s="4"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -678,7 +997,7 @@
       <c r="N29" s="4"/>
       <c r="O29" s="4"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -695,7 +1014,7 @@
       <c r="N30" s="4"/>
       <c r="O30" s="4"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -712,7 +1031,7 @@
       <c r="N31" s="4"/>
       <c r="O31" s="4"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -729,7 +1048,7 @@
       <c r="N32" s="4"/>
       <c r="O32" s="4"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -746,7 +1065,7 @@
       <c r="N33" s="4"/>
       <c r="O33" s="4"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -763,7 +1082,7 @@
       <c r="N34" s="4"/>
       <c r="O34" s="4"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -780,7 +1099,7 @@
       <c r="N35" s="4"/>
       <c r="O35" s="4"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -797,7 +1116,7 @@
       <c r="N36" s="4"/>
       <c r="O36" s="4"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -814,7 +1133,7 @@
       <c r="N37" s="4"/>
       <c r="O37" s="4"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -831,7 +1150,7 @@
       <c r="N38" s="4"/>
       <c r="O38" s="4"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -848,7 +1167,7 @@
       <c r="N39" s="4"/>
       <c r="O39" s="4"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -865,7 +1184,7 @@
       <c r="N40" s="4"/>
       <c r="O40" s="4"/>
     </row>
-    <row r="41">
+    <row r="41" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -882,7 +1201,7 @@
       <c r="N41" s="4"/>
       <c r="O41" s="4"/>
     </row>
-    <row r="42">
+    <row r="42" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -899,7 +1218,7 @@
       <c r="N42" s="4"/>
       <c r="O42" s="4"/>
     </row>
-    <row r="43">
+    <row r="43" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -916,7 +1235,7 @@
       <c r="N43" s="4"/>
       <c r="O43" s="4"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -933,7 +1252,7 @@
       <c r="N44" s="4"/>
       <c r="O44" s="4"/>
     </row>
-    <row r="45">
+    <row r="45" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -950,7 +1269,7 @@
       <c r="N45" s="4"/>
       <c r="O45" s="4"/>
     </row>
-    <row r="46">
+    <row r="46" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -967,7 +1286,7 @@
       <c r="N46" s="4"/>
       <c r="O46" s="4"/>
     </row>
-    <row r="47">
+    <row r="47" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -984,7 +1303,7 @@
       <c r="N47" s="4"/>
       <c r="O47" s="4"/>
     </row>
-    <row r="48">
+    <row r="48" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -1001,7 +1320,7 @@
       <c r="N48" s="4"/>
       <c r="O48" s="4"/>
     </row>
-    <row r="49">
+    <row r="49" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -1018,7 +1337,7 @@
       <c r="N49" s="4"/>
       <c r="O49" s="4"/>
     </row>
-    <row r="50">
+    <row r="50" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -1035,7 +1354,7 @@
       <c r="N50" s="4"/>
       <c r="O50" s="4"/>
     </row>
-    <row r="51">
+    <row r="51" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -1052,7 +1371,7 @@
       <c r="N51" s="4"/>
       <c r="O51" s="4"/>
     </row>
-    <row r="52">
+    <row r="52" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -1069,7 +1388,7 @@
       <c r="N52" s="4"/>
       <c r="O52" s="4"/>
     </row>
-    <row r="53">
+    <row r="53" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -1086,7 +1405,7 @@
       <c r="N53" s="4"/>
       <c r="O53" s="4"/>
     </row>
-    <row r="54">
+    <row r="54" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -1103,7 +1422,7 @@
       <c r="N54" s="4"/>
       <c r="O54" s="4"/>
     </row>
-    <row r="55">
+    <row r="55" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -1120,7 +1439,7 @@
       <c r="N55" s="4"/>
       <c r="O55" s="4"/>
     </row>
-    <row r="56">
+    <row r="56" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -1137,7 +1456,7 @@
       <c r="N56" s="4"/>
       <c r="O56" s="4"/>
     </row>
-    <row r="57">
+    <row r="57" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -1154,7 +1473,7 @@
       <c r="N57" s="4"/>
       <c r="O57" s="4"/>
     </row>
-    <row r="58">
+    <row r="58" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -1171,7 +1490,7 @@
       <c r="N58" s="4"/>
       <c r="O58" s="4"/>
     </row>
-    <row r="59">
+    <row r="59" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -1188,7 +1507,7 @@
       <c r="N59" s="4"/>
       <c r="O59" s="4"/>
     </row>
-    <row r="60">
+    <row r="60" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -1205,7 +1524,7 @@
       <c r="N60" s="4"/>
       <c r="O60" s="4"/>
     </row>
-    <row r="61">
+    <row r="61" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -1222,7 +1541,7 @@
       <c r="N61" s="4"/>
       <c r="O61" s="4"/>
     </row>
-    <row r="62">
+    <row r="62" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -1239,7 +1558,7 @@
       <c r="N62" s="4"/>
       <c r="O62" s="4"/>
     </row>
-    <row r="63">
+    <row r="63" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -1256,7 +1575,7 @@
       <c r="N63" s="4"/>
       <c r="O63" s="4"/>
     </row>
-    <row r="64">
+    <row r="64" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -1273,7 +1592,7 @@
       <c r="N64" s="4"/>
       <c r="O64" s="4"/>
     </row>
-    <row r="65">
+    <row r="65" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
@@ -1290,7 +1609,7 @@
       <c r="N65" s="4"/>
       <c r="O65" s="4"/>
     </row>
-    <row r="66">
+    <row r="66" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
@@ -1307,7 +1626,7 @@
       <c r="N66" s="4"/>
       <c r="O66" s="4"/>
     </row>
-    <row r="67">
+    <row r="67" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
@@ -1324,7 +1643,7 @@
       <c r="N67" s="4"/>
       <c r="O67" s="4"/>
     </row>
-    <row r="68">
+    <row r="68" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -1341,7 +1660,7 @@
       <c r="N68" s="4"/>
       <c r="O68" s="4"/>
     </row>
-    <row r="69">
+    <row r="69" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
@@ -1358,7 +1677,7 @@
       <c r="N69" s="4"/>
       <c r="O69" s="4"/>
     </row>
-    <row r="70">
+    <row r="70" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -1375,7 +1694,7 @@
       <c r="N70" s="4"/>
       <c r="O70" s="4"/>
     </row>
-    <row r="71">
+    <row r="71" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -1392,7 +1711,7 @@
       <c r="N71" s="4"/>
       <c r="O71" s="4"/>
     </row>
-    <row r="72">
+    <row r="72" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
@@ -1409,7 +1728,7 @@
       <c r="N72" s="4"/>
       <c r="O72" s="4"/>
     </row>
-    <row r="73">
+    <row r="73" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
@@ -1426,7 +1745,7 @@
       <c r="N73" s="4"/>
       <c r="O73" s="4"/>
     </row>
-    <row r="74">
+    <row r="74" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
@@ -1443,7 +1762,7 @@
       <c r="N74" s="4"/>
       <c r="O74" s="4"/>
     </row>
-    <row r="75">
+    <row r="75" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
@@ -1460,7 +1779,7 @@
       <c r="N75" s="4"/>
       <c r="O75" s="4"/>
     </row>
-    <row r="76">
+    <row r="76" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
@@ -1477,7 +1796,7 @@
       <c r="N76" s="4"/>
       <c r="O76" s="4"/>
     </row>
-    <row r="77">
+    <row r="77" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
@@ -1494,7 +1813,7 @@
       <c r="N77" s="4"/>
       <c r="O77" s="4"/>
     </row>
-    <row r="78">
+    <row r="78" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
@@ -1511,7 +1830,7 @@
       <c r="N78" s="4"/>
       <c r="O78" s="4"/>
     </row>
-    <row r="79">
+    <row r="79" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
@@ -1528,7 +1847,7 @@
       <c r="N79" s="4"/>
       <c r="O79" s="4"/>
     </row>
-    <row r="80">
+    <row r="80" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
@@ -1545,7 +1864,7 @@
       <c r="N80" s="4"/>
       <c r="O80" s="4"/>
     </row>
-    <row r="81">
+    <row r="81" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
@@ -1562,7 +1881,7 @@
       <c r="N81" s="4"/>
       <c r="O81" s="4"/>
     </row>
-    <row r="82">
+    <row r="82" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
@@ -1579,7 +1898,7 @@
       <c r="N82" s="4"/>
       <c r="O82" s="4"/>
     </row>
-    <row r="83">
+    <row r="83" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
@@ -1596,7 +1915,7 @@
       <c r="N83" s="4"/>
       <c r="O83" s="4"/>
     </row>
-    <row r="84">
+    <row r="84" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
@@ -1613,7 +1932,7 @@
       <c r="N84" s="4"/>
       <c r="O84" s="4"/>
     </row>
-    <row r="85">
+    <row r="85" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
@@ -1630,7 +1949,7 @@
       <c r="N85" s="4"/>
       <c r="O85" s="4"/>
     </row>
-    <row r="86">
+    <row r="86" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
@@ -1647,7 +1966,7 @@
       <c r="N86" s="4"/>
       <c r="O86" s="4"/>
     </row>
-    <row r="87">
+    <row r="87" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
@@ -1664,7 +1983,7 @@
       <c r="N87" s="4"/>
       <c r="O87" s="4"/>
     </row>
-    <row r="88">
+    <row r="88" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
@@ -1681,7 +2000,7 @@
       <c r="N88" s="4"/>
       <c r="O88" s="4"/>
     </row>
-    <row r="89">
+    <row r="89" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
@@ -1698,7 +2017,7 @@
       <c r="N89" s="4"/>
       <c r="O89" s="4"/>
     </row>
-    <row r="90">
+    <row r="90" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
@@ -1715,7 +2034,7 @@
       <c r="N90" s="4"/>
       <c r="O90" s="4"/>
     </row>
-    <row r="91">
+    <row r="91" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
@@ -1732,7 +2051,7 @@
       <c r="N91" s="4"/>
       <c r="O91" s="4"/>
     </row>
-    <row r="92">
+    <row r="92" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A92" s="4"/>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
@@ -1749,7 +2068,7 @@
       <c r="N92" s="4"/>
       <c r="O92" s="4"/>
     </row>
-    <row r="93">
+    <row r="93" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
@@ -1766,7 +2085,7 @@
       <c r="N93" s="4"/>
       <c r="O93" s="4"/>
     </row>
-    <row r="94">
+    <row r="94" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A94" s="4"/>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
@@ -1783,7 +2102,7 @@
       <c r="N94" s="4"/>
       <c r="O94" s="4"/>
     </row>
-    <row r="95">
+    <row r="95" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A95" s="4"/>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
@@ -1800,7 +2119,7 @@
       <c r="N95" s="4"/>
       <c r="O95" s="4"/>
     </row>
-    <row r="96">
+    <row r="96" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A96" s="4"/>
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
@@ -1817,7 +2136,7 @@
       <c r="N96" s="4"/>
       <c r="O96" s="4"/>
     </row>
-    <row r="97">
+    <row r="97" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A97" s="4"/>
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
@@ -1834,7 +2153,7 @@
       <c r="N97" s="4"/>
       <c r="O97" s="4"/>
     </row>
-    <row r="98">
+    <row r="98" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A98" s="4"/>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
@@ -1851,7 +2170,7 @@
       <c r="N98" s="4"/>
       <c r="O98" s="4"/>
     </row>
-    <row r="99">
+    <row r="99" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
@@ -1868,7 +2187,7 @@
       <c r="N99" s="4"/>
       <c r="O99" s="4"/>
     </row>
-    <row r="100">
+    <row r="100" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
@@ -1885,7 +2204,7 @@
       <c r="N100" s="4"/>
       <c r="O100" s="4"/>
     </row>
-    <row r="101">
+    <row r="101" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A101" s="4"/>
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
@@ -1902,7 +2221,7 @@
       <c r="N101" s="4"/>
       <c r="O101" s="4"/>
     </row>
-    <row r="102">
+    <row r="102" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A102" s="4"/>
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
@@ -1919,7 +2238,7 @@
       <c r="N102" s="4"/>
       <c r="O102" s="4"/>
     </row>
-    <row r="103">
+    <row r="103" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A103" s="4"/>
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
@@ -1936,7 +2255,7 @@
       <c r="N103" s="4"/>
       <c r="O103" s="4"/>
     </row>
-    <row r="104">
+    <row r="104" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A104" s="4"/>
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
@@ -1953,7 +2272,7 @@
       <c r="N104" s="4"/>
       <c r="O104" s="4"/>
     </row>
-    <row r="105">
+    <row r="105" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A105" s="4"/>
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
@@ -1970,7 +2289,7 @@
       <c r="N105" s="4"/>
       <c r="O105" s="4"/>
     </row>
-    <row r="106">
+    <row r="106" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A106" s="4"/>
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
@@ -1987,7 +2306,7 @@
       <c r="N106" s="4"/>
       <c r="O106" s="4"/>
     </row>
-    <row r="107">
+    <row r="107" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A107" s="4"/>
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
@@ -2004,7 +2323,7 @@
       <c r="N107" s="4"/>
       <c r="O107" s="4"/>
     </row>
-    <row r="108">
+    <row r="108" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A108" s="4"/>
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
@@ -2021,7 +2340,7 @@
       <c r="N108" s="4"/>
       <c r="O108" s="4"/>
     </row>
-    <row r="109">
+    <row r="109" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A109" s="4"/>
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
@@ -2038,7 +2357,7 @@
       <c r="N109" s="4"/>
       <c r="O109" s="4"/>
     </row>
-    <row r="110">
+    <row r="110" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A110" s="4"/>
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
@@ -2055,7 +2374,7 @@
       <c r="N110" s="4"/>
       <c r="O110" s="4"/>
     </row>
-    <row r="111">
+    <row r="111" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A111" s="4"/>
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
@@ -2072,7 +2391,7 @@
       <c r="N111" s="4"/>
       <c r="O111" s="4"/>
     </row>
-    <row r="112">
+    <row r="112" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A112" s="4"/>
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
@@ -2089,7 +2408,7 @@
       <c r="N112" s="4"/>
       <c r="O112" s="4"/>
     </row>
-    <row r="113">
+    <row r="113" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A113" s="4"/>
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
@@ -2106,7 +2425,7 @@
       <c r="N113" s="4"/>
       <c r="O113" s="4"/>
     </row>
-    <row r="114">
+    <row r="114" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A114" s="4"/>
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
@@ -2123,7 +2442,7 @@
       <c r="N114" s="4"/>
       <c r="O114" s="4"/>
     </row>
-    <row r="115">
+    <row r="115" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A115" s="4"/>
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
@@ -2140,7 +2459,7 @@
       <c r="N115" s="4"/>
       <c r="O115" s="4"/>
     </row>
-    <row r="116">
+    <row r="116" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A116" s="4"/>
       <c r="B116" s="4"/>
       <c r="C116" s="4"/>
@@ -2157,7 +2476,7 @@
       <c r="N116" s="4"/>
       <c r="O116" s="4"/>
     </row>
-    <row r="117">
+    <row r="117" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A117" s="4"/>
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
@@ -2174,7 +2493,7 @@
       <c r="N117" s="4"/>
       <c r="O117" s="4"/>
     </row>
-    <row r="118">
+    <row r="118" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A118" s="4"/>
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
@@ -2191,7 +2510,7 @@
       <c r="N118" s="4"/>
       <c r="O118" s="4"/>
     </row>
-    <row r="119">
+    <row r="119" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A119" s="4"/>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
@@ -2208,7 +2527,7 @@
       <c r="N119" s="4"/>
       <c r="O119" s="4"/>
     </row>
-    <row r="120">
+    <row r="120" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A120" s="4"/>
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
@@ -2225,7 +2544,7 @@
       <c r="N120" s="4"/>
       <c r="O120" s="4"/>
     </row>
-    <row r="121">
+    <row r="121" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A121" s="4"/>
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
@@ -2242,7 +2561,7 @@
       <c r="N121" s="4"/>
       <c r="O121" s="4"/>
     </row>
-    <row r="122">
+    <row r="122" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A122" s="4"/>
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
@@ -2259,7 +2578,7 @@
       <c r="N122" s="4"/>
       <c r="O122" s="4"/>
     </row>
-    <row r="123">
+    <row r="123" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A123" s="4"/>
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
@@ -2276,7 +2595,7 @@
       <c r="N123" s="4"/>
       <c r="O123" s="4"/>
     </row>
-    <row r="124">
+    <row r="124" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A124" s="4"/>
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
@@ -2293,7 +2612,7 @@
       <c r="N124" s="4"/>
       <c r="O124" s="4"/>
     </row>
-    <row r="125">
+    <row r="125" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A125" s="4"/>
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
@@ -2310,7 +2629,7 @@
       <c r="N125" s="4"/>
       <c r="O125" s="4"/>
     </row>
-    <row r="126">
+    <row r="126" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A126" s="4"/>
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
@@ -2327,7 +2646,7 @@
       <c r="N126" s="4"/>
       <c r="O126" s="4"/>
     </row>
-    <row r="127">
+    <row r="127" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A127" s="4"/>
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
@@ -2344,7 +2663,7 @@
       <c r="N127" s="4"/>
       <c r="O127" s="4"/>
     </row>
-    <row r="128">
+    <row r="128" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A128" s="4"/>
       <c r="B128" s="4"/>
       <c r="C128" s="4"/>
@@ -2361,7 +2680,7 @@
       <c r="N128" s="4"/>
       <c r="O128" s="4"/>
     </row>
-    <row r="129">
+    <row r="129" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A129" s="4"/>
       <c r="B129" s="4"/>
       <c r="C129" s="4"/>
@@ -2378,7 +2697,7 @@
       <c r="N129" s="4"/>
       <c r="O129" s="4"/>
     </row>
-    <row r="130">
+    <row r="130" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A130" s="4"/>
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
@@ -2395,7 +2714,7 @@
       <c r="N130" s="4"/>
       <c r="O130" s="4"/>
     </row>
-    <row r="131">
+    <row r="131" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A131" s="4"/>
       <c r="B131" s="4"/>
       <c r="C131" s="4"/>
@@ -2412,7 +2731,7 @@
       <c r="N131" s="4"/>
       <c r="O131" s="4"/>
     </row>
-    <row r="132">
+    <row r="132" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A132" s="4"/>
       <c r="B132" s="4"/>
       <c r="C132" s="4"/>
@@ -2429,7 +2748,7 @@
       <c r="N132" s="4"/>
       <c r="O132" s="4"/>
     </row>
-    <row r="133">
+    <row r="133" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A133" s="4"/>
       <c r="B133" s="4"/>
       <c r="C133" s="4"/>
@@ -2446,7 +2765,7 @@
       <c r="N133" s="4"/>
       <c r="O133" s="4"/>
     </row>
-    <row r="134">
+    <row r="134" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A134" s="4"/>
       <c r="B134" s="4"/>
       <c r="C134" s="4"/>
@@ -2463,7 +2782,7 @@
       <c r="N134" s="4"/>
       <c r="O134" s="4"/>
     </row>
-    <row r="135">
+    <row r="135" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A135" s="4"/>
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
@@ -2480,7 +2799,7 @@
       <c r="N135" s="4"/>
       <c r="O135" s="4"/>
     </row>
-    <row r="136">
+    <row r="136" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A136" s="4"/>
       <c r="B136" s="4"/>
       <c r="C136" s="4"/>
@@ -2497,7 +2816,7 @@
       <c r="N136" s="4"/>
       <c r="O136" s="4"/>
     </row>
-    <row r="137">
+    <row r="137" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A137" s="4"/>
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
@@ -2514,7 +2833,7 @@
       <c r="N137" s="4"/>
       <c r="O137" s="4"/>
     </row>
-    <row r="138">
+    <row r="138" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A138" s="4"/>
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
@@ -2531,7 +2850,7 @@
       <c r="N138" s="4"/>
       <c r="O138" s="4"/>
     </row>
-    <row r="139">
+    <row r="139" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A139" s="4"/>
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
@@ -2548,7 +2867,7 @@
       <c r="N139" s="4"/>
       <c r="O139" s="4"/>
     </row>
-    <row r="140">
+    <row r="140" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A140" s="4"/>
       <c r="B140" s="4"/>
       <c r="C140" s="4"/>
@@ -2565,7 +2884,7 @@
       <c r="N140" s="4"/>
       <c r="O140" s="4"/>
     </row>
-    <row r="141">
+    <row r="141" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A141" s="4"/>
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
@@ -2582,7 +2901,7 @@
       <c r="N141" s="4"/>
       <c r="O141" s="4"/>
     </row>
-    <row r="142">
+    <row r="142" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A142" s="4"/>
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
@@ -2599,7 +2918,7 @@
       <c r="N142" s="4"/>
       <c r="O142" s="4"/>
     </row>
-    <row r="143">
+    <row r="143" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A143" s="4"/>
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
@@ -2616,7 +2935,7 @@
       <c r="N143" s="4"/>
       <c r="O143" s="4"/>
     </row>
-    <row r="144">
+    <row r="144" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A144" s="4"/>
       <c r="B144" s="4"/>
       <c r="C144" s="4"/>
@@ -2633,7 +2952,7 @@
       <c r="N144" s="4"/>
       <c r="O144" s="4"/>
     </row>
-    <row r="145">
+    <row r="145" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A145" s="4"/>
       <c r="B145" s="4"/>
       <c r="C145" s="4"/>
@@ -2650,7 +2969,7 @@
       <c r="N145" s="4"/>
       <c r="O145" s="4"/>
     </row>
-    <row r="146">
+    <row r="146" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A146" s="4"/>
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
@@ -2667,7 +2986,7 @@
       <c r="N146" s="4"/>
       <c r="O146" s="4"/>
     </row>
-    <row r="147">
+    <row r="147" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A147" s="4"/>
       <c r="B147" s="4"/>
       <c r="C147" s="4"/>
@@ -2684,7 +3003,7 @@
       <c r="N147" s="4"/>
       <c r="O147" s="4"/>
     </row>
-    <row r="148">
+    <row r="148" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A148" s="4"/>
       <c r="B148" s="4"/>
       <c r="C148" s="4"/>
@@ -2701,7 +3020,7 @@
       <c r="N148" s="4"/>
       <c r="O148" s="4"/>
     </row>
-    <row r="149">
+    <row r="149" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A149" s="4"/>
       <c r="B149" s="4"/>
       <c r="C149" s="4"/>
@@ -2718,7 +3037,7 @@
       <c r="N149" s="4"/>
       <c r="O149" s="4"/>
     </row>
-    <row r="150">
+    <row r="150" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A150" s="4"/>
       <c r="B150" s="4"/>
       <c r="C150" s="4"/>
@@ -2735,7 +3054,7 @@
       <c r="N150" s="4"/>
       <c r="O150" s="4"/>
     </row>
-    <row r="151">
+    <row r="151" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A151" s="4"/>
       <c r="B151" s="4"/>
       <c r="C151" s="4"/>
@@ -2752,7 +3071,7 @@
       <c r="N151" s="4"/>
       <c r="O151" s="4"/>
     </row>
-    <row r="152">
+    <row r="152" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A152" s="4"/>
       <c r="B152" s="4"/>
       <c r="C152" s="4"/>
@@ -2769,7 +3088,7 @@
       <c r="N152" s="4"/>
       <c r="O152" s="4"/>
     </row>
-    <row r="153">
+    <row r="153" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A153" s="4"/>
       <c r="B153" s="4"/>
       <c r="C153" s="4"/>
@@ -2786,7 +3105,7 @@
       <c r="N153" s="4"/>
       <c r="O153" s="4"/>
     </row>
-    <row r="154">
+    <row r="154" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A154" s="4"/>
       <c r="B154" s="4"/>
       <c r="C154" s="4"/>
@@ -2803,7 +3122,7 @@
       <c r="N154" s="4"/>
       <c r="O154" s="4"/>
     </row>
-    <row r="155">
+    <row r="155" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A155" s="4"/>
       <c r="B155" s="4"/>
       <c r="C155" s="4"/>
@@ -2820,7 +3139,7 @@
       <c r="N155" s="4"/>
       <c r="O155" s="4"/>
     </row>
-    <row r="156">
+    <row r="156" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A156" s="4"/>
       <c r="B156" s="4"/>
       <c r="C156" s="4"/>
@@ -2837,7 +3156,7 @@
       <c r="N156" s="4"/>
       <c r="O156" s="4"/>
     </row>
-    <row r="157">
+    <row r="157" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A157" s="4"/>
       <c r="B157" s="4"/>
       <c r="C157" s="4"/>
@@ -2854,7 +3173,7 @@
       <c r="N157" s="4"/>
       <c r="O157" s="4"/>
     </row>
-    <row r="158">
+    <row r="158" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A158" s="4"/>
       <c r="B158" s="4"/>
       <c r="C158" s="4"/>
@@ -2871,7 +3190,7 @@
       <c r="N158" s="4"/>
       <c r="O158" s="4"/>
     </row>
-    <row r="159">
+    <row r="159" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A159" s="4"/>
       <c r="B159" s="4"/>
       <c r="C159" s="4"/>
@@ -2888,7 +3207,7 @@
       <c r="N159" s="4"/>
       <c r="O159" s="4"/>
     </row>
-    <row r="160">
+    <row r="160" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A160" s="4"/>
       <c r="B160" s="4"/>
       <c r="C160" s="4"/>
@@ -2905,7 +3224,7 @@
       <c r="N160" s="4"/>
       <c r="O160" s="4"/>
     </row>
-    <row r="161">
+    <row r="161" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A161" s="4"/>
       <c r="B161" s="4"/>
       <c r="C161" s="4"/>
@@ -2922,7 +3241,7 @@
       <c r="N161" s="4"/>
       <c r="O161" s="4"/>
     </row>
-    <row r="162">
+    <row r="162" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A162" s="4"/>
       <c r="B162" s="4"/>
       <c r="C162" s="4"/>
@@ -2939,7 +3258,7 @@
       <c r="N162" s="4"/>
       <c r="O162" s="4"/>
     </row>
-    <row r="163">
+    <row r="163" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A163" s="4"/>
       <c r="B163" s="4"/>
       <c r="C163" s="4"/>
@@ -2956,7 +3275,7 @@
       <c r="N163" s="4"/>
       <c r="O163" s="4"/>
     </row>
-    <row r="164">
+    <row r="164" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A164" s="4"/>
       <c r="B164" s="4"/>
       <c r="C164" s="4"/>
@@ -2973,7 +3292,7 @@
       <c r="N164" s="4"/>
       <c r="O164" s="4"/>
     </row>
-    <row r="165">
+    <row r="165" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A165" s="4"/>
       <c r="B165" s="4"/>
       <c r="C165" s="4"/>
@@ -2990,7 +3309,7 @@
       <c r="N165" s="4"/>
       <c r="O165" s="4"/>
     </row>
-    <row r="166">
+    <row r="166" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A166" s="4"/>
       <c r="B166" s="4"/>
       <c r="C166" s="4"/>
@@ -3007,7 +3326,7 @@
       <c r="N166" s="4"/>
       <c r="O166" s="4"/>
     </row>
-    <row r="167">
+    <row r="167" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A167" s="4"/>
       <c r="B167" s="4"/>
       <c r="C167" s="4"/>
@@ -3024,7 +3343,7 @@
       <c r="N167" s="4"/>
       <c r="O167" s="4"/>
     </row>
-    <row r="168">
+    <row r="168" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A168" s="4"/>
       <c r="B168" s="4"/>
       <c r="C168" s="4"/>
@@ -3041,7 +3360,7 @@
       <c r="N168" s="4"/>
       <c r="O168" s="4"/>
     </row>
-    <row r="169">
+    <row r="169" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A169" s="4"/>
       <c r="B169" s="4"/>
       <c r="C169" s="4"/>
@@ -3058,7 +3377,7 @@
       <c r="N169" s="4"/>
       <c r="O169" s="4"/>
     </row>
-    <row r="170">
+    <row r="170" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A170" s="4"/>
       <c r="B170" s="4"/>
       <c r="C170" s="4"/>
@@ -3075,7 +3394,7 @@
       <c r="N170" s="4"/>
       <c r="O170" s="4"/>
     </row>
-    <row r="171">
+    <row r="171" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A171" s="4"/>
       <c r="B171" s="4"/>
       <c r="C171" s="4"/>
@@ -3092,7 +3411,7 @@
       <c r="N171" s="4"/>
       <c r="O171" s="4"/>
     </row>
-    <row r="172">
+    <row r="172" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A172" s="4"/>
       <c r="B172" s="4"/>
       <c r="C172" s="4"/>
@@ -3109,7 +3428,7 @@
       <c r="N172" s="4"/>
       <c r="O172" s="4"/>
     </row>
-    <row r="173">
+    <row r="173" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A173" s="4"/>
       <c r="B173" s="4"/>
       <c r="C173" s="4"/>
@@ -3126,7 +3445,7 @@
       <c r="N173" s="4"/>
       <c r="O173" s="4"/>
     </row>
-    <row r="174">
+    <row r="174" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A174" s="4"/>
       <c r="B174" s="4"/>
       <c r="C174" s="4"/>
@@ -3143,7 +3462,7 @@
       <c r="N174" s="4"/>
       <c r="O174" s="4"/>
     </row>
-    <row r="175">
+    <row r="175" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A175" s="4"/>
       <c r="B175" s="4"/>
       <c r="C175" s="4"/>
@@ -3160,7 +3479,7 @@
       <c r="N175" s="4"/>
       <c r="O175" s="4"/>
     </row>
-    <row r="176">
+    <row r="176" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A176" s="4"/>
       <c r="B176" s="4"/>
       <c r="C176" s="4"/>
@@ -3177,7 +3496,7 @@
       <c r="N176" s="4"/>
       <c r="O176" s="4"/>
     </row>
-    <row r="177">
+    <row r="177" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A177" s="4"/>
       <c r="B177" s="4"/>
       <c r="C177" s="4"/>
@@ -3194,7 +3513,7 @@
       <c r="N177" s="4"/>
       <c r="O177" s="4"/>
     </row>
-    <row r="178">
+    <row r="178" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A178" s="4"/>
       <c r="B178" s="4"/>
       <c r="C178" s="4"/>
@@ -3211,7 +3530,7 @@
       <c r="N178" s="4"/>
       <c r="O178" s="4"/>
     </row>
-    <row r="179">
+    <row r="179" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A179" s="4"/>
       <c r="B179" s="4"/>
       <c r="C179" s="4"/>
@@ -3228,7 +3547,7 @@
       <c r="N179" s="4"/>
       <c r="O179" s="4"/>
     </row>
-    <row r="180">
+    <row r="180" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A180" s="4"/>
       <c r="B180" s="4"/>
       <c r="C180" s="4"/>
@@ -3245,7 +3564,7 @@
       <c r="N180" s="4"/>
       <c r="O180" s="4"/>
     </row>
-    <row r="181">
+    <row r="181" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A181" s="4"/>
       <c r="B181" s="4"/>
       <c r="C181" s="4"/>
@@ -3262,7 +3581,7 @@
       <c r="N181" s="4"/>
       <c r="O181" s="4"/>
     </row>
-    <row r="182">
+    <row r="182" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A182" s="4"/>
       <c r="B182" s="4"/>
       <c r="C182" s="4"/>
@@ -3279,7 +3598,7 @@
       <c r="N182" s="4"/>
       <c r="O182" s="4"/>
     </row>
-    <row r="183">
+    <row r="183" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A183" s="4"/>
       <c r="B183" s="4"/>
       <c r="C183" s="4"/>
@@ -3296,7 +3615,7 @@
       <c r="N183" s="4"/>
       <c r="O183" s="4"/>
     </row>
-    <row r="184">
+    <row r="184" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A184" s="4"/>
       <c r="B184" s="4"/>
       <c r="C184" s="4"/>
@@ -3313,7 +3632,7 @@
       <c r="N184" s="4"/>
       <c r="O184" s="4"/>
     </row>
-    <row r="185">
+    <row r="185" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A185" s="4"/>
       <c r="B185" s="4"/>
       <c r="C185" s="4"/>
@@ -3330,7 +3649,7 @@
       <c r="N185" s="4"/>
       <c r="O185" s="4"/>
     </row>
-    <row r="186">
+    <row r="186" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A186" s="4"/>
       <c r="B186" s="4"/>
       <c r="C186" s="4"/>
@@ -3347,7 +3666,7 @@
       <c r="N186" s="4"/>
       <c r="O186" s="4"/>
     </row>
-    <row r="187">
+    <row r="187" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A187" s="4"/>
       <c r="B187" s="4"/>
       <c r="C187" s="4"/>
@@ -3364,7 +3683,7 @@
       <c r="N187" s="4"/>
       <c r="O187" s="4"/>
     </row>
-    <row r="188">
+    <row r="188" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A188" s="4"/>
       <c r="B188" s="4"/>
       <c r="C188" s="4"/>
@@ -3381,7 +3700,7 @@
       <c r="N188" s="4"/>
       <c r="O188" s="4"/>
     </row>
-    <row r="189">
+    <row r="189" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A189" s="4"/>
       <c r="B189" s="4"/>
       <c r="C189" s="4"/>
@@ -3398,7 +3717,7 @@
       <c r="N189" s="4"/>
       <c r="O189" s="4"/>
     </row>
-    <row r="190">
+    <row r="190" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A190" s="4"/>
       <c r="B190" s="4"/>
       <c r="C190" s="4"/>
@@ -3415,7 +3734,7 @@
       <c r="N190" s="4"/>
       <c r="O190" s="4"/>
     </row>
-    <row r="191">
+    <row r="191" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A191" s="4"/>
       <c r="B191" s="4"/>
       <c r="C191" s="4"/>
@@ -3432,7 +3751,7 @@
       <c r="N191" s="4"/>
       <c r="O191" s="4"/>
     </row>
-    <row r="192">
+    <row r="192" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A192" s="4"/>
       <c r="B192" s="4"/>
       <c r="C192" s="4"/>
@@ -3449,7 +3768,7 @@
       <c r="N192" s="4"/>
       <c r="O192" s="4"/>
     </row>
-    <row r="193">
+    <row r="193" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A193" s="4"/>
       <c r="B193" s="4"/>
       <c r="C193" s="4"/>
@@ -3466,7 +3785,7 @@
       <c r="N193" s="4"/>
       <c r="O193" s="4"/>
     </row>
-    <row r="194">
+    <row r="194" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A194" s="4"/>
       <c r="B194" s="4"/>
       <c r="C194" s="4"/>
@@ -3483,7 +3802,7 @@
       <c r="N194" s="4"/>
       <c r="O194" s="4"/>
     </row>
-    <row r="195">
+    <row r="195" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A195" s="4"/>
       <c r="B195" s="4"/>
       <c r="C195" s="4"/>
@@ -3500,7 +3819,7 @@
       <c r="N195" s="4"/>
       <c r="O195" s="4"/>
     </row>
-    <row r="196">
+    <row r="196" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A196" s="4"/>
       <c r="B196" s="4"/>
       <c r="C196" s="4"/>
@@ -3517,7 +3836,7 @@
       <c r="N196" s="4"/>
       <c r="O196" s="4"/>
     </row>
-    <row r="197">
+    <row r="197" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A197" s="4"/>
       <c r="B197" s="4"/>
       <c r="C197" s="4"/>
@@ -3534,7 +3853,7 @@
       <c r="N197" s="4"/>
       <c r="O197" s="4"/>
     </row>
-    <row r="198">
+    <row r="198" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A198" s="4"/>
       <c r="B198" s="4"/>
       <c r="C198" s="4"/>
@@ -3551,7 +3870,7 @@
       <c r="N198" s="4"/>
       <c r="O198" s="4"/>
     </row>
-    <row r="199">
+    <row r="199" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A199" s="4"/>
       <c r="B199" s="4"/>
       <c r="C199" s="4"/>
@@ -3568,7 +3887,7 @@
       <c r="N199" s="4"/>
       <c r="O199" s="4"/>
     </row>
-    <row r="200">
+    <row r="200" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A200" s="4"/>
       <c r="B200" s="4"/>
       <c r="C200" s="4"/>
@@ -3585,7 +3904,7 @@
       <c r="N200" s="4"/>
       <c r="O200" s="4"/>
     </row>
-    <row r="201">
+    <row r="201" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A201" s="4"/>
       <c r="B201" s="4"/>
       <c r="C201" s="4"/>
@@ -3602,7 +3921,7 @@
       <c r="N201" s="4"/>
       <c r="O201" s="4"/>
     </row>
-    <row r="202">
+    <row r="202" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A202" s="4"/>
       <c r="B202" s="4"/>
       <c r="C202" s="4"/>
@@ -3619,7 +3938,7 @@
       <c r="N202" s="4"/>
       <c r="O202" s="4"/>
     </row>
-    <row r="203">
+    <row r="203" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A203" s="4"/>
       <c r="B203" s="4"/>
       <c r="C203" s="4"/>
@@ -3636,7 +3955,7 @@
       <c r="N203" s="4"/>
       <c r="O203" s="4"/>
     </row>
-    <row r="204">
+    <row r="204" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A204" s="4"/>
       <c r="B204" s="4"/>
       <c r="C204" s="4"/>
@@ -3653,7 +3972,7 @@
       <c r="N204" s="4"/>
       <c r="O204" s="4"/>
     </row>
-    <row r="205">
+    <row r="205" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A205" s="4"/>
       <c r="B205" s="4"/>
       <c r="C205" s="4"/>
@@ -3670,7 +3989,7 @@
       <c r="N205" s="4"/>
       <c r="O205" s="4"/>
     </row>
-    <row r="206">
+    <row r="206" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A206" s="4"/>
       <c r="B206" s="4"/>
       <c r="C206" s="4"/>
@@ -3687,7 +4006,7 @@
       <c r="N206" s="4"/>
       <c r="O206" s="4"/>
     </row>
-    <row r="207">
+    <row r="207" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A207" s="4"/>
       <c r="B207" s="4"/>
       <c r="C207" s="4"/>
@@ -3704,7 +4023,7 @@
       <c r="N207" s="4"/>
       <c r="O207" s="4"/>
     </row>
-    <row r="208">
+    <row r="208" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A208" s="4"/>
       <c r="B208" s="4"/>
       <c r="C208" s="4"/>
@@ -3721,7 +4040,7 @@
       <c r="N208" s="4"/>
       <c r="O208" s="4"/>
     </row>
-    <row r="209">
+    <row r="209" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A209" s="4"/>
       <c r="B209" s="4"/>
       <c r="C209" s="4"/>
@@ -3738,7 +4057,7 @@
       <c r="N209" s="4"/>
       <c r="O209" s="4"/>
     </row>
-    <row r="210">
+    <row r="210" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A210" s="4"/>
       <c r="B210" s="4"/>
       <c r="C210" s="4"/>
@@ -3755,7 +4074,7 @@
       <c r="N210" s="4"/>
       <c r="O210" s="4"/>
     </row>
-    <row r="211">
+    <row r="211" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A211" s="4"/>
       <c r="B211" s="4"/>
       <c r="C211" s="4"/>
@@ -3772,7 +4091,7 @@
       <c r="N211" s="4"/>
       <c r="O211" s="4"/>
     </row>
-    <row r="212">
+    <row r="212" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A212" s="4"/>
       <c r="B212" s="4"/>
       <c r="C212" s="4"/>
@@ -3789,7 +4108,7 @@
       <c r="N212" s="4"/>
       <c r="O212" s="4"/>
     </row>
-    <row r="213">
+    <row r="213" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A213" s="4"/>
       <c r="B213" s="4"/>
       <c r="C213" s="4"/>
@@ -3806,7 +4125,7 @@
       <c r="N213" s="4"/>
       <c r="O213" s="4"/>
     </row>
-    <row r="214">
+    <row r="214" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A214" s="4"/>
       <c r="B214" s="4"/>
       <c r="C214" s="4"/>
@@ -3823,7 +4142,7 @@
       <c r="N214" s="4"/>
       <c r="O214" s="4"/>
     </row>
-    <row r="215">
+    <row r="215" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A215" s="4"/>
       <c r="B215" s="4"/>
       <c r="C215" s="4"/>
@@ -3840,7 +4159,7 @@
       <c r="N215" s="4"/>
       <c r="O215" s="4"/>
     </row>
-    <row r="216">
+    <row r="216" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A216" s="4"/>
       <c r="B216" s="4"/>
       <c r="C216" s="4"/>
@@ -3857,7 +4176,7 @@
       <c r="N216" s="4"/>
       <c r="O216" s="4"/>
     </row>
-    <row r="217">
+    <row r="217" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A217" s="4"/>
       <c r="B217" s="4"/>
       <c r="C217" s="4"/>
@@ -3874,7 +4193,7 @@
       <c r="N217" s="4"/>
       <c r="O217" s="4"/>
     </row>
-    <row r="218">
+    <row r="218" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A218" s="4"/>
       <c r="B218" s="4"/>
       <c r="C218" s="4"/>
@@ -3891,7 +4210,7 @@
       <c r="N218" s="4"/>
       <c r="O218" s="4"/>
     </row>
-    <row r="219">
+    <row r="219" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A219" s="4"/>
       <c r="B219" s="4"/>
       <c r="C219" s="4"/>
@@ -3908,7 +4227,7 @@
       <c r="N219" s="4"/>
       <c r="O219" s="4"/>
     </row>
-    <row r="220">
+    <row r="220" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A220" s="4"/>
       <c r="B220" s="4"/>
       <c r="C220" s="4"/>
@@ -3925,7 +4244,7 @@
       <c r="N220" s="4"/>
       <c r="O220" s="4"/>
     </row>
-    <row r="221">
+    <row r="221" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A221" s="4"/>
       <c r="B221" s="4"/>
       <c r="C221" s="4"/>
@@ -3942,7 +4261,7 @@
       <c r="N221" s="4"/>
       <c r="O221" s="4"/>
     </row>
-    <row r="222">
+    <row r="222" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A222" s="4"/>
       <c r="B222" s="4"/>
       <c r="C222" s="4"/>
@@ -3959,7 +4278,7 @@
       <c r="N222" s="4"/>
       <c r="O222" s="4"/>
     </row>
-    <row r="223">
+    <row r="223" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A223" s="4"/>
       <c r="B223" s="4"/>
       <c r="C223" s="4"/>
@@ -3976,7 +4295,7 @@
       <c r="N223" s="4"/>
       <c r="O223" s="4"/>
     </row>
-    <row r="224">
+    <row r="224" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A224" s="4"/>
       <c r="B224" s="4"/>
       <c r="C224" s="4"/>
@@ -3993,7 +4312,7 @@
       <c r="N224" s="4"/>
       <c r="O224" s="4"/>
     </row>
-    <row r="225">
+    <row r="225" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A225" s="4"/>
       <c r="B225" s="4"/>
       <c r="C225" s="4"/>
@@ -4010,7 +4329,7 @@
       <c r="N225" s="4"/>
       <c r="O225" s="4"/>
     </row>
-    <row r="226">
+    <row r="226" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A226" s="4"/>
       <c r="B226" s="4"/>
       <c r="C226" s="4"/>
@@ -4027,7 +4346,7 @@
       <c r="N226" s="4"/>
       <c r="O226" s="4"/>
     </row>
-    <row r="227">
+    <row r="227" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A227" s="4"/>
       <c r="B227" s="4"/>
       <c r="C227" s="4"/>
@@ -4044,7 +4363,7 @@
       <c r="N227" s="4"/>
       <c r="O227" s="4"/>
     </row>
-    <row r="228">
+    <row r="228" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A228" s="4"/>
       <c r="B228" s="4"/>
       <c r="C228" s="4"/>
@@ -4061,7 +4380,7 @@
       <c r="N228" s="4"/>
       <c r="O228" s="4"/>
     </row>
-    <row r="229">
+    <row r="229" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A229" s="4"/>
       <c r="B229" s="4"/>
       <c r="C229" s="4"/>
@@ -4078,7 +4397,7 @@
       <c r="N229" s="4"/>
       <c r="O229" s="4"/>
     </row>
-    <row r="230">
+    <row r="230" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A230" s="4"/>
       <c r="B230" s="4"/>
       <c r="C230" s="4"/>
@@ -4095,7 +4414,7 @@
       <c r="N230" s="4"/>
       <c r="O230" s="4"/>
     </row>
-    <row r="231">
+    <row r="231" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A231" s="4"/>
       <c r="B231" s="4"/>
       <c r="C231" s="4"/>
@@ -4112,7 +4431,7 @@
       <c r="N231" s="4"/>
       <c r="O231" s="4"/>
     </row>
-    <row r="232">
+    <row r="232" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A232" s="4"/>
       <c r="B232" s="4"/>
       <c r="C232" s="4"/>
@@ -4129,7 +4448,7 @@
       <c r="N232" s="4"/>
       <c r="O232" s="4"/>
     </row>
-    <row r="233">
+    <row r="233" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A233" s="4"/>
       <c r="B233" s="4"/>
       <c r="C233" s="4"/>
@@ -4146,7 +4465,7 @@
       <c r="N233" s="4"/>
       <c r="O233" s="4"/>
     </row>
-    <row r="234">
+    <row r="234" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A234" s="4"/>
       <c r="B234" s="4"/>
       <c r="C234" s="4"/>
@@ -4163,7 +4482,7 @@
       <c r="N234" s="4"/>
       <c r="O234" s="4"/>
     </row>
-    <row r="235">
+    <row r="235" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A235" s="4"/>
       <c r="B235" s="4"/>
       <c r="C235" s="4"/>
@@ -4180,7 +4499,7 @@
       <c r="N235" s="4"/>
       <c r="O235" s="4"/>
     </row>
-    <row r="236">
+    <row r="236" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A236" s="4"/>
       <c r="B236" s="4"/>
       <c r="C236" s="4"/>
@@ -4197,7 +4516,7 @@
       <c r="N236" s="4"/>
       <c r="O236" s="4"/>
     </row>
-    <row r="237">
+    <row r="237" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A237" s="4"/>
       <c r="B237" s="4"/>
       <c r="C237" s="4"/>
@@ -4214,7 +4533,7 @@
       <c r="N237" s="4"/>
       <c r="O237" s="4"/>
     </row>
-    <row r="238">
+    <row r="238" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A238" s="4"/>
       <c r="B238" s="4"/>
       <c r="C238" s="4"/>
@@ -4231,7 +4550,7 @@
       <c r="N238" s="4"/>
       <c r="O238" s="4"/>
     </row>
-    <row r="239">
+    <row r="239" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A239" s="4"/>
       <c r="B239" s="4"/>
       <c r="C239" s="4"/>
@@ -4248,7 +4567,7 @@
       <c r="N239" s="4"/>
       <c r="O239" s="4"/>
     </row>
-    <row r="240">
+    <row r="240" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A240" s="4"/>
       <c r="B240" s="4"/>
       <c r="C240" s="4"/>
@@ -4265,7 +4584,7 @@
       <c r="N240" s="4"/>
       <c r="O240" s="4"/>
     </row>
-    <row r="241">
+    <row r="241" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A241" s="4"/>
       <c r="B241" s="4"/>
       <c r="C241" s="4"/>
@@ -4282,7 +4601,7 @@
       <c r="N241" s="4"/>
       <c r="O241" s="4"/>
     </row>
-    <row r="242">
+    <row r="242" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A242" s="4"/>
       <c r="B242" s="4"/>
       <c r="C242" s="4"/>
@@ -4299,7 +4618,7 @@
       <c r="N242" s="4"/>
       <c r="O242" s="4"/>
     </row>
-    <row r="243">
+    <row r="243" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A243" s="4"/>
       <c r="B243" s="4"/>
       <c r="C243" s="4"/>
@@ -4316,7 +4635,7 @@
       <c r="N243" s="4"/>
       <c r="O243" s="4"/>
     </row>
-    <row r="244">
+    <row r="244" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A244" s="4"/>
       <c r="B244" s="4"/>
       <c r="C244" s="4"/>
@@ -4333,7 +4652,7 @@
       <c r="N244" s="4"/>
       <c r="O244" s="4"/>
     </row>
-    <row r="245">
+    <row r="245" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A245" s="4"/>
       <c r="B245" s="4"/>
       <c r="C245" s="4"/>
@@ -4350,7 +4669,7 @@
       <c r="N245" s="4"/>
       <c r="O245" s="4"/>
     </row>
-    <row r="246">
+    <row r="246" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A246" s="4"/>
       <c r="B246" s="4"/>
       <c r="C246" s="4"/>
@@ -4367,7 +4686,7 @@
       <c r="N246" s="4"/>
       <c r="O246" s="4"/>
     </row>
-    <row r="247">
+    <row r="247" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A247" s="4"/>
       <c r="B247" s="4"/>
       <c r="C247" s="4"/>
@@ -4384,7 +4703,7 @@
       <c r="N247" s="4"/>
       <c r="O247" s="4"/>
     </row>
-    <row r="248">
+    <row r="248" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A248" s="4"/>
       <c r="B248" s="4"/>
       <c r="C248" s="4"/>
@@ -4401,7 +4720,7 @@
       <c r="N248" s="4"/>
       <c r="O248" s="4"/>
     </row>
-    <row r="249">
+    <row r="249" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A249" s="4"/>
       <c r="B249" s="4"/>
       <c r="C249" s="4"/>
@@ -4418,7 +4737,7 @@
       <c r="N249" s="4"/>
       <c r="O249" s="4"/>
     </row>
-    <row r="250">
+    <row r="250" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A250" s="4"/>
       <c r="B250" s="4"/>
       <c r="C250" s="4"/>
@@ -4435,7 +4754,7 @@
       <c r="N250" s="4"/>
       <c r="O250" s="4"/>
     </row>
-    <row r="251">
+    <row r="251" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A251" s="4"/>
       <c r="B251" s="4"/>
       <c r="C251" s="4"/>
@@ -4452,7 +4771,7 @@
       <c r="N251" s="4"/>
       <c r="O251" s="4"/>
     </row>
-    <row r="252">
+    <row r="252" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A252" s="4"/>
       <c r="B252" s="4"/>
       <c r="C252" s="4"/>
@@ -4469,7 +4788,7 @@
       <c r="N252" s="4"/>
       <c r="O252" s="4"/>
     </row>
-    <row r="253">
+    <row r="253" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A253" s="4"/>
       <c r="B253" s="4"/>
       <c r="C253" s="4"/>
@@ -4486,7 +4805,7 @@
       <c r="N253" s="4"/>
       <c r="O253" s="4"/>
     </row>
-    <row r="254">
+    <row r="254" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A254" s="4"/>
       <c r="B254" s="4"/>
       <c r="C254" s="4"/>
@@ -4503,7 +4822,7 @@
       <c r="N254" s="4"/>
       <c r="O254" s="4"/>
     </row>
-    <row r="255">
+    <row r="255" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A255" s="4"/>
       <c r="B255" s="4"/>
       <c r="C255" s="4"/>
@@ -4520,7 +4839,7 @@
       <c r="N255" s="4"/>
       <c r="O255" s="4"/>
     </row>
-    <row r="256">
+    <row r="256" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A256" s="4"/>
       <c r="B256" s="4"/>
       <c r="C256" s="4"/>
@@ -4537,7 +4856,7 @@
       <c r="N256" s="4"/>
       <c r="O256" s="4"/>
     </row>
-    <row r="257">
+    <row r="257" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A257" s="4"/>
       <c r="B257" s="4"/>
       <c r="C257" s="4"/>
@@ -4554,7 +4873,7 @@
       <c r="N257" s="4"/>
       <c r="O257" s="4"/>
     </row>
-    <row r="258">
+    <row r="258" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A258" s="4"/>
       <c r="B258" s="4"/>
       <c r="C258" s="4"/>
@@ -4571,7 +4890,7 @@
       <c r="N258" s="4"/>
       <c r="O258" s="4"/>
     </row>
-    <row r="259">
+    <row r="259" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A259" s="4"/>
       <c r="B259" s="4"/>
       <c r="C259" s="4"/>
@@ -4588,7 +4907,7 @@
       <c r="N259" s="4"/>
       <c r="O259" s="4"/>
     </row>
-    <row r="260">
+    <row r="260" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A260" s="4"/>
       <c r="B260" s="4"/>
       <c r="C260" s="4"/>
@@ -4605,7 +4924,7 @@
       <c r="N260" s="4"/>
       <c r="O260" s="4"/>
     </row>
-    <row r="261">
+    <row r="261" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A261" s="4"/>
       <c r="B261" s="4"/>
       <c r="C261" s="4"/>
@@ -4622,7 +4941,7 @@
       <c r="N261" s="4"/>
       <c r="O261" s="4"/>
     </row>
-    <row r="262">
+    <row r="262" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A262" s="4"/>
       <c r="B262" s="4"/>
       <c r="C262" s="4"/>
@@ -4639,7 +4958,7 @@
       <c r="N262" s="4"/>
       <c r="O262" s="4"/>
     </row>
-    <row r="263">
+    <row r="263" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A263" s="4"/>
       <c r="B263" s="4"/>
       <c r="C263" s="4"/>
@@ -4656,7 +4975,7 @@
       <c r="N263" s="4"/>
       <c r="O263" s="4"/>
     </row>
-    <row r="264">
+    <row r="264" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A264" s="4"/>
       <c r="B264" s="4"/>
       <c r="C264" s="4"/>
@@ -4673,7 +4992,7 @@
       <c r="N264" s="4"/>
       <c r="O264" s="4"/>
     </row>
-    <row r="265">
+    <row r="265" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A265" s="4"/>
       <c r="B265" s="4"/>
       <c r="C265" s="4"/>
@@ -4690,7 +5009,7 @@
       <c r="N265" s="4"/>
       <c r="O265" s="4"/>
     </row>
-    <row r="266">
+    <row r="266" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A266" s="4"/>
       <c r="B266" s="4"/>
       <c r="C266" s="4"/>
@@ -4707,7 +5026,7 @@
       <c r="N266" s="4"/>
       <c r="O266" s="4"/>
     </row>
-    <row r="267">
+    <row r="267" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A267" s="4"/>
       <c r="B267" s="4"/>
       <c r="C267" s="4"/>
@@ -4724,7 +5043,7 @@
       <c r="N267" s="4"/>
       <c r="O267" s="4"/>
     </row>
-    <row r="268">
+    <row r="268" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A268" s="4"/>
       <c r="B268" s="4"/>
       <c r="C268" s="4"/>
@@ -4741,7 +5060,7 @@
       <c r="N268" s="4"/>
       <c r="O268" s="4"/>
     </row>
-    <row r="269">
+    <row r="269" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A269" s="4"/>
       <c r="B269" s="4"/>
       <c r="C269" s="4"/>
@@ -4758,7 +5077,7 @@
       <c r="N269" s="4"/>
       <c r="O269" s="4"/>
     </row>
-    <row r="270">
+    <row r="270" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A270" s="4"/>
       <c r="B270" s="4"/>
       <c r="C270" s="4"/>
@@ -4775,7 +5094,7 @@
       <c r="N270" s="4"/>
       <c r="O270" s="4"/>
     </row>
-    <row r="271">
+    <row r="271" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A271" s="4"/>
       <c r="B271" s="4"/>
       <c r="C271" s="4"/>
@@ -4792,7 +5111,7 @@
       <c r="N271" s="4"/>
       <c r="O271" s="4"/>
     </row>
-    <row r="272">
+    <row r="272" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A272" s="4"/>
       <c r="B272" s="4"/>
       <c r="C272" s="4"/>
@@ -4809,7 +5128,7 @@
       <c r="N272" s="4"/>
       <c r="O272" s="4"/>
     </row>
-    <row r="273">
+    <row r="273" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A273" s="4"/>
       <c r="B273" s="4"/>
       <c r="C273" s="4"/>
@@ -4826,7 +5145,7 @@
       <c r="N273" s="4"/>
       <c r="O273" s="4"/>
     </row>
-    <row r="274">
+    <row r="274" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A274" s="4"/>
       <c r="B274" s="4"/>
       <c r="C274" s="4"/>
@@ -4843,7 +5162,7 @@
       <c r="N274" s="4"/>
       <c r="O274" s="4"/>
     </row>
-    <row r="275">
+    <row r="275" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A275" s="4"/>
       <c r="B275" s="4"/>
       <c r="C275" s="4"/>
@@ -4860,7 +5179,7 @@
       <c r="N275" s="4"/>
       <c r="O275" s="4"/>
     </row>
-    <row r="276">
+    <row r="276" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A276" s="4"/>
       <c r="B276" s="4"/>
       <c r="C276" s="4"/>
@@ -4877,7 +5196,7 @@
       <c r="N276" s="4"/>
       <c r="O276" s="4"/>
     </row>
-    <row r="277">
+    <row r="277" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A277" s="4"/>
       <c r="B277" s="4"/>
       <c r="C277" s="4"/>
@@ -4894,7 +5213,7 @@
       <c r="N277" s="4"/>
       <c r="O277" s="4"/>
     </row>
-    <row r="278">
+    <row r="278" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A278" s="4"/>
       <c r="B278" s="4"/>
       <c r="C278" s="4"/>
@@ -4911,7 +5230,7 @@
       <c r="N278" s="4"/>
       <c r="O278" s="4"/>
     </row>
-    <row r="279">
+    <row r="279" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A279" s="4"/>
       <c r="B279" s="4"/>
       <c r="C279" s="4"/>
@@ -4928,7 +5247,7 @@
       <c r="N279" s="4"/>
       <c r="O279" s="4"/>
     </row>
-    <row r="280">
+    <row r="280" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A280" s="4"/>
       <c r="B280" s="4"/>
       <c r="C280" s="4"/>
@@ -4945,7 +5264,7 @@
       <c r="N280" s="4"/>
       <c r="O280" s="4"/>
     </row>
-    <row r="281">
+    <row r="281" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A281" s="4"/>
       <c r="B281" s="4"/>
       <c r="C281" s="4"/>
@@ -4962,7 +5281,7 @@
       <c r="N281" s="4"/>
       <c r="O281" s="4"/>
     </row>
-    <row r="282">
+    <row r="282" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A282" s="4"/>
       <c r="B282" s="4"/>
       <c r="C282" s="4"/>
@@ -4979,7 +5298,7 @@
       <c r="N282" s="4"/>
       <c r="O282" s="4"/>
     </row>
-    <row r="283">
+    <row r="283" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A283" s="4"/>
       <c r="B283" s="4"/>
       <c r="C283" s="4"/>
@@ -4996,7 +5315,7 @@
       <c r="N283" s="4"/>
       <c r="O283" s="4"/>
     </row>
-    <row r="284">
+    <row r="284" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A284" s="4"/>
       <c r="B284" s="4"/>
       <c r="C284" s="4"/>
@@ -5013,7 +5332,7 @@
       <c r="N284" s="4"/>
       <c r="O284" s="4"/>
     </row>
-    <row r="285">
+    <row r="285" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A285" s="4"/>
       <c r="B285" s="4"/>
       <c r="C285" s="4"/>
@@ -5030,7 +5349,7 @@
       <c r="N285" s="4"/>
       <c r="O285" s="4"/>
     </row>
-    <row r="286">
+    <row r="286" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A286" s="4"/>
       <c r="B286" s="4"/>
       <c r="C286" s="4"/>
@@ -5047,7 +5366,7 @@
       <c r="N286" s="4"/>
       <c r="O286" s="4"/>
     </row>
-    <row r="287">
+    <row r="287" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A287" s="4"/>
       <c r="B287" s="4"/>
       <c r="C287" s="4"/>
@@ -5064,7 +5383,7 @@
       <c r="N287" s="4"/>
       <c r="O287" s="4"/>
     </row>
-    <row r="288">
+    <row r="288" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A288" s="4"/>
       <c r="B288" s="4"/>
       <c r="C288" s="4"/>
@@ -5081,7 +5400,7 @@
       <c r="N288" s="4"/>
       <c r="O288" s="4"/>
     </row>
-    <row r="289">
+    <row r="289" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A289" s="4"/>
       <c r="B289" s="4"/>
       <c r="C289" s="4"/>
@@ -5098,7 +5417,7 @@
       <c r="N289" s="4"/>
       <c r="O289" s="4"/>
     </row>
-    <row r="290">
+    <row r="290" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A290" s="4"/>
       <c r="B290" s="4"/>
       <c r="C290" s="4"/>
@@ -5115,7 +5434,7 @@
       <c r="N290" s="4"/>
       <c r="O290" s="4"/>
     </row>
-    <row r="291">
+    <row r="291" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A291" s="4"/>
       <c r="B291" s="4"/>
       <c r="C291" s="4"/>
@@ -5132,7 +5451,7 @@
       <c r="N291" s="4"/>
       <c r="O291" s="4"/>
     </row>
-    <row r="292">
+    <row r="292" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A292" s="4"/>
       <c r="B292" s="4"/>
       <c r="C292" s="4"/>
@@ -5149,7 +5468,7 @@
       <c r="N292" s="4"/>
       <c r="O292" s="4"/>
     </row>
-    <row r="293">
+    <row r="293" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A293" s="4"/>
       <c r="B293" s="4"/>
       <c r="C293" s="4"/>
@@ -5166,7 +5485,7 @@
       <c r="N293" s="4"/>
       <c r="O293" s="4"/>
     </row>
-    <row r="294">
+    <row r="294" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A294" s="4"/>
       <c r="B294" s="4"/>
       <c r="C294" s="4"/>
@@ -5183,7 +5502,7 @@
       <c r="N294" s="4"/>
       <c r="O294" s="4"/>
     </row>
-    <row r="295">
+    <row r="295" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A295" s="4"/>
       <c r="B295" s="4"/>
       <c r="C295" s="4"/>
@@ -5200,7 +5519,7 @@
       <c r="N295" s="4"/>
       <c r="O295" s="4"/>
     </row>
-    <row r="296">
+    <row r="296" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A296" s="4"/>
       <c r="B296" s="4"/>
       <c r="C296" s="4"/>
@@ -5217,7 +5536,7 @@
       <c r="N296" s="4"/>
       <c r="O296" s="4"/>
     </row>
-    <row r="297">
+    <row r="297" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A297" s="4"/>
       <c r="B297" s="4"/>
       <c r="C297" s="4"/>
@@ -5234,7 +5553,7 @@
       <c r="N297" s="4"/>
       <c r="O297" s="4"/>
     </row>
-    <row r="298">
+    <row r="298" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A298" s="4"/>
       <c r="B298" s="4"/>
       <c r="C298" s="4"/>
@@ -5251,7 +5570,7 @@
       <c r="N298" s="4"/>
       <c r="O298" s="4"/>
     </row>
-    <row r="299">
+    <row r="299" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A299" s="4"/>
       <c r="B299" s="4"/>
       <c r="C299" s="4"/>
@@ -5268,7 +5587,7 @@
       <c r="N299" s="4"/>
       <c r="O299" s="4"/>
     </row>
-    <row r="300">
+    <row r="300" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A300" s="4"/>
       <c r="B300" s="4"/>
       <c r="C300" s="4"/>
@@ -5285,7 +5604,7 @@
       <c r="N300" s="4"/>
       <c r="O300" s="4"/>
     </row>
-    <row r="301">
+    <row r="301" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A301" s="4"/>
       <c r="B301" s="4"/>
       <c r="C301" s="4"/>
@@ -5302,7 +5621,7 @@
       <c r="N301" s="4"/>
       <c r="O301" s="4"/>
     </row>
-    <row r="302">
+    <row r="302" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A302" s="4"/>
       <c r="B302" s="4"/>
       <c r="C302" s="4"/>
@@ -5319,7 +5638,7 @@
       <c r="N302" s="4"/>
       <c r="O302" s="4"/>
     </row>
-    <row r="303">
+    <row r="303" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A303" s="4"/>
       <c r="B303" s="4"/>
       <c r="C303" s="4"/>
@@ -5336,7 +5655,7 @@
       <c r="N303" s="4"/>
       <c r="O303" s="4"/>
     </row>
-    <row r="304">
+    <row r="304" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A304" s="4"/>
       <c r="B304" s="4"/>
       <c r="C304" s="4"/>
@@ -5353,7 +5672,7 @@
       <c r="N304" s="4"/>
       <c r="O304" s="4"/>
     </row>
-    <row r="305">
+    <row r="305" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A305" s="4"/>
       <c r="B305" s="4"/>
       <c r="C305" s="4"/>
@@ -5370,7 +5689,7 @@
       <c r="N305" s="4"/>
       <c r="O305" s="4"/>
     </row>
-    <row r="306">
+    <row r="306" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A306" s="4"/>
       <c r="B306" s="4"/>
       <c r="C306" s="4"/>
@@ -5387,7 +5706,7 @@
       <c r="N306" s="4"/>
       <c r="O306" s="4"/>
     </row>
-    <row r="307">
+    <row r="307" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A307" s="4"/>
       <c r="B307" s="4"/>
       <c r="C307" s="4"/>
@@ -5404,7 +5723,7 @@
       <c r="N307" s="4"/>
       <c r="O307" s="4"/>
     </row>
-    <row r="308">
+    <row r="308" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A308" s="4"/>
       <c r="B308" s="4"/>
       <c r="C308" s="4"/>
@@ -5421,7 +5740,7 @@
       <c r="N308" s="4"/>
       <c r="O308" s="4"/>
     </row>
-    <row r="309">
+    <row r="309" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A309" s="4"/>
       <c r="B309" s="4"/>
       <c r="C309" s="4"/>
@@ -5438,7 +5757,7 @@
       <c r="N309" s="4"/>
       <c r="O309" s="4"/>
     </row>
-    <row r="310">
+    <row r="310" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A310" s="4"/>
       <c r="B310" s="4"/>
       <c r="C310" s="4"/>
@@ -5455,7 +5774,7 @@
       <c r="N310" s="4"/>
       <c r="O310" s="4"/>
     </row>
-    <row r="311">
+    <row r="311" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A311" s="4"/>
       <c r="B311" s="4"/>
       <c r="C311" s="4"/>
@@ -5472,7 +5791,7 @@
       <c r="N311" s="4"/>
       <c r="O311" s="4"/>
     </row>
-    <row r="312">
+    <row r="312" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A312" s="4"/>
       <c r="B312" s="4"/>
       <c r="C312" s="4"/>
@@ -5489,7 +5808,7 @@
       <c r="N312" s="4"/>
       <c r="O312" s="4"/>
     </row>
-    <row r="313">
+    <row r="313" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A313" s="4"/>
       <c r="B313" s="4"/>
       <c r="C313" s="4"/>
@@ -5506,7 +5825,7 @@
       <c r="N313" s="4"/>
       <c r="O313" s="4"/>
     </row>
-    <row r="314">
+    <row r="314" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A314" s="4"/>
       <c r="B314" s="4"/>
       <c r="C314" s="4"/>
@@ -5523,7 +5842,7 @@
       <c r="N314" s="4"/>
       <c r="O314" s="4"/>
     </row>
-    <row r="315">
+    <row r="315" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A315" s="4"/>
       <c r="B315" s="4"/>
       <c r="C315" s="4"/>
@@ -5540,7 +5859,7 @@
       <c r="N315" s="4"/>
       <c r="O315" s="4"/>
     </row>
-    <row r="316">
+    <row r="316" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A316" s="4"/>
       <c r="B316" s="4"/>
       <c r="C316" s="4"/>
@@ -5557,7 +5876,7 @@
       <c r="N316" s="4"/>
       <c r="O316" s="4"/>
     </row>
-    <row r="317">
+    <row r="317" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A317" s="4"/>
       <c r="B317" s="4"/>
       <c r="C317" s="4"/>
@@ -5574,7 +5893,7 @@
       <c r="N317" s="4"/>
       <c r="O317" s="4"/>
     </row>
-    <row r="318">
+    <row r="318" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A318" s="4"/>
       <c r="B318" s="4"/>
       <c r="C318" s="4"/>
@@ -5591,7 +5910,7 @@
       <c r="N318" s="4"/>
       <c r="O318" s="4"/>
     </row>
-    <row r="319">
+    <row r="319" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A319" s="4"/>
       <c r="B319" s="4"/>
       <c r="C319" s="4"/>
@@ -5608,7 +5927,7 @@
       <c r="N319" s="4"/>
       <c r="O319" s="4"/>
     </row>
-    <row r="320">
+    <row r="320" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A320" s="4"/>
       <c r="B320" s="4"/>
       <c r="C320" s="4"/>
@@ -5625,7 +5944,7 @@
       <c r="N320" s="4"/>
       <c r="O320" s="4"/>
     </row>
-    <row r="321">
+    <row r="321" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A321" s="4"/>
       <c r="B321" s="4"/>
       <c r="C321" s="4"/>
@@ -5642,7 +5961,7 @@
       <c r="N321" s="4"/>
       <c r="O321" s="4"/>
     </row>
-    <row r="322">
+    <row r="322" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A322" s="4"/>
       <c r="B322" s="4"/>
       <c r="C322" s="4"/>
@@ -5659,7 +5978,7 @@
       <c r="N322" s="4"/>
       <c r="O322" s="4"/>
     </row>
-    <row r="323">
+    <row r="323" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A323" s="4"/>
       <c r="B323" s="4"/>
       <c r="C323" s="4"/>
@@ -5676,7 +5995,7 @@
       <c r="N323" s="4"/>
       <c r="O323" s="4"/>
     </row>
-    <row r="324">
+    <row r="324" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A324" s="4"/>
       <c r="B324" s="4"/>
       <c r="C324" s="4"/>
@@ -5693,7 +6012,7 @@
       <c r="N324" s="4"/>
       <c r="O324" s="4"/>
     </row>
-    <row r="325">
+    <row r="325" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A325" s="4"/>
       <c r="B325" s="4"/>
       <c r="C325" s="4"/>
@@ -5710,7 +6029,7 @@
       <c r="N325" s="4"/>
       <c r="O325" s="4"/>
     </row>
-    <row r="326">
+    <row r="326" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A326" s="4"/>
       <c r="B326" s="4"/>
       <c r="C326" s="4"/>
@@ -5727,7 +6046,7 @@
       <c r="N326" s="4"/>
       <c r="O326" s="4"/>
     </row>
-    <row r="327">
+    <row r="327" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A327" s="4"/>
       <c r="B327" s="4"/>
       <c r="C327" s="4"/>
@@ -5744,7 +6063,7 @@
       <c r="N327" s="4"/>
       <c r="O327" s="4"/>
     </row>
-    <row r="328">
+    <row r="328" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A328" s="4"/>
       <c r="B328" s="4"/>
       <c r="C328" s="4"/>
@@ -5761,7 +6080,7 @@
       <c r="N328" s="4"/>
       <c r="O328" s="4"/>
     </row>
-    <row r="329">
+    <row r="329" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A329" s="4"/>
       <c r="B329" s="4"/>
       <c r="C329" s="4"/>
@@ -5778,7 +6097,7 @@
       <c r="N329" s="4"/>
       <c r="O329" s="4"/>
     </row>
-    <row r="330">
+    <row r="330" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A330" s="4"/>
       <c r="B330" s="4"/>
       <c r="C330" s="4"/>
@@ -5795,7 +6114,7 @@
       <c r="N330" s="4"/>
       <c r="O330" s="4"/>
     </row>
-    <row r="331">
+    <row r="331" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A331" s="4"/>
       <c r="B331" s="4"/>
       <c r="C331" s="4"/>
@@ -5812,7 +6131,7 @@
       <c r="N331" s="4"/>
       <c r="O331" s="4"/>
     </row>
-    <row r="332">
+    <row r="332" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A332" s="4"/>
       <c r="B332" s="4"/>
       <c r="C332" s="4"/>
@@ -5829,7 +6148,7 @@
       <c r="N332" s="4"/>
       <c r="O332" s="4"/>
     </row>
-    <row r="333">
+    <row r="333" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A333" s="4"/>
       <c r="B333" s="4"/>
       <c r="C333" s="4"/>
@@ -5846,7 +6165,7 @@
       <c r="N333" s="4"/>
       <c r="O333" s="4"/>
     </row>
-    <row r="334">
+    <row r="334" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A334" s="4"/>
       <c r="B334" s="4"/>
       <c r="C334" s="4"/>
@@ -5863,7 +6182,7 @@
       <c r="N334" s="4"/>
       <c r="O334" s="4"/>
     </row>
-    <row r="335">
+    <row r="335" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A335" s="4"/>
       <c r="B335" s="4"/>
       <c r="C335" s="4"/>
@@ -5880,7 +6199,7 @@
       <c r="N335" s="4"/>
       <c r="O335" s="4"/>
     </row>
-    <row r="336">
+    <row r="336" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A336" s="4"/>
       <c r="B336" s="4"/>
       <c r="C336" s="4"/>
@@ -5897,7 +6216,7 @@
       <c r="N336" s="4"/>
       <c r="O336" s="4"/>
     </row>
-    <row r="337">
+    <row r="337" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A337" s="4"/>
       <c r="B337" s="4"/>
       <c r="C337" s="4"/>
@@ -5914,7 +6233,7 @@
       <c r="N337" s="4"/>
       <c r="O337" s="4"/>
     </row>
-    <row r="338">
+    <row r="338" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A338" s="4"/>
       <c r="B338" s="4"/>
       <c r="C338" s="4"/>
@@ -5931,7 +6250,7 @@
       <c r="N338" s="4"/>
       <c r="O338" s="4"/>
     </row>
-    <row r="339">
+    <row r="339" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A339" s="4"/>
       <c r="B339" s="4"/>
       <c r="C339" s="4"/>
@@ -5948,7 +6267,7 @@
       <c r="N339" s="4"/>
       <c r="O339" s="4"/>
     </row>
-    <row r="340">
+    <row r="340" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A340" s="4"/>
       <c r="B340" s="4"/>
       <c r="C340" s="4"/>
@@ -5965,7 +6284,7 @@
       <c r="N340" s="4"/>
       <c r="O340" s="4"/>
     </row>
-    <row r="341">
+    <row r="341" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A341" s="4"/>
       <c r="B341" s="4"/>
       <c r="C341" s="4"/>
@@ -5982,7 +6301,7 @@
       <c r="N341" s="4"/>
       <c r="O341" s="4"/>
     </row>
-    <row r="342">
+    <row r="342" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A342" s="4"/>
       <c r="B342" s="4"/>
       <c r="C342" s="4"/>
@@ -5999,7 +6318,7 @@
       <c r="N342" s="4"/>
       <c r="O342" s="4"/>
     </row>
-    <row r="343">
+    <row r="343" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A343" s="4"/>
       <c r="B343" s="4"/>
       <c r="C343" s="4"/>
@@ -6016,7 +6335,7 @@
       <c r="N343" s="4"/>
       <c r="O343" s="4"/>
     </row>
-    <row r="344">
+    <row r="344" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A344" s="4"/>
       <c r="B344" s="4"/>
       <c r="C344" s="4"/>
@@ -6033,7 +6352,7 @@
       <c r="N344" s="4"/>
       <c r="O344" s="4"/>
     </row>
-    <row r="345">
+    <row r="345" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A345" s="4"/>
       <c r="B345" s="4"/>
       <c r="C345" s="4"/>
@@ -6050,7 +6369,7 @@
       <c r="N345" s="4"/>
       <c r="O345" s="4"/>
     </row>
-    <row r="346">
+    <row r="346" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A346" s="4"/>
       <c r="B346" s="4"/>
       <c r="C346" s="4"/>
@@ -6067,7 +6386,7 @@
       <c r="N346" s="4"/>
       <c r="O346" s="4"/>
     </row>
-    <row r="347">
+    <row r="347" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A347" s="4"/>
       <c r="B347" s="4"/>
       <c r="C347" s="4"/>
@@ -6084,7 +6403,7 @@
       <c r="N347" s="4"/>
       <c r="O347" s="4"/>
     </row>
-    <row r="348">
+    <row r="348" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A348" s="4"/>
       <c r="B348" s="4"/>
       <c r="C348" s="4"/>
@@ -6101,7 +6420,7 @@
       <c r="N348" s="4"/>
       <c r="O348" s="4"/>
     </row>
-    <row r="349">
+    <row r="349" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A349" s="4"/>
       <c r="B349" s="4"/>
       <c r="C349" s="4"/>
@@ -6118,7 +6437,7 @@
       <c r="N349" s="4"/>
       <c r="O349" s="4"/>
     </row>
-    <row r="350">
+    <row r="350" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A350" s="4"/>
       <c r="B350" s="4"/>
       <c r="C350" s="4"/>
@@ -6135,7 +6454,7 @@
       <c r="N350" s="4"/>
       <c r="O350" s="4"/>
     </row>
-    <row r="351">
+    <row r="351" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A351" s="4"/>
       <c r="B351" s="4"/>
       <c r="C351" s="4"/>
@@ -6152,7 +6471,7 @@
       <c r="N351" s="4"/>
       <c r="O351" s="4"/>
     </row>
-    <row r="352">
+    <row r="352" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A352" s="4"/>
       <c r="B352" s="4"/>
       <c r="C352" s="4"/>
@@ -6169,7 +6488,7 @@
       <c r="N352" s="4"/>
       <c r="O352" s="4"/>
     </row>
-    <row r="353">
+    <row r="353" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A353" s="4"/>
       <c r="B353" s="4"/>
       <c r="C353" s="4"/>
@@ -6186,7 +6505,7 @@
       <c r="N353" s="4"/>
       <c r="O353" s="4"/>
     </row>
-    <row r="354">
+    <row r="354" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A354" s="4"/>
       <c r="B354" s="4"/>
       <c r="C354" s="4"/>
@@ -6203,7 +6522,7 @@
       <c r="N354" s="4"/>
       <c r="O354" s="4"/>
     </row>
-    <row r="355">
+    <row r="355" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A355" s="4"/>
       <c r="B355" s="4"/>
       <c r="C355" s="4"/>
@@ -6220,7 +6539,7 @@
       <c r="N355" s="4"/>
       <c r="O355" s="4"/>
     </row>
-    <row r="356">
+    <row r="356" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A356" s="4"/>
       <c r="B356" s="4"/>
       <c r="C356" s="4"/>
@@ -6237,7 +6556,7 @@
       <c r="N356" s="4"/>
       <c r="O356" s="4"/>
     </row>
-    <row r="357">
+    <row r="357" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A357" s="4"/>
       <c r="B357" s="4"/>
       <c r="C357" s="4"/>
@@ -6254,7 +6573,7 @@
       <c r="N357" s="4"/>
       <c r="O357" s="4"/>
     </row>
-    <row r="358">
+    <row r="358" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A358" s="4"/>
       <c r="B358" s="4"/>
       <c r="C358" s="4"/>
@@ -6271,7 +6590,7 @@
       <c r="N358" s="4"/>
       <c r="O358" s="4"/>
     </row>
-    <row r="359">
+    <row r="359" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A359" s="4"/>
       <c r="B359" s="4"/>
       <c r="C359" s="4"/>
@@ -6288,7 +6607,7 @@
       <c r="N359" s="4"/>
       <c r="O359" s="4"/>
     </row>
-    <row r="360">
+    <row r="360" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A360" s="4"/>
       <c r="B360" s="4"/>
       <c r="C360" s="4"/>
@@ -6305,7 +6624,7 @@
       <c r="N360" s="4"/>
       <c r="O360" s="4"/>
     </row>
-    <row r="361">
+    <row r="361" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A361" s="4"/>
       <c r="B361" s="4"/>
       <c r="C361" s="4"/>
@@ -6322,7 +6641,7 @@
       <c r="N361" s="4"/>
       <c r="O361" s="4"/>
     </row>
-    <row r="362">
+    <row r="362" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A362" s="4"/>
       <c r="B362" s="4"/>
       <c r="C362" s="4"/>
@@ -6339,7 +6658,7 @@
       <c r="N362" s="4"/>
       <c r="O362" s="4"/>
     </row>
-    <row r="363">
+    <row r="363" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A363" s="4"/>
       <c r="B363" s="4"/>
       <c r="C363" s="4"/>
@@ -6356,7 +6675,7 @@
       <c r="N363" s="4"/>
       <c r="O363" s="4"/>
     </row>
-    <row r="364">
+    <row r="364" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A364" s="4"/>
       <c r="B364" s="4"/>
       <c r="C364" s="4"/>
@@ -6373,7 +6692,7 @@
       <c r="N364" s="4"/>
       <c r="O364" s="4"/>
     </row>
-    <row r="365">
+    <row r="365" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A365" s="4"/>
       <c r="B365" s="4"/>
       <c r="C365" s="4"/>
@@ -6390,7 +6709,7 @@
       <c r="N365" s="4"/>
       <c r="O365" s="4"/>
     </row>
-    <row r="366">
+    <row r="366" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A366" s="4"/>
       <c r="B366" s="4"/>
       <c r="C366" s="4"/>
@@ -6407,7 +6726,7 @@
       <c r="N366" s="4"/>
       <c r="O366" s="4"/>
     </row>
-    <row r="367">
+    <row r="367" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A367" s="4"/>
       <c r="B367" s="4"/>
       <c r="C367" s="4"/>
@@ -6424,7 +6743,7 @@
       <c r="N367" s="4"/>
       <c r="O367" s="4"/>
     </row>
-    <row r="368">
+    <row r="368" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A368" s="4"/>
       <c r="B368" s="4"/>
       <c r="C368" s="4"/>
@@ -6441,7 +6760,7 @@
       <c r="N368" s="4"/>
       <c r="O368" s="4"/>
     </row>
-    <row r="369">
+    <row r="369" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A369" s="4"/>
       <c r="B369" s="4"/>
       <c r="C369" s="4"/>
@@ -6458,7 +6777,7 @@
       <c r="N369" s="4"/>
       <c r="O369" s="4"/>
     </row>
-    <row r="370">
+    <row r="370" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A370" s="4"/>
       <c r="B370" s="4"/>
       <c r="C370" s="4"/>
@@ -6475,7 +6794,7 @@
       <c r="N370" s="4"/>
       <c r="O370" s="4"/>
     </row>
-    <row r="371">
+    <row r="371" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A371" s="4"/>
       <c r="B371" s="4"/>
       <c r="C371" s="4"/>
@@ -6492,7 +6811,7 @@
       <c r="N371" s="4"/>
       <c r="O371" s="4"/>
     </row>
-    <row r="372">
+    <row r="372" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A372" s="4"/>
       <c r="B372" s="4"/>
       <c r="C372" s="4"/>
@@ -6509,7 +6828,7 @@
       <c r="N372" s="4"/>
       <c r="O372" s="4"/>
     </row>
-    <row r="373">
+    <row r="373" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A373" s="4"/>
       <c r="B373" s="4"/>
       <c r="C373" s="4"/>
@@ -6526,7 +6845,7 @@
       <c r="N373" s="4"/>
       <c r="O373" s="4"/>
     </row>
-    <row r="374">
+    <row r="374" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A374" s="4"/>
       <c r="B374" s="4"/>
       <c r="C374" s="4"/>
@@ -6543,7 +6862,7 @@
       <c r="N374" s="4"/>
       <c r="O374" s="4"/>
     </row>
-    <row r="375">
+    <row r="375" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A375" s="4"/>
       <c r="B375" s="4"/>
       <c r="C375" s="4"/>
@@ -6560,7 +6879,7 @@
       <c r="N375" s="4"/>
       <c r="O375" s="4"/>
     </row>
-    <row r="376">
+    <row r="376" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A376" s="4"/>
       <c r="B376" s="4"/>
       <c r="C376" s="4"/>
@@ -6577,7 +6896,7 @@
       <c r="N376" s="4"/>
       <c r="O376" s="4"/>
     </row>
-    <row r="377">
+    <row r="377" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A377" s="4"/>
       <c r="B377" s="4"/>
       <c r="C377" s="4"/>
@@ -6594,7 +6913,7 @@
       <c r="N377" s="4"/>
       <c r="O377" s="4"/>
     </row>
-    <row r="378">
+    <row r="378" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A378" s="4"/>
       <c r="B378" s="4"/>
       <c r="C378" s="4"/>
@@ -6611,7 +6930,7 @@
       <c r="N378" s="4"/>
       <c r="O378" s="4"/>
     </row>
-    <row r="379">
+    <row r="379" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A379" s="4"/>
       <c r="B379" s="4"/>
       <c r="C379" s="4"/>
@@ -6628,7 +6947,7 @@
       <c r="N379" s="4"/>
       <c r="O379" s="4"/>
     </row>
-    <row r="380">
+    <row r="380" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A380" s="4"/>
       <c r="B380" s="4"/>
       <c r="C380" s="4"/>
@@ -6645,7 +6964,7 @@
       <c r="N380" s="4"/>
       <c r="O380" s="4"/>
     </row>
-    <row r="381">
+    <row r="381" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A381" s="4"/>
       <c r="B381" s="4"/>
       <c r="C381" s="4"/>
@@ -6662,7 +6981,7 @@
       <c r="N381" s="4"/>
       <c r="O381" s="4"/>
     </row>
-    <row r="382">
+    <row r="382" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A382" s="4"/>
       <c r="B382" s="4"/>
       <c r="C382" s="4"/>
@@ -6679,7 +6998,7 @@
       <c r="N382" s="4"/>
       <c r="O382" s="4"/>
     </row>
-    <row r="383">
+    <row r="383" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A383" s="4"/>
       <c r="B383" s="4"/>
       <c r="C383" s="4"/>
@@ -6696,7 +7015,7 @@
       <c r="N383" s="4"/>
       <c r="O383" s="4"/>
     </row>
-    <row r="384">
+    <row r="384" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A384" s="4"/>
       <c r="B384" s="4"/>
       <c r="C384" s="4"/>
@@ -6713,7 +7032,7 @@
       <c r="N384" s="4"/>
       <c r="O384" s="4"/>
     </row>
-    <row r="385">
+    <row r="385" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A385" s="4"/>
       <c r="B385" s="4"/>
       <c r="C385" s="4"/>
@@ -6730,7 +7049,7 @@
       <c r="N385" s="4"/>
       <c r="O385" s="4"/>
     </row>
-    <row r="386">
+    <row r="386" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A386" s="4"/>
       <c r="B386" s="4"/>
       <c r="C386" s="4"/>
@@ -6747,7 +7066,7 @@
       <c r="N386" s="4"/>
       <c r="O386" s="4"/>
     </row>
-    <row r="387">
+    <row r="387" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A387" s="4"/>
       <c r="B387" s="4"/>
       <c r="C387" s="4"/>
@@ -6764,7 +7083,7 @@
       <c r="N387" s="4"/>
       <c r="O387" s="4"/>
     </row>
-    <row r="388">
+    <row r="388" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A388" s="4"/>
       <c r="B388" s="4"/>
       <c r="C388" s="4"/>
@@ -6781,7 +7100,7 @@
       <c r="N388" s="4"/>
       <c r="O388" s="4"/>
     </row>
-    <row r="389">
+    <row r="389" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A389" s="4"/>
       <c r="B389" s="4"/>
       <c r="C389" s="4"/>
@@ -6798,7 +7117,7 @@
       <c r="N389" s="4"/>
       <c r="O389" s="4"/>
     </row>
-    <row r="390">
+    <row r="390" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A390" s="4"/>
       <c r="B390" s="4"/>
       <c r="C390" s="4"/>
@@ -6815,7 +7134,7 @@
       <c r="N390" s="4"/>
       <c r="O390" s="4"/>
     </row>
-    <row r="391">
+    <row r="391" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A391" s="4"/>
       <c r="B391" s="4"/>
       <c r="C391" s="4"/>
@@ -6832,7 +7151,7 @@
       <c r="N391" s="4"/>
       <c r="O391" s="4"/>
     </row>
-    <row r="392">
+    <row r="392" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A392" s="4"/>
       <c r="B392" s="4"/>
       <c r="C392" s="4"/>
@@ -6849,7 +7168,7 @@
       <c r="N392" s="4"/>
       <c r="O392" s="4"/>
     </row>
-    <row r="393">
+    <row r="393" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A393" s="4"/>
       <c r="B393" s="4"/>
       <c r="C393" s="4"/>
@@ -6866,7 +7185,7 @@
       <c r="N393" s="4"/>
       <c r="O393" s="4"/>
     </row>
-    <row r="394">
+    <row r="394" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A394" s="4"/>
       <c r="B394" s="4"/>
       <c r="C394" s="4"/>
@@ -6883,7 +7202,7 @@
       <c r="N394" s="4"/>
       <c r="O394" s="4"/>
     </row>
-    <row r="395">
+    <row r="395" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A395" s="4"/>
       <c r="B395" s="4"/>
       <c r="C395" s="4"/>
@@ -6900,7 +7219,7 @@
       <c r="N395" s="4"/>
       <c r="O395" s="4"/>
     </row>
-    <row r="396">
+    <row r="396" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A396" s="4"/>
       <c r="B396" s="4"/>
       <c r="C396" s="4"/>
@@ -6917,7 +7236,7 @@
       <c r="N396" s="4"/>
       <c r="O396" s="4"/>
     </row>
-    <row r="397">
+    <row r="397" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A397" s="4"/>
       <c r="B397" s="4"/>
       <c r="C397" s="4"/>
@@ -6934,7 +7253,7 @@
       <c r="N397" s="4"/>
       <c r="O397" s="4"/>
     </row>
-    <row r="398">
+    <row r="398" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A398" s="4"/>
       <c r="B398" s="4"/>
       <c r="C398" s="4"/>
@@ -6951,7 +7270,7 @@
       <c r="N398" s="4"/>
       <c r="O398" s="4"/>
     </row>
-    <row r="399">
+    <row r="399" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A399" s="4"/>
       <c r="B399" s="4"/>
       <c r="C399" s="4"/>
@@ -6968,7 +7287,7 @@
       <c r="N399" s="4"/>
       <c r="O399" s="4"/>
     </row>
-    <row r="400">
+    <row r="400" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A400" s="4"/>
       <c r="B400" s="4"/>
       <c r="C400" s="4"/>
@@ -6985,7 +7304,7 @@
       <c r="N400" s="4"/>
       <c r="O400" s="4"/>
     </row>
-    <row r="401">
+    <row r="401" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A401" s="4"/>
       <c r="B401" s="4"/>
       <c r="C401" s="4"/>
@@ -7002,7 +7321,7 @@
       <c r="N401" s="4"/>
       <c r="O401" s="4"/>
     </row>
-    <row r="402">
+    <row r="402" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A402" s="4"/>
       <c r="B402" s="4"/>
       <c r="C402" s="4"/>
@@ -7019,7 +7338,7 @@
       <c r="N402" s="4"/>
       <c r="O402" s="4"/>
     </row>
-    <row r="403">
+    <row r="403" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A403" s="4"/>
       <c r="B403" s="4"/>
       <c r="C403" s="4"/>
@@ -7036,7 +7355,7 @@
       <c r="N403" s="4"/>
       <c r="O403" s="4"/>
     </row>
-    <row r="404">
+    <row r="404" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A404" s="4"/>
       <c r="B404" s="4"/>
       <c r="C404" s="4"/>
@@ -7053,7 +7372,7 @@
       <c r="N404" s="4"/>
       <c r="O404" s="4"/>
     </row>
-    <row r="405">
+    <row r="405" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A405" s="4"/>
       <c r="B405" s="4"/>
       <c r="C405" s="4"/>
@@ -7070,7 +7389,7 @@
       <c r="N405" s="4"/>
       <c r="O405" s="4"/>
     </row>
-    <row r="406">
+    <row r="406" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A406" s="4"/>
       <c r="B406" s="4"/>
       <c r="C406" s="4"/>
@@ -7087,7 +7406,7 @@
       <c r="N406" s="4"/>
       <c r="O406" s="4"/>
     </row>
-    <row r="407">
+    <row r="407" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A407" s="4"/>
       <c r="B407" s="4"/>
       <c r="C407" s="4"/>
@@ -7104,7 +7423,7 @@
       <c r="N407" s="4"/>
       <c r="O407" s="4"/>
     </row>
-    <row r="408">
+    <row r="408" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A408" s="4"/>
       <c r="B408" s="4"/>
       <c r="C408" s="4"/>
@@ -7121,7 +7440,7 @@
       <c r="N408" s="4"/>
       <c r="O408" s="4"/>
     </row>
-    <row r="409">
+    <row r="409" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A409" s="4"/>
       <c r="B409" s="4"/>
       <c r="C409" s="4"/>
@@ -7138,7 +7457,7 @@
       <c r="N409" s="4"/>
       <c r="O409" s="4"/>
     </row>
-    <row r="410">
+    <row r="410" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A410" s="4"/>
       <c r="B410" s="4"/>
       <c r="C410" s="4"/>
@@ -7155,7 +7474,7 @@
       <c r="N410" s="4"/>
       <c r="O410" s="4"/>
     </row>
-    <row r="411">
+    <row r="411" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A411" s="4"/>
       <c r="B411" s="4"/>
       <c r="C411" s="4"/>
@@ -7172,7 +7491,7 @@
       <c r="N411" s="4"/>
       <c r="O411" s="4"/>
     </row>
-    <row r="412">
+    <row r="412" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A412" s="4"/>
       <c r="B412" s="4"/>
       <c r="C412" s="4"/>
@@ -7189,7 +7508,7 @@
       <c r="N412" s="4"/>
       <c r="O412" s="4"/>
     </row>
-    <row r="413">
+    <row r="413" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A413" s="4"/>
       <c r="B413" s="4"/>
       <c r="C413" s="4"/>
@@ -7206,7 +7525,7 @@
       <c r="N413" s="4"/>
       <c r="O413" s="4"/>
     </row>
-    <row r="414">
+    <row r="414" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A414" s="4"/>
       <c r="B414" s="4"/>
       <c r="C414" s="4"/>
@@ -7223,7 +7542,7 @@
       <c r="N414" s="4"/>
       <c r="O414" s="4"/>
     </row>
-    <row r="415">
+    <row r="415" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A415" s="4"/>
       <c r="B415" s="4"/>
       <c r="C415" s="4"/>
@@ -7240,7 +7559,7 @@
       <c r="N415" s="4"/>
       <c r="O415" s="4"/>
     </row>
-    <row r="416">
+    <row r="416" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A416" s="4"/>
       <c r="B416" s="4"/>
       <c r="C416" s="4"/>
@@ -7257,7 +7576,7 @@
       <c r="N416" s="4"/>
       <c r="O416" s="4"/>
     </row>
-    <row r="417">
+    <row r="417" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A417" s="4"/>
       <c r="B417" s="4"/>
       <c r="C417" s="4"/>
@@ -7274,7 +7593,7 @@
       <c r="N417" s="4"/>
       <c r="O417" s="4"/>
     </row>
-    <row r="418">
+    <row r="418" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A418" s="4"/>
       <c r="B418" s="4"/>
       <c r="C418" s="4"/>
@@ -7291,7 +7610,7 @@
       <c r="N418" s="4"/>
       <c r="O418" s="4"/>
     </row>
-    <row r="419">
+    <row r="419" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A419" s="4"/>
       <c r="B419" s="4"/>
       <c r="C419" s="4"/>
@@ -7308,7 +7627,7 @@
       <c r="N419" s="4"/>
       <c r="O419" s="4"/>
     </row>
-    <row r="420">
+    <row r="420" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A420" s="4"/>
       <c r="B420" s="4"/>
       <c r="C420" s="4"/>
@@ -7325,7 +7644,7 @@
       <c r="N420" s="4"/>
       <c r="O420" s="4"/>
     </row>
-    <row r="421">
+    <row r="421" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A421" s="4"/>
       <c r="B421" s="4"/>
       <c r="C421" s="4"/>
@@ -7342,7 +7661,7 @@
       <c r="N421" s="4"/>
       <c r="O421" s="4"/>
     </row>
-    <row r="422">
+    <row r="422" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A422" s="4"/>
       <c r="B422" s="4"/>
       <c r="C422" s="4"/>
@@ -7359,7 +7678,7 @@
       <c r="N422" s="4"/>
       <c r="O422" s="4"/>
     </row>
-    <row r="423">
+    <row r="423" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A423" s="4"/>
       <c r="B423" s="4"/>
       <c r="C423" s="4"/>
@@ -7376,7 +7695,7 @@
       <c r="N423" s="4"/>
       <c r="O423" s="4"/>
     </row>
-    <row r="424">
+    <row r="424" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A424" s="4"/>
       <c r="B424" s="4"/>
       <c r="C424" s="4"/>
@@ -7393,7 +7712,7 @@
       <c r="N424" s="4"/>
       <c r="O424" s="4"/>
     </row>
-    <row r="425">
+    <row r="425" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A425" s="4"/>
       <c r="B425" s="4"/>
       <c r="C425" s="4"/>
@@ -7410,7 +7729,7 @@
       <c r="N425" s="4"/>
       <c r="O425" s="4"/>
     </row>
-    <row r="426">
+    <row r="426" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A426" s="4"/>
       <c r="B426" s="4"/>
       <c r="C426" s="4"/>
@@ -7427,7 +7746,7 @@
       <c r="N426" s="4"/>
       <c r="O426" s="4"/>
     </row>
-    <row r="427">
+    <row r="427" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A427" s="4"/>
       <c r="B427" s="4"/>
       <c r="C427" s="4"/>
@@ -7444,7 +7763,7 @@
       <c r="N427" s="4"/>
       <c r="O427" s="4"/>
     </row>
-    <row r="428">
+    <row r="428" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A428" s="4"/>
       <c r="B428" s="4"/>
       <c r="C428" s="4"/>
@@ -7461,7 +7780,7 @@
       <c r="N428" s="4"/>
       <c r="O428" s="4"/>
     </row>
-    <row r="429">
+    <row r="429" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A429" s="4"/>
       <c r="B429" s="4"/>
       <c r="C429" s="4"/>
@@ -7478,7 +7797,7 @@
       <c r="N429" s="4"/>
       <c r="O429" s="4"/>
     </row>
-    <row r="430">
+    <row r="430" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A430" s="4"/>
       <c r="B430" s="4"/>
       <c r="C430" s="4"/>
@@ -7495,7 +7814,7 @@
       <c r="N430" s="4"/>
       <c r="O430" s="4"/>
     </row>
-    <row r="431">
+    <row r="431" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A431" s="4"/>
       <c r="B431" s="4"/>
       <c r="C431" s="4"/>
@@ -7512,7 +7831,7 @@
       <c r="N431" s="4"/>
       <c r="O431" s="4"/>
     </row>
-    <row r="432">
+    <row r="432" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A432" s="4"/>
       <c r="B432" s="4"/>
       <c r="C432" s="4"/>
@@ -7529,7 +7848,7 @@
       <c r="N432" s="4"/>
       <c r="O432" s="4"/>
     </row>
-    <row r="433">
+    <row r="433" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A433" s="4"/>
       <c r="B433" s="4"/>
       <c r="C433" s="4"/>
@@ -7546,7 +7865,7 @@
       <c r="N433" s="4"/>
       <c r="O433" s="4"/>
     </row>
-    <row r="434">
+    <row r="434" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A434" s="4"/>
       <c r="B434" s="4"/>
       <c r="C434" s="4"/>
@@ -7563,7 +7882,7 @@
       <c r="N434" s="4"/>
       <c r="O434" s="4"/>
     </row>
-    <row r="435">
+    <row r="435" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A435" s="4"/>
       <c r="B435" s="4"/>
       <c r="C435" s="4"/>
@@ -7580,7 +7899,7 @@
       <c r="N435" s="4"/>
       <c r="O435" s="4"/>
     </row>
-    <row r="436">
+    <row r="436" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A436" s="4"/>
       <c r="B436" s="4"/>
       <c r="C436" s="4"/>
@@ -7597,7 +7916,7 @@
       <c r="N436" s="4"/>
       <c r="O436" s="4"/>
     </row>
-    <row r="437">
+    <row r="437" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A437" s="4"/>
       <c r="B437" s="4"/>
       <c r="C437" s="4"/>
@@ -7614,7 +7933,7 @@
       <c r="N437" s="4"/>
       <c r="O437" s="4"/>
     </row>
-    <row r="438">
+    <row r="438" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A438" s="4"/>
       <c r="B438" s="4"/>
       <c r="C438" s="4"/>
@@ -7631,7 +7950,7 @@
       <c r="N438" s="4"/>
       <c r="O438" s="4"/>
     </row>
-    <row r="439">
+    <row r="439" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A439" s="4"/>
       <c r="B439" s="4"/>
       <c r="C439" s="4"/>
@@ -7648,7 +7967,7 @@
       <c r="N439" s="4"/>
       <c r="O439" s="4"/>
     </row>
-    <row r="440">
+    <row r="440" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A440" s="4"/>
       <c r="B440" s="4"/>
       <c r="C440" s="4"/>
@@ -7665,7 +7984,7 @@
       <c r="N440" s="4"/>
       <c r="O440" s="4"/>
     </row>
-    <row r="441">
+    <row r="441" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A441" s="4"/>
       <c r="B441" s="4"/>
       <c r="C441" s="4"/>
@@ -7682,7 +8001,7 @@
       <c r="N441" s="4"/>
       <c r="O441" s="4"/>
     </row>
-    <row r="442">
+    <row r="442" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A442" s="4"/>
       <c r="B442" s="4"/>
       <c r="C442" s="4"/>
@@ -7699,7 +8018,7 @@
       <c r="N442" s="4"/>
       <c r="O442" s="4"/>
     </row>
-    <row r="443">
+    <row r="443" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A443" s="4"/>
       <c r="B443" s="4"/>
       <c r="C443" s="4"/>
@@ -7716,7 +8035,7 @@
       <c r="N443" s="4"/>
       <c r="O443" s="4"/>
     </row>
-    <row r="444">
+    <row r="444" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A444" s="4"/>
       <c r="B444" s="4"/>
       <c r="C444" s="4"/>
@@ -7733,7 +8052,7 @@
       <c r="N444" s="4"/>
       <c r="O444" s="4"/>
     </row>
-    <row r="445">
+    <row r="445" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A445" s="4"/>
       <c r="B445" s="4"/>
       <c r="C445" s="4"/>
@@ -7750,7 +8069,7 @@
       <c r="N445" s="4"/>
       <c r="O445" s="4"/>
     </row>
-    <row r="446">
+    <row r="446" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A446" s="4"/>
       <c r="B446" s="4"/>
       <c r="C446" s="4"/>
@@ -7767,7 +8086,7 @@
       <c r="N446" s="4"/>
       <c r="O446" s="4"/>
     </row>
-    <row r="447">
+    <row r="447" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A447" s="4"/>
       <c r="B447" s="4"/>
       <c r="C447" s="4"/>
@@ -7784,7 +8103,7 @@
       <c r="N447" s="4"/>
       <c r="O447" s="4"/>
     </row>
-    <row r="448">
+    <row r="448" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A448" s="4"/>
       <c r="B448" s="4"/>
       <c r="C448" s="4"/>
@@ -7801,7 +8120,7 @@
       <c r="N448" s="4"/>
       <c r="O448" s="4"/>
     </row>
-    <row r="449">
+    <row r="449" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A449" s="4"/>
       <c r="B449" s="4"/>
       <c r="C449" s="4"/>
@@ -7818,7 +8137,7 @@
       <c r="N449" s="4"/>
       <c r="O449" s="4"/>
     </row>
-    <row r="450">
+    <row r="450" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A450" s="4"/>
       <c r="B450" s="4"/>
       <c r="C450" s="4"/>
@@ -7835,7 +8154,7 @@
       <c r="N450" s="4"/>
       <c r="O450" s="4"/>
     </row>
-    <row r="451">
+    <row r="451" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A451" s="4"/>
       <c r="B451" s="4"/>
       <c r="C451" s="4"/>
@@ -7852,7 +8171,7 @@
       <c r="N451" s="4"/>
       <c r="O451" s="4"/>
     </row>
-    <row r="452">
+    <row r="452" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A452" s="4"/>
       <c r="B452" s="4"/>
       <c r="C452" s="4"/>
@@ -7869,7 +8188,7 @@
       <c r="N452" s="4"/>
       <c r="O452" s="4"/>
     </row>
-    <row r="453">
+    <row r="453" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A453" s="4"/>
       <c r="B453" s="4"/>
       <c r="C453" s="4"/>
@@ -7886,7 +8205,7 @@
       <c r="N453" s="4"/>
       <c r="O453" s="4"/>
     </row>
-    <row r="454">
+    <row r="454" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A454" s="4"/>
       <c r="B454" s="4"/>
       <c r="C454" s="4"/>
@@ -7903,7 +8222,7 @@
       <c r="N454" s="4"/>
       <c r="O454" s="4"/>
     </row>
-    <row r="455">
+    <row r="455" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A455" s="4"/>
       <c r="B455" s="4"/>
       <c r="C455" s="4"/>
@@ -7920,7 +8239,7 @@
       <c r="N455" s="4"/>
       <c r="O455" s="4"/>
     </row>
-    <row r="456">
+    <row r="456" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A456" s="4"/>
       <c r="B456" s="4"/>
       <c r="C456" s="4"/>
@@ -7937,7 +8256,7 @@
       <c r="N456" s="4"/>
       <c r="O456" s="4"/>
     </row>
-    <row r="457">
+    <row r="457" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A457" s="4"/>
       <c r="B457" s="4"/>
       <c r="C457" s="4"/>
@@ -7954,7 +8273,7 @@
       <c r="N457" s="4"/>
       <c r="O457" s="4"/>
     </row>
-    <row r="458">
+    <row r="458" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A458" s="4"/>
       <c r="B458" s="4"/>
       <c r="C458" s="4"/>
@@ -7971,7 +8290,7 @@
       <c r="N458" s="4"/>
       <c r="O458" s="4"/>
     </row>
-    <row r="459">
+    <row r="459" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A459" s="4"/>
       <c r="B459" s="4"/>
       <c r="C459" s="4"/>
@@ -7988,7 +8307,7 @@
       <c r="N459" s="4"/>
       <c r="O459" s="4"/>
     </row>
-    <row r="460">
+    <row r="460" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A460" s="4"/>
       <c r="B460" s="4"/>
       <c r="C460" s="4"/>
@@ -8005,7 +8324,7 @@
       <c r="N460" s="4"/>
       <c r="O460" s="4"/>
     </row>
-    <row r="461">
+    <row r="461" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A461" s="4"/>
       <c r="B461" s="4"/>
       <c r="C461" s="4"/>
@@ -8022,7 +8341,7 @@
       <c r="N461" s="4"/>
       <c r="O461" s="4"/>
     </row>
-    <row r="462">
+    <row r="462" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A462" s="4"/>
       <c r="B462" s="4"/>
       <c r="C462" s="4"/>
@@ -8039,7 +8358,7 @@
       <c r="N462" s="4"/>
       <c r="O462" s="4"/>
     </row>
-    <row r="463">
+    <row r="463" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A463" s="4"/>
       <c r="B463" s="4"/>
       <c r="C463" s="4"/>
@@ -8056,7 +8375,7 @@
       <c r="N463" s="4"/>
       <c r="O463" s="4"/>
     </row>
-    <row r="464">
+    <row r="464" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A464" s="4"/>
       <c r="B464" s="4"/>
       <c r="C464" s="4"/>
@@ -8073,7 +8392,7 @@
       <c r="N464" s="4"/>
       <c r="O464" s="4"/>
     </row>
-    <row r="465">
+    <row r="465" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A465" s="4"/>
       <c r="B465" s="4"/>
       <c r="C465" s="4"/>
@@ -8090,7 +8409,7 @@
       <c r="N465" s="4"/>
       <c r="O465" s="4"/>
     </row>
-    <row r="466">
+    <row r="466" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A466" s="4"/>
       <c r="B466" s="4"/>
       <c r="C466" s="4"/>
@@ -8107,7 +8426,7 @@
       <c r="N466" s="4"/>
       <c r="O466" s="4"/>
     </row>
-    <row r="467">
+    <row r="467" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A467" s="4"/>
       <c r="B467" s="4"/>
       <c r="C467" s="4"/>
@@ -8124,7 +8443,7 @@
       <c r="N467" s="4"/>
       <c r="O467" s="4"/>
     </row>
-    <row r="468">
+    <row r="468" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A468" s="4"/>
       <c r="B468" s="4"/>
       <c r="C468" s="4"/>
@@ -8141,7 +8460,7 @@
       <c r="N468" s="4"/>
       <c r="O468" s="4"/>
     </row>
-    <row r="469">
+    <row r="469" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A469" s="4"/>
       <c r="B469" s="4"/>
       <c r="C469" s="4"/>
@@ -8158,7 +8477,7 @@
       <c r="N469" s="4"/>
       <c r="O469" s="4"/>
     </row>
-    <row r="470">
+    <row r="470" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A470" s="4"/>
       <c r="B470" s="4"/>
       <c r="C470" s="4"/>
@@ -8175,7 +8494,7 @@
       <c r="N470" s="4"/>
       <c r="O470" s="4"/>
     </row>
-    <row r="471">
+    <row r="471" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A471" s="4"/>
       <c r="B471" s="4"/>
       <c r="C471" s="4"/>
@@ -8192,7 +8511,7 @@
       <c r="N471" s="4"/>
       <c r="O471" s="4"/>
     </row>
-    <row r="472">
+    <row r="472" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A472" s="4"/>
       <c r="B472" s="4"/>
       <c r="C472" s="4"/>
@@ -8209,7 +8528,7 @@
       <c r="N472" s="4"/>
       <c r="O472" s="4"/>
     </row>
-    <row r="473">
+    <row r="473" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A473" s="4"/>
       <c r="B473" s="4"/>
       <c r="C473" s="4"/>
@@ -8226,7 +8545,7 @@
       <c r="N473" s="4"/>
       <c r="O473" s="4"/>
     </row>
-    <row r="474">
+    <row r="474" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A474" s="4"/>
       <c r="B474" s="4"/>
       <c r="C474" s="4"/>
@@ -8243,7 +8562,7 @@
       <c r="N474" s="4"/>
       <c r="O474" s="4"/>
     </row>
-    <row r="475">
+    <row r="475" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A475" s="4"/>
       <c r="B475" s="4"/>
       <c r="C475" s="4"/>
@@ -8260,7 +8579,7 @@
       <c r="N475" s="4"/>
       <c r="O475" s="4"/>
     </row>
-    <row r="476">
+    <row r="476" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A476" s="4"/>
       <c r="B476" s="4"/>
       <c r="C476" s="4"/>
@@ -8277,7 +8596,7 @@
       <c r="N476" s="4"/>
       <c r="O476" s="4"/>
     </row>
-    <row r="477">
+    <row r="477" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A477" s="4"/>
       <c r="B477" s="4"/>
       <c r="C477" s="4"/>
@@ -8294,7 +8613,7 @@
       <c r="N477" s="4"/>
       <c r="O477" s="4"/>
     </row>
-    <row r="478">
+    <row r="478" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A478" s="4"/>
       <c r="B478" s="4"/>
       <c r="C478" s="4"/>
@@ -8311,7 +8630,7 @@
       <c r="N478" s="4"/>
       <c r="O478" s="4"/>
     </row>
-    <row r="479">
+    <row r="479" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A479" s="4"/>
       <c r="B479" s="4"/>
       <c r="C479" s="4"/>
@@ -8328,7 +8647,7 @@
       <c r="N479" s="4"/>
       <c r="O479" s="4"/>
     </row>
-    <row r="480">
+    <row r="480" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A480" s="4"/>
       <c r="B480" s="4"/>
       <c r="C480" s="4"/>
@@ -8345,7 +8664,7 @@
       <c r="N480" s="4"/>
       <c r="O480" s="4"/>
     </row>
-    <row r="481">
+    <row r="481" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A481" s="4"/>
       <c r="B481" s="4"/>
       <c r="C481" s="4"/>
@@ -8362,7 +8681,7 @@
       <c r="N481" s="4"/>
       <c r="O481" s="4"/>
     </row>
-    <row r="482">
+    <row r="482" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A482" s="4"/>
       <c r="B482" s="4"/>
       <c r="C482" s="4"/>
@@ -8379,7 +8698,7 @@
       <c r="N482" s="4"/>
       <c r="O482" s="4"/>
     </row>
-    <row r="483">
+    <row r="483" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A483" s="4"/>
       <c r="B483" s="4"/>
       <c r="C483" s="4"/>
@@ -8396,7 +8715,7 @@
       <c r="N483" s="4"/>
       <c r="O483" s="4"/>
     </row>
-    <row r="484">
+    <row r="484" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A484" s="4"/>
       <c r="B484" s="4"/>
       <c r="C484" s="4"/>
@@ -8413,7 +8732,7 @@
       <c r="N484" s="4"/>
       <c r="O484" s="4"/>
     </row>
-    <row r="485">
+    <row r="485" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A485" s="4"/>
       <c r="B485" s="4"/>
       <c r="C485" s="4"/>
@@ -8430,7 +8749,7 @@
       <c r="N485" s="4"/>
       <c r="O485" s="4"/>
     </row>
-    <row r="486">
+    <row r="486" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A486" s="4"/>
       <c r="B486" s="4"/>
       <c r="C486" s="4"/>
@@ -8447,7 +8766,7 @@
       <c r="N486" s="4"/>
       <c r="O486" s="4"/>
     </row>
-    <row r="487">
+    <row r="487" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A487" s="4"/>
       <c r="B487" s="4"/>
       <c r="C487" s="4"/>
@@ -8464,7 +8783,7 @@
       <c r="N487" s="4"/>
       <c r="O487" s="4"/>
     </row>
-    <row r="488">
+    <row r="488" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A488" s="4"/>
       <c r="B488" s="4"/>
       <c r="C488" s="4"/>
@@ -8481,7 +8800,7 @@
       <c r="N488" s="4"/>
       <c r="O488" s="4"/>
     </row>
-    <row r="489">
+    <row r="489" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A489" s="4"/>
       <c r="B489" s="4"/>
       <c r="C489" s="4"/>
@@ -8498,7 +8817,7 @@
       <c r="N489" s="4"/>
       <c r="O489" s="4"/>
     </row>
-    <row r="490">
+    <row r="490" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A490" s="4"/>
       <c r="B490" s="4"/>
       <c r="C490" s="4"/>
@@ -8515,7 +8834,7 @@
       <c r="N490" s="4"/>
       <c r="O490" s="4"/>
     </row>
-    <row r="491">
+    <row r="491" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A491" s="4"/>
       <c r="B491" s="4"/>
       <c r="C491" s="4"/>
@@ -8532,7 +8851,7 @@
       <c r="N491" s="4"/>
       <c r="O491" s="4"/>
     </row>
-    <row r="492">
+    <row r="492" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A492" s="4"/>
       <c r="B492" s="4"/>
       <c r="C492" s="4"/>
@@ -8549,7 +8868,7 @@
       <c r="N492" s="4"/>
       <c r="O492" s="4"/>
     </row>
-    <row r="493">
+    <row r="493" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A493" s="4"/>
       <c r="B493" s="4"/>
       <c r="C493" s="4"/>
@@ -8566,7 +8885,7 @@
       <c r="N493" s="4"/>
       <c r="O493" s="4"/>
     </row>
-    <row r="494">
+    <row r="494" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A494" s="4"/>
       <c r="B494" s="4"/>
       <c r="C494" s="4"/>
@@ -8583,7 +8902,7 @@
       <c r="N494" s="4"/>
       <c r="O494" s="4"/>
     </row>
-    <row r="495">
+    <row r="495" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A495" s="4"/>
       <c r="B495" s="4"/>
       <c r="C495" s="4"/>
@@ -8600,7 +8919,7 @@
       <c r="N495" s="4"/>
       <c r="O495" s="4"/>
     </row>
-    <row r="496">
+    <row r="496" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A496" s="4"/>
       <c r="B496" s="4"/>
       <c r="C496" s="4"/>
@@ -8617,7 +8936,7 @@
       <c r="N496" s="4"/>
       <c r="O496" s="4"/>
     </row>
-    <row r="497">
+    <row r="497" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A497" s="4"/>
       <c r="B497" s="4"/>
       <c r="C497" s="4"/>
@@ -8634,7 +8953,7 @@
       <c r="N497" s="4"/>
       <c r="O497" s="4"/>
     </row>
-    <row r="498">
+    <row r="498" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A498" s="4"/>
       <c r="B498" s="4"/>
       <c r="C498" s="4"/>
@@ -8651,7 +8970,7 @@
       <c r="N498" s="4"/>
       <c r="O498" s="4"/>
     </row>
-    <row r="499">
+    <row r="499" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A499" s="4"/>
       <c r="B499" s="4"/>
       <c r="C499" s="4"/>
@@ -8668,7 +8987,7 @@
       <c r="N499" s="4"/>
       <c r="O499" s="4"/>
     </row>
-    <row r="500">
+    <row r="500" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A500" s="4"/>
       <c r="B500" s="4"/>
       <c r="C500" s="4"/>
@@ -8685,7 +9004,7 @@
       <c r="N500" s="4"/>
       <c r="O500" s="4"/>
     </row>
-    <row r="501">
+    <row r="501" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A501" s="4"/>
       <c r="B501" s="4"/>
       <c r="C501" s="4"/>
@@ -8702,7 +9021,7 @@
       <c r="N501" s="4"/>
       <c r="O501" s="4"/>
     </row>
-    <row r="502">
+    <row r="502" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A502" s="4"/>
       <c r="B502" s="4"/>
       <c r="C502" s="4"/>
@@ -8719,7 +9038,7 @@
       <c r="N502" s="4"/>
       <c r="O502" s="4"/>
     </row>
-    <row r="503">
+    <row r="503" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A503" s="4"/>
       <c r="B503" s="4"/>
       <c r="C503" s="4"/>
@@ -8736,7 +9055,7 @@
       <c r="N503" s="4"/>
       <c r="O503" s="4"/>
     </row>
-    <row r="504">
+    <row r="504" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A504" s="4"/>
       <c r="B504" s="4"/>
       <c r="C504" s="4"/>
@@ -8753,7 +9072,7 @@
       <c r="N504" s="4"/>
       <c r="O504" s="4"/>
     </row>
-    <row r="505">
+    <row r="505" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A505" s="4"/>
       <c r="B505" s="4"/>
       <c r="C505" s="4"/>
@@ -8770,7 +9089,7 @@
       <c r="N505" s="4"/>
       <c r="O505" s="4"/>
     </row>
-    <row r="506">
+    <row r="506" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A506" s="4"/>
       <c r="B506" s="4"/>
       <c r="C506" s="4"/>
@@ -8787,7 +9106,7 @@
       <c r="N506" s="4"/>
       <c r="O506" s="4"/>
     </row>
-    <row r="507">
+    <row r="507" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A507" s="4"/>
       <c r="B507" s="4"/>
       <c r="C507" s="4"/>
@@ -8804,7 +9123,7 @@
       <c r="N507" s="4"/>
       <c r="O507" s="4"/>
     </row>
-    <row r="508">
+    <row r="508" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A508" s="4"/>
       <c r="B508" s="4"/>
       <c r="C508" s="4"/>
@@ -8821,7 +9140,7 @@
       <c r="N508" s="4"/>
       <c r="O508" s="4"/>
     </row>
-    <row r="509">
+    <row r="509" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A509" s="4"/>
       <c r="B509" s="4"/>
       <c r="C509" s="4"/>
@@ -8838,7 +9157,7 @@
       <c r="N509" s="4"/>
       <c r="O509" s="4"/>
     </row>
-    <row r="510">
+    <row r="510" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A510" s="4"/>
       <c r="B510" s="4"/>
       <c r="C510" s="4"/>
@@ -8855,7 +9174,7 @@
       <c r="N510" s="4"/>
       <c r="O510" s="4"/>
     </row>
-    <row r="511">
+    <row r="511" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A511" s="4"/>
       <c r="B511" s="4"/>
       <c r="C511" s="4"/>
@@ -8872,7 +9191,7 @@
       <c r="N511" s="4"/>
       <c r="O511" s="4"/>
     </row>
-    <row r="512">
+    <row r="512" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A512" s="4"/>
       <c r="B512" s="4"/>
       <c r="C512" s="4"/>
@@ -8889,7 +9208,7 @@
       <c r="N512" s="4"/>
       <c r="O512" s="4"/>
     </row>
-    <row r="513">
+    <row r="513" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A513" s="4"/>
       <c r="B513" s="4"/>
       <c r="C513" s="4"/>
@@ -8906,7 +9225,7 @@
       <c r="N513" s="4"/>
       <c r="O513" s="4"/>
     </row>
-    <row r="514">
+    <row r="514" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A514" s="4"/>
       <c r="B514" s="4"/>
       <c r="C514" s="4"/>
@@ -8923,7 +9242,7 @@
       <c r="N514" s="4"/>
       <c r="O514" s="4"/>
     </row>
-    <row r="515">
+    <row r="515" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A515" s="4"/>
       <c r="B515" s="4"/>
       <c r="C515" s="4"/>
@@ -8940,7 +9259,7 @@
       <c r="N515" s="4"/>
       <c r="O515" s="4"/>
     </row>
-    <row r="516">
+    <row r="516" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A516" s="4"/>
       <c r="B516" s="4"/>
       <c r="C516" s="4"/>
@@ -8957,7 +9276,7 @@
       <c r="N516" s="4"/>
       <c r="O516" s="4"/>
     </row>
-    <row r="517">
+    <row r="517" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A517" s="4"/>
       <c r="B517" s="4"/>
       <c r="C517" s="4"/>
@@ -8974,7 +9293,7 @@
       <c r="N517" s="4"/>
       <c r="O517" s="4"/>
     </row>
-    <row r="518">
+    <row r="518" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A518" s="4"/>
       <c r="B518" s="4"/>
       <c r="C518" s="4"/>
@@ -8991,7 +9310,7 @@
       <c r="N518" s="4"/>
       <c r="O518" s="4"/>
     </row>
-    <row r="519">
+    <row r="519" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A519" s="4"/>
       <c r="B519" s="4"/>
       <c r="C519" s="4"/>
@@ -9008,7 +9327,7 @@
       <c r="N519" s="4"/>
       <c r="O519" s="4"/>
     </row>
-    <row r="520">
+    <row r="520" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A520" s="4"/>
       <c r="B520" s="4"/>
       <c r="C520" s="4"/>
@@ -9025,7 +9344,7 @@
       <c r="N520" s="4"/>
       <c r="O520" s="4"/>
     </row>
-    <row r="521">
+    <row r="521" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A521" s="4"/>
       <c r="B521" s="4"/>
       <c r="C521" s="4"/>
@@ -9042,7 +9361,7 @@
       <c r="N521" s="4"/>
       <c r="O521" s="4"/>
     </row>
-    <row r="522">
+    <row r="522" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A522" s="4"/>
       <c r="B522" s="4"/>
       <c r="C522" s="4"/>
@@ -9059,7 +9378,7 @@
       <c r="N522" s="4"/>
       <c r="O522" s="4"/>
     </row>
-    <row r="523">
+    <row r="523" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A523" s="4"/>
       <c r="B523" s="4"/>
       <c r="C523" s="4"/>
@@ -9076,7 +9395,7 @@
       <c r="N523" s="4"/>
       <c r="O523" s="4"/>
     </row>
-    <row r="524">
+    <row r="524" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A524" s="4"/>
       <c r="B524" s="4"/>
       <c r="C524" s="4"/>
@@ -9093,7 +9412,7 @@
       <c r="N524" s="4"/>
       <c r="O524" s="4"/>
     </row>
-    <row r="525">
+    <row r="525" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A525" s="4"/>
       <c r="B525" s="4"/>
       <c r="C525" s="4"/>
@@ -9110,7 +9429,7 @@
       <c r="N525" s="4"/>
       <c r="O525" s="4"/>
     </row>
-    <row r="526">
+    <row r="526" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A526" s="4"/>
       <c r="B526" s="4"/>
       <c r="C526" s="4"/>
@@ -9127,7 +9446,7 @@
       <c r="N526" s="4"/>
       <c r="O526" s="4"/>
     </row>
-    <row r="527">
+    <row r="527" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A527" s="4"/>
       <c r="B527" s="4"/>
       <c r="C527" s="4"/>
@@ -9144,7 +9463,7 @@
       <c r="N527" s="4"/>
       <c r="O527" s="4"/>
     </row>
-    <row r="528">
+    <row r="528" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A528" s="4"/>
       <c r="B528" s="4"/>
       <c r="C528" s="4"/>
@@ -9161,7 +9480,7 @@
       <c r="N528" s="4"/>
       <c r="O528" s="4"/>
     </row>
-    <row r="529">
+    <row r="529" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A529" s="4"/>
       <c r="B529" s="4"/>
       <c r="C529" s="4"/>
@@ -9178,7 +9497,7 @@
       <c r="N529" s="4"/>
       <c r="O529" s="4"/>
     </row>
-    <row r="530">
+    <row r="530" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A530" s="4"/>
       <c r="B530" s="4"/>
       <c r="C530" s="4"/>
@@ -9195,7 +9514,7 @@
       <c r="N530" s="4"/>
       <c r="O530" s="4"/>
     </row>
-    <row r="531">
+    <row r="531" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A531" s="4"/>
       <c r="B531" s="4"/>
       <c r="C531" s="4"/>
@@ -9212,7 +9531,7 @@
       <c r="N531" s="4"/>
       <c r="O531" s="4"/>
     </row>
-    <row r="532">
+    <row r="532" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A532" s="4"/>
       <c r="B532" s="4"/>
       <c r="C532" s="4"/>
@@ -9229,7 +9548,7 @@
       <c r="N532" s="4"/>
       <c r="O532" s="4"/>
     </row>
-    <row r="533">
+    <row r="533" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A533" s="4"/>
       <c r="B533" s="4"/>
       <c r="C533" s="4"/>
@@ -9246,7 +9565,7 @@
       <c r="N533" s="4"/>
       <c r="O533" s="4"/>
     </row>
-    <row r="534">
+    <row r="534" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A534" s="4"/>
       <c r="B534" s="4"/>
       <c r="C534" s="4"/>
@@ -9263,7 +9582,7 @@
       <c r="N534" s="4"/>
       <c r="O534" s="4"/>
     </row>
-    <row r="535">
+    <row r="535" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A535" s="4"/>
       <c r="B535" s="4"/>
       <c r="C535" s="4"/>
@@ -9280,7 +9599,7 @@
       <c r="N535" s="4"/>
       <c r="O535" s="4"/>
     </row>
-    <row r="536">
+    <row r="536" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A536" s="4"/>
       <c r="B536" s="4"/>
       <c r="C536" s="4"/>
@@ -9297,7 +9616,7 @@
       <c r="N536" s="4"/>
       <c r="O536" s="4"/>
     </row>
-    <row r="537">
+    <row r="537" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A537" s="4"/>
       <c r="B537" s="4"/>
       <c r="C537" s="4"/>
@@ -9314,7 +9633,7 @@
       <c r="N537" s="4"/>
       <c r="O537" s="4"/>
     </row>
-    <row r="538">
+    <row r="538" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A538" s="4"/>
       <c r="B538" s="4"/>
       <c r="C538" s="4"/>
@@ -9331,7 +9650,7 @@
       <c r="N538" s="4"/>
       <c r="O538" s="4"/>
     </row>
-    <row r="539">
+    <row r="539" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A539" s="4"/>
       <c r="B539" s="4"/>
       <c r="C539" s="4"/>
@@ -9348,7 +9667,7 @@
       <c r="N539" s="4"/>
       <c r="O539" s="4"/>
     </row>
-    <row r="540">
+    <row r="540" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A540" s="4"/>
       <c r="B540" s="4"/>
       <c r="C540" s="4"/>
@@ -9365,7 +9684,7 @@
       <c r="N540" s="4"/>
       <c r="O540" s="4"/>
     </row>
-    <row r="541">
+    <row r="541" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A541" s="4"/>
       <c r="B541" s="4"/>
       <c r="C541" s="4"/>
@@ -9382,7 +9701,7 @@
       <c r="N541" s="4"/>
       <c r="O541" s="4"/>
     </row>
-    <row r="542">
+    <row r="542" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A542" s="4"/>
       <c r="B542" s="4"/>
       <c r="C542" s="4"/>
@@ -9399,7 +9718,7 @@
       <c r="N542" s="4"/>
       <c r="O542" s="4"/>
     </row>
-    <row r="543">
+    <row r="543" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A543" s="4"/>
       <c r="B543" s="4"/>
       <c r="C543" s="4"/>
@@ -9416,7 +9735,7 @@
       <c r="N543" s="4"/>
       <c r="O543" s="4"/>
     </row>
-    <row r="544">
+    <row r="544" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A544" s="4"/>
       <c r="B544" s="4"/>
       <c r="C544" s="4"/>
@@ -9433,7 +9752,7 @@
       <c r="N544" s="4"/>
       <c r="O544" s="4"/>
     </row>
-    <row r="545">
+    <row r="545" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A545" s="4"/>
       <c r="B545" s="4"/>
       <c r="C545" s="4"/>
@@ -9450,7 +9769,7 @@
       <c r="N545" s="4"/>
       <c r="O545" s="4"/>
     </row>
-    <row r="546">
+    <row r="546" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A546" s="4"/>
       <c r="B546" s="4"/>
       <c r="C546" s="4"/>
@@ -9467,7 +9786,7 @@
       <c r="N546" s="4"/>
       <c r="O546" s="4"/>
     </row>
-    <row r="547">
+    <row r="547" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A547" s="4"/>
       <c r="B547" s="4"/>
       <c r="C547" s="4"/>
@@ -9484,7 +9803,7 @@
       <c r="N547" s="4"/>
       <c r="O547" s="4"/>
     </row>
-    <row r="548">
+    <row r="548" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A548" s="4"/>
       <c r="B548" s="4"/>
       <c r="C548" s="4"/>
@@ -9501,7 +9820,7 @@
       <c r="N548" s="4"/>
       <c r="O548" s="4"/>
     </row>
-    <row r="549">
+    <row r="549" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A549" s="4"/>
       <c r="B549" s="4"/>
       <c r="C549" s="4"/>
@@ -9518,7 +9837,7 @@
       <c r="N549" s="4"/>
       <c r="O549" s="4"/>
     </row>
-    <row r="550">
+    <row r="550" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A550" s="4"/>
       <c r="B550" s="4"/>
       <c r="C550" s="4"/>
@@ -9535,7 +9854,7 @@
       <c r="N550" s="4"/>
       <c r="O550" s="4"/>
     </row>
-    <row r="551">
+    <row r="551" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A551" s="4"/>
       <c r="B551" s="4"/>
       <c r="C551" s="4"/>
@@ -9552,7 +9871,7 @@
       <c r="N551" s="4"/>
       <c r="O551" s="4"/>
     </row>
-    <row r="552">
+    <row r="552" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A552" s="4"/>
       <c r="B552" s="4"/>
       <c r="C552" s="4"/>
@@ -9569,7 +9888,7 @@
       <c r="N552" s="4"/>
       <c r="O552" s="4"/>
     </row>
-    <row r="553">
+    <row r="553" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A553" s="4"/>
       <c r="B553" s="4"/>
       <c r="C553" s="4"/>
@@ -9586,7 +9905,7 @@
       <c r="N553" s="4"/>
       <c r="O553" s="4"/>
     </row>
-    <row r="554">
+    <row r="554" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A554" s="4"/>
       <c r="B554" s="4"/>
       <c r="C554" s="4"/>
@@ -9603,7 +9922,7 @@
       <c r="N554" s="4"/>
       <c r="O554" s="4"/>
     </row>
-    <row r="555">
+    <row r="555" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A555" s="4"/>
       <c r="B555" s="4"/>
       <c r="C555" s="4"/>
@@ -9620,7 +9939,7 @@
       <c r="N555" s="4"/>
       <c r="O555" s="4"/>
     </row>
-    <row r="556">
+    <row r="556" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A556" s="4"/>
       <c r="B556" s="4"/>
       <c r="C556" s="4"/>
@@ -9637,7 +9956,7 @@
       <c r="N556" s="4"/>
       <c r="O556" s="4"/>
     </row>
-    <row r="557">
+    <row r="557" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A557" s="4"/>
       <c r="B557" s="4"/>
       <c r="C557" s="4"/>
@@ -9654,7 +9973,7 @@
       <c r="N557" s="4"/>
       <c r="O557" s="4"/>
     </row>
-    <row r="558">
+    <row r="558" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A558" s="4"/>
       <c r="B558" s="4"/>
       <c r="C558" s="4"/>
@@ -9671,7 +9990,7 @@
       <c r="N558" s="4"/>
       <c r="O558" s="4"/>
     </row>
-    <row r="559">
+    <row r="559" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A559" s="4"/>
       <c r="B559" s="4"/>
       <c r="C559" s="4"/>
@@ -9688,7 +10007,7 @@
       <c r="N559" s="4"/>
       <c r="O559" s="4"/>
     </row>
-    <row r="560">
+    <row r="560" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A560" s="4"/>
       <c r="B560" s="4"/>
       <c r="C560" s="4"/>
@@ -9705,7 +10024,7 @@
       <c r="N560" s="4"/>
       <c r="O560" s="4"/>
     </row>
-    <row r="561">
+    <row r="561" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A561" s="4"/>
       <c r="B561" s="4"/>
       <c r="C561" s="4"/>
@@ -9722,7 +10041,7 @@
       <c r="N561" s="4"/>
       <c r="O561" s="4"/>
     </row>
-    <row r="562">
+    <row r="562" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A562" s="4"/>
       <c r="B562" s="4"/>
       <c r="C562" s="4"/>
@@ -9739,7 +10058,7 @@
       <c r="N562" s="4"/>
       <c r="O562" s="4"/>
     </row>
-    <row r="563">
+    <row r="563" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A563" s="4"/>
       <c r="B563" s="4"/>
       <c r="C563" s="4"/>
@@ -9756,7 +10075,7 @@
       <c r="N563" s="4"/>
       <c r="O563" s="4"/>
     </row>
-    <row r="564">
+    <row r="564" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A564" s="4"/>
       <c r="B564" s="4"/>
       <c r="C564" s="4"/>
@@ -9773,7 +10092,7 @@
       <c r="N564" s="4"/>
       <c r="O564" s="4"/>
     </row>
-    <row r="565">
+    <row r="565" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A565" s="4"/>
       <c r="B565" s="4"/>
       <c r="C565" s="4"/>
@@ -9790,7 +10109,7 @@
       <c r="N565" s="4"/>
       <c r="O565" s="4"/>
     </row>
-    <row r="566">
+    <row r="566" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A566" s="4"/>
       <c r="B566" s="4"/>
       <c r="C566" s="4"/>
@@ -9807,7 +10126,7 @@
       <c r="N566" s="4"/>
       <c r="O566" s="4"/>
     </row>
-    <row r="567">
+    <row r="567" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A567" s="4"/>
       <c r="B567" s="4"/>
       <c r="C567" s="4"/>
@@ -9824,7 +10143,7 @@
       <c r="N567" s="4"/>
       <c r="O567" s="4"/>
     </row>
-    <row r="568">
+    <row r="568" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A568" s="4"/>
       <c r="B568" s="4"/>
       <c r="C568" s="4"/>
@@ -9841,7 +10160,7 @@
       <c r="N568" s="4"/>
       <c r="O568" s="4"/>
     </row>
-    <row r="569">
+    <row r="569" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A569" s="4"/>
       <c r="B569" s="4"/>
       <c r="C569" s="4"/>
@@ -9858,7 +10177,7 @@
       <c r="N569" s="4"/>
       <c r="O569" s="4"/>
     </row>
-    <row r="570">
+    <row r="570" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A570" s="4"/>
       <c r="B570" s="4"/>
       <c r="C570" s="4"/>
@@ -9875,7 +10194,7 @@
       <c r="N570" s="4"/>
       <c r="O570" s="4"/>
     </row>
-    <row r="571">
+    <row r="571" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A571" s="4"/>
       <c r="B571" s="4"/>
       <c r="C571" s="4"/>
@@ -9892,7 +10211,7 @@
       <c r="N571" s="4"/>
       <c r="O571" s="4"/>
     </row>
-    <row r="572">
+    <row r="572" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A572" s="4"/>
       <c r="B572" s="4"/>
       <c r="C572" s="4"/>
@@ -9909,7 +10228,7 @@
       <c r="N572" s="4"/>
       <c r="O572" s="4"/>
     </row>
-    <row r="573">
+    <row r="573" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A573" s="4"/>
       <c r="B573" s="4"/>
       <c r="C573" s="4"/>
@@ -9926,7 +10245,7 @@
       <c r="N573" s="4"/>
       <c r="O573" s="4"/>
     </row>
-    <row r="574">
+    <row r="574" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A574" s="4"/>
       <c r="B574" s="4"/>
       <c r="C574" s="4"/>
@@ -9943,7 +10262,7 @@
       <c r="N574" s="4"/>
       <c r="O574" s="4"/>
     </row>
-    <row r="575">
+    <row r="575" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A575" s="4"/>
       <c r="B575" s="4"/>
       <c r="C575" s="4"/>
@@ -9960,7 +10279,7 @@
       <c r="N575" s="4"/>
       <c r="O575" s="4"/>
     </row>
-    <row r="576">
+    <row r="576" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A576" s="4"/>
       <c r="B576" s="4"/>
       <c r="C576" s="4"/>
@@ -9977,7 +10296,7 @@
       <c r="N576" s="4"/>
       <c r="O576" s="4"/>
     </row>
-    <row r="577">
+    <row r="577" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A577" s="4"/>
       <c r="B577" s="4"/>
       <c r="C577" s="4"/>
@@ -9994,7 +10313,7 @@
       <c r="N577" s="4"/>
       <c r="O577" s="4"/>
     </row>
-    <row r="578">
+    <row r="578" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A578" s="4"/>
       <c r="B578" s="4"/>
       <c r="C578" s="4"/>
@@ -10011,7 +10330,7 @@
       <c r="N578" s="4"/>
       <c r="O578" s="4"/>
     </row>
-    <row r="579">
+    <row r="579" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A579" s="4"/>
       <c r="B579" s="4"/>
       <c r="C579" s="4"/>
@@ -10028,7 +10347,7 @@
       <c r="N579" s="4"/>
       <c r="O579" s="4"/>
     </row>
-    <row r="580">
+    <row r="580" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A580" s="4"/>
       <c r="B580" s="4"/>
       <c r="C580" s="4"/>
@@ -10045,7 +10364,7 @@
       <c r="N580" s="4"/>
       <c r="O580" s="4"/>
     </row>
-    <row r="581">
+    <row r="581" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A581" s="4"/>
       <c r="B581" s="4"/>
       <c r="C581" s="4"/>
@@ -10062,7 +10381,7 @@
       <c r="N581" s="4"/>
       <c r="O581" s="4"/>
     </row>
-    <row r="582">
+    <row r="582" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A582" s="4"/>
       <c r="B582" s="4"/>
       <c r="C582" s="4"/>
@@ -10079,7 +10398,7 @@
       <c r="N582" s="4"/>
       <c r="O582" s="4"/>
     </row>
-    <row r="583">
+    <row r="583" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A583" s="4"/>
       <c r="B583" s="4"/>
       <c r="C583" s="4"/>
@@ -10096,7 +10415,7 @@
       <c r="N583" s="4"/>
       <c r="O583" s="4"/>
     </row>
-    <row r="584">
+    <row r="584" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A584" s="4"/>
       <c r="B584" s="4"/>
       <c r="C584" s="4"/>
@@ -10113,7 +10432,7 @@
       <c r="N584" s="4"/>
       <c r="O584" s="4"/>
     </row>
-    <row r="585">
+    <row r="585" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A585" s="4"/>
       <c r="B585" s="4"/>
       <c r="C585" s="4"/>
@@ -10130,7 +10449,7 @@
       <c r="N585" s="4"/>
       <c r="O585" s="4"/>
     </row>
-    <row r="586">
+    <row r="586" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A586" s="4"/>
       <c r="B586" s="4"/>
       <c r="C586" s="4"/>
@@ -10147,7 +10466,7 @@
       <c r="N586" s="4"/>
       <c r="O586" s="4"/>
     </row>
-    <row r="587">
+    <row r="587" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A587" s="4"/>
       <c r="B587" s="4"/>
       <c r="C587" s="4"/>
@@ -10164,7 +10483,7 @@
       <c r="N587" s="4"/>
       <c r="O587" s="4"/>
     </row>
-    <row r="588">
+    <row r="588" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A588" s="4"/>
       <c r="B588" s="4"/>
       <c r="C588" s="4"/>
@@ -10181,7 +10500,7 @@
       <c r="N588" s="4"/>
       <c r="O588" s="4"/>
     </row>
-    <row r="589">
+    <row r="589" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A589" s="4"/>
       <c r="B589" s="4"/>
       <c r="C589" s="4"/>
@@ -10198,7 +10517,7 @@
       <c r="N589" s="4"/>
       <c r="O589" s="4"/>
     </row>
-    <row r="590">
+    <row r="590" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A590" s="4"/>
       <c r="B590" s="4"/>
       <c r="C590" s="4"/>
@@ -10215,7 +10534,7 @@
       <c r="N590" s="4"/>
       <c r="O590" s="4"/>
     </row>
-    <row r="591">
+    <row r="591" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A591" s="4"/>
       <c r="B591" s="4"/>
       <c r="C591" s="4"/>
@@ -10232,7 +10551,7 @@
       <c r="N591" s="4"/>
       <c r="O591" s="4"/>
     </row>
-    <row r="592">
+    <row r="592" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A592" s="4"/>
       <c r="B592" s="4"/>
       <c r="C592" s="4"/>
@@ -10249,7 +10568,7 @@
       <c r="N592" s="4"/>
       <c r="O592" s="4"/>
     </row>
-    <row r="593">
+    <row r="593" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A593" s="4"/>
       <c r="B593" s="4"/>
       <c r="C593" s="4"/>
@@ -10266,7 +10585,7 @@
       <c r="N593" s="4"/>
       <c r="O593" s="4"/>
     </row>
-    <row r="594">
+    <row r="594" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A594" s="4"/>
       <c r="B594" s="4"/>
       <c r="C594" s="4"/>
@@ -10283,7 +10602,7 @@
       <c r="N594" s="4"/>
       <c r="O594" s="4"/>
     </row>
-    <row r="595">
+    <row r="595" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A595" s="4"/>
       <c r="B595" s="4"/>
       <c r="C595" s="4"/>
@@ -10300,7 +10619,7 @@
       <c r="N595" s="4"/>
       <c r="O595" s="4"/>
     </row>
-    <row r="596">
+    <row r="596" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A596" s="4"/>
       <c r="B596" s="4"/>
       <c r="C596" s="4"/>
@@ -10317,7 +10636,7 @@
       <c r="N596" s="4"/>
       <c r="O596" s="4"/>
     </row>
-    <row r="597">
+    <row r="597" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A597" s="4"/>
       <c r="B597" s="4"/>
       <c r="C597" s="4"/>
@@ -10334,7 +10653,7 @@
       <c r="N597" s="4"/>
       <c r="O597" s="4"/>
     </row>
-    <row r="598">
+    <row r="598" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A598" s="4"/>
       <c r="B598" s="4"/>
       <c r="C598" s="4"/>
@@ -10351,7 +10670,7 @@
       <c r="N598" s="4"/>
       <c r="O598" s="4"/>
     </row>
-    <row r="599">
+    <row r="599" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A599" s="4"/>
       <c r="B599" s="4"/>
       <c r="C599" s="4"/>
@@ -10368,7 +10687,7 @@
       <c r="N599" s="4"/>
       <c r="O599" s="4"/>
     </row>
-    <row r="600">
+    <row r="600" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A600" s="4"/>
       <c r="B600" s="4"/>
       <c r="C600" s="4"/>
@@ -10385,7 +10704,7 @@
       <c r="N600" s="4"/>
       <c r="O600" s="4"/>
     </row>
-    <row r="601">
+    <row r="601" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A601" s="4"/>
       <c r="B601" s="4"/>
       <c r="C601" s="4"/>
@@ -10402,7 +10721,7 @@
       <c r="N601" s="4"/>
       <c r="O601" s="4"/>
     </row>
-    <row r="602">
+    <row r="602" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A602" s="4"/>
       <c r="B602" s="4"/>
       <c r="C602" s="4"/>
@@ -10419,7 +10738,7 @@
       <c r="N602" s="4"/>
       <c r="O602" s="4"/>
     </row>
-    <row r="603">
+    <row r="603" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A603" s="4"/>
       <c r="B603" s="4"/>
       <c r="C603" s="4"/>
@@ -10436,7 +10755,7 @@
       <c r="N603" s="4"/>
       <c r="O603" s="4"/>
     </row>
-    <row r="604">
+    <row r="604" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A604" s="4"/>
       <c r="B604" s="4"/>
       <c r="C604" s="4"/>
@@ -10453,7 +10772,7 @@
       <c r="N604" s="4"/>
       <c r="O604" s="4"/>
     </row>
-    <row r="605">
+    <row r="605" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A605" s="4"/>
       <c r="B605" s="4"/>
       <c r="C605" s="4"/>
@@ -10470,7 +10789,7 @@
       <c r="N605" s="4"/>
       <c r="O605" s="4"/>
     </row>
-    <row r="606">
+    <row r="606" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A606" s="4"/>
       <c r="B606" s="4"/>
       <c r="C606" s="4"/>
@@ -10487,7 +10806,7 @@
       <c r="N606" s="4"/>
       <c r="O606" s="4"/>
     </row>
-    <row r="607">
+    <row r="607" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A607" s="4"/>
       <c r="B607" s="4"/>
       <c r="C607" s="4"/>
@@ -10504,7 +10823,7 @@
       <c r="N607" s="4"/>
       <c r="O607" s="4"/>
     </row>
-    <row r="608">
+    <row r="608" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A608" s="4"/>
       <c r="B608" s="4"/>
       <c r="C608" s="4"/>
@@ -10521,7 +10840,7 @@
       <c r="N608" s="4"/>
       <c r="O608" s="4"/>
     </row>
-    <row r="609">
+    <row r="609" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A609" s="4"/>
       <c r="B609" s="4"/>
       <c r="C609" s="4"/>
@@ -10538,7 +10857,7 @@
       <c r="N609" s="4"/>
       <c r="O609" s="4"/>
     </row>
-    <row r="610">
+    <row r="610" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A610" s="4"/>
       <c r="B610" s="4"/>
       <c r="C610" s="4"/>
@@ -10555,7 +10874,7 @@
       <c r="N610" s="4"/>
       <c r="O610" s="4"/>
     </row>
-    <row r="611">
+    <row r="611" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A611" s="4"/>
       <c r="B611" s="4"/>
       <c r="C611" s="4"/>
@@ -10572,7 +10891,7 @@
       <c r="N611" s="4"/>
       <c r="O611" s="4"/>
     </row>
-    <row r="612">
+    <row r="612" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A612" s="4"/>
       <c r="B612" s="4"/>
       <c r="C612" s="4"/>
@@ -10589,7 +10908,7 @@
       <c r="N612" s="4"/>
       <c r="O612" s="4"/>
     </row>
-    <row r="613">
+    <row r="613" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A613" s="4"/>
       <c r="B613" s="4"/>
       <c r="C613" s="4"/>
@@ -10606,7 +10925,7 @@
       <c r="N613" s="4"/>
       <c r="O613" s="4"/>
     </row>
-    <row r="614">
+    <row r="614" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A614" s="4"/>
       <c r="B614" s="4"/>
       <c r="C614" s="4"/>
@@ -10623,7 +10942,7 @@
       <c r="N614" s="4"/>
       <c r="O614" s="4"/>
     </row>
-    <row r="615">
+    <row r="615" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A615" s="4"/>
       <c r="B615" s="4"/>
       <c r="C615" s="4"/>
@@ -10640,7 +10959,7 @@
       <c r="N615" s="4"/>
       <c r="O615" s="4"/>
     </row>
-    <row r="616">
+    <row r="616" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A616" s="4"/>
       <c r="B616" s="4"/>
       <c r="C616" s="4"/>
@@ -10657,7 +10976,7 @@
       <c r="N616" s="4"/>
       <c r="O616" s="4"/>
     </row>
-    <row r="617">
+    <row r="617" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A617" s="4"/>
       <c r="B617" s="4"/>
       <c r="C617" s="4"/>
@@ -10674,7 +10993,7 @@
       <c r="N617" s="4"/>
       <c r="O617" s="4"/>
     </row>
-    <row r="618">
+    <row r="618" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A618" s="4"/>
       <c r="B618" s="4"/>
       <c r="C618" s="4"/>
@@ -10691,7 +11010,7 @@
       <c r="N618" s="4"/>
       <c r="O618" s="4"/>
     </row>
-    <row r="619">
+    <row r="619" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A619" s="4"/>
       <c r="B619" s="4"/>
       <c r="C619" s="4"/>
@@ -10708,7 +11027,7 @@
       <c r="N619" s="4"/>
       <c r="O619" s="4"/>
     </row>
-    <row r="620">
+    <row r="620" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A620" s="4"/>
       <c r="B620" s="4"/>
       <c r="C620" s="4"/>
@@ -10725,7 +11044,7 @@
       <c r="N620" s="4"/>
       <c r="O620" s="4"/>
     </row>
-    <row r="621">
+    <row r="621" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A621" s="4"/>
       <c r="B621" s="4"/>
       <c r="C621" s="4"/>
@@ -10742,7 +11061,7 @@
       <c r="N621" s="4"/>
       <c r="O621" s="4"/>
     </row>
-    <row r="622">
+    <row r="622" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A622" s="4"/>
       <c r="B622" s="4"/>
       <c r="C622" s="4"/>
@@ -10759,7 +11078,7 @@
       <c r="N622" s="4"/>
       <c r="O622" s="4"/>
     </row>
-    <row r="623">
+    <row r="623" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A623" s="4"/>
       <c r="B623" s="4"/>
       <c r="C623" s="4"/>
@@ -10776,7 +11095,7 @@
       <c r="N623" s="4"/>
       <c r="O623" s="4"/>
     </row>
-    <row r="624">
+    <row r="624" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A624" s="4"/>
       <c r="B624" s="4"/>
       <c r="C624" s="4"/>
@@ -10793,7 +11112,7 @@
       <c r="N624" s="4"/>
       <c r="O624" s="4"/>
     </row>
-    <row r="625">
+    <row r="625" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A625" s="4"/>
       <c r="B625" s="4"/>
       <c r="C625" s="4"/>
@@ -10810,7 +11129,7 @@
       <c r="N625" s="4"/>
       <c r="O625" s="4"/>
     </row>
-    <row r="626">
+    <row r="626" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A626" s="4"/>
       <c r="B626" s="4"/>
       <c r="C626" s="4"/>
@@ -10827,7 +11146,7 @@
       <c r="N626" s="4"/>
       <c r="O626" s="4"/>
     </row>
-    <row r="627">
+    <row r="627" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A627" s="4"/>
       <c r="B627" s="4"/>
       <c r="C627" s="4"/>
@@ -10844,7 +11163,7 @@
       <c r="N627" s="4"/>
       <c r="O627" s="4"/>
     </row>
-    <row r="628">
+    <row r="628" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A628" s="4"/>
       <c r="B628" s="4"/>
       <c r="C628" s="4"/>
@@ -10861,7 +11180,7 @@
       <c r="N628" s="4"/>
       <c r="O628" s="4"/>
     </row>
-    <row r="629">
+    <row r="629" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A629" s="4"/>
       <c r="B629" s="4"/>
       <c r="C629" s="4"/>
@@ -10878,7 +11197,7 @@
       <c r="N629" s="4"/>
       <c r="O629" s="4"/>
     </row>
-    <row r="630">
+    <row r="630" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A630" s="4"/>
       <c r="B630" s="4"/>
       <c r="C630" s="4"/>
@@ -10895,7 +11214,7 @@
       <c r="N630" s="4"/>
       <c r="O630" s="4"/>
     </row>
-    <row r="631">
+    <row r="631" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A631" s="4"/>
       <c r="B631" s="4"/>
       <c r="C631" s="4"/>
@@ -10912,7 +11231,7 @@
       <c r="N631" s="4"/>
       <c r="O631" s="4"/>
     </row>
-    <row r="632">
+    <row r="632" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A632" s="4"/>
       <c r="B632" s="4"/>
       <c r="C632" s="4"/>
@@ -10929,7 +11248,7 @@
       <c r="N632" s="4"/>
       <c r="O632" s="4"/>
     </row>
-    <row r="633">
+    <row r="633" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A633" s="4"/>
       <c r="B633" s="4"/>
       <c r="C633" s="4"/>
@@ -10946,7 +11265,7 @@
       <c r="N633" s="4"/>
       <c r="O633" s="4"/>
     </row>
-    <row r="634">
+    <row r="634" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A634" s="4"/>
       <c r="B634" s="4"/>
       <c r="C634" s="4"/>
@@ -10963,7 +11282,7 @@
       <c r="N634" s="4"/>
       <c r="O634" s="4"/>
     </row>
-    <row r="635">
+    <row r="635" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A635" s="4"/>
       <c r="B635" s="4"/>
       <c r="C635" s="4"/>
@@ -10980,7 +11299,7 @@
       <c r="N635" s="4"/>
       <c r="O635" s="4"/>
     </row>
-    <row r="636">
+    <row r="636" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A636" s="4"/>
       <c r="B636" s="4"/>
       <c r="C636" s="4"/>
@@ -10997,7 +11316,7 @@
       <c r="N636" s="4"/>
       <c r="O636" s="4"/>
     </row>
-    <row r="637">
+    <row r="637" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A637" s="4"/>
       <c r="B637" s="4"/>
       <c r="C637" s="4"/>
@@ -11014,7 +11333,7 @@
       <c r="N637" s="4"/>
       <c r="O637" s="4"/>
     </row>
-    <row r="638">
+    <row r="638" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A638" s="4"/>
       <c r="B638" s="4"/>
       <c r="C638" s="4"/>
@@ -11031,7 +11350,7 @@
       <c r="N638" s="4"/>
       <c r="O638" s="4"/>
     </row>
-    <row r="639">
+    <row r="639" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A639" s="4"/>
       <c r="B639" s="4"/>
       <c r="C639" s="4"/>
@@ -11048,7 +11367,7 @@
       <c r="N639" s="4"/>
       <c r="O639" s="4"/>
     </row>
-    <row r="640">
+    <row r="640" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A640" s="4"/>
       <c r="B640" s="4"/>
       <c r="C640" s="4"/>
@@ -11065,7 +11384,7 @@
       <c r="N640" s="4"/>
       <c r="O640" s="4"/>
     </row>
-    <row r="641">
+    <row r="641" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A641" s="4"/>
       <c r="B641" s="4"/>
       <c r="C641" s="4"/>
@@ -11082,7 +11401,7 @@
       <c r="N641" s="4"/>
       <c r="O641" s="4"/>
     </row>
-    <row r="642">
+    <row r="642" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A642" s="4"/>
       <c r="B642" s="4"/>
       <c r="C642" s="4"/>
@@ -11099,7 +11418,7 @@
       <c r="N642" s="4"/>
       <c r="O642" s="4"/>
     </row>
-    <row r="643">
+    <row r="643" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A643" s="4"/>
       <c r="B643" s="4"/>
       <c r="C643" s="4"/>
@@ -11116,7 +11435,7 @@
       <c r="N643" s="4"/>
       <c r="O643" s="4"/>
     </row>
-    <row r="644">
+    <row r="644" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A644" s="4"/>
       <c r="B644" s="4"/>
       <c r="C644" s="4"/>
@@ -11133,7 +11452,7 @@
       <c r="N644" s="4"/>
       <c r="O644" s="4"/>
     </row>
-    <row r="645">
+    <row r="645" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A645" s="4"/>
       <c r="B645" s="4"/>
       <c r="C645" s="4"/>
@@ -11150,7 +11469,7 @@
       <c r="N645" s="4"/>
       <c r="O645" s="4"/>
     </row>
-    <row r="646">
+    <row r="646" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A646" s="4"/>
       <c r="B646" s="4"/>
       <c r="C646" s="4"/>
@@ -11167,7 +11486,7 @@
       <c r="N646" s="4"/>
       <c r="O646" s="4"/>
     </row>
-    <row r="647">
+    <row r="647" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A647" s="4"/>
       <c r="B647" s="4"/>
       <c r="C647" s="4"/>
@@ -11184,7 +11503,7 @@
       <c r="N647" s="4"/>
       <c r="O647" s="4"/>
     </row>
-    <row r="648">
+    <row r="648" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A648" s="4"/>
       <c r="B648" s="4"/>
       <c r="C648" s="4"/>
@@ -11201,7 +11520,7 @@
       <c r="N648" s="4"/>
       <c r="O648" s="4"/>
     </row>
-    <row r="649">
+    <row r="649" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A649" s="4"/>
       <c r="B649" s="4"/>
       <c r="C649" s="4"/>
@@ -11218,7 +11537,7 @@
       <c r="N649" s="4"/>
       <c r="O649" s="4"/>
     </row>
-    <row r="650">
+    <row r="650" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A650" s="4"/>
       <c r="B650" s="4"/>
       <c r="C650" s="4"/>
@@ -11235,7 +11554,7 @@
       <c r="N650" s="4"/>
       <c r="O650" s="4"/>
     </row>
-    <row r="651">
+    <row r="651" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A651" s="4"/>
       <c r="B651" s="4"/>
       <c r="C651" s="4"/>
@@ -11252,7 +11571,7 @@
       <c r="N651" s="4"/>
       <c r="O651" s="4"/>
     </row>
-    <row r="652">
+    <row r="652" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A652" s="4"/>
       <c r="B652" s="4"/>
       <c r="C652" s="4"/>
@@ -11269,7 +11588,7 @@
       <c r="N652" s="4"/>
       <c r="O652" s="4"/>
     </row>
-    <row r="653">
+    <row r="653" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A653" s="4"/>
       <c r="B653" s="4"/>
       <c r="C653" s="4"/>
@@ -11286,7 +11605,7 @@
       <c r="N653" s="4"/>
       <c r="O653" s="4"/>
     </row>
-    <row r="654">
+    <row r="654" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A654" s="4"/>
       <c r="B654" s="4"/>
       <c r="C654" s="4"/>
@@ -11303,7 +11622,7 @@
       <c r="N654" s="4"/>
       <c r="O654" s="4"/>
     </row>
-    <row r="655">
+    <row r="655" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A655" s="4"/>
       <c r="B655" s="4"/>
       <c r="C655" s="4"/>
@@ -11320,7 +11639,7 @@
       <c r="N655" s="4"/>
       <c r="O655" s="4"/>
     </row>
-    <row r="656">
+    <row r="656" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A656" s="4"/>
       <c r="B656" s="4"/>
       <c r="C656" s="4"/>
@@ -11337,7 +11656,7 @@
       <c r="N656" s="4"/>
       <c r="O656" s="4"/>
     </row>
-    <row r="657">
+    <row r="657" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A657" s="4"/>
       <c r="B657" s="4"/>
       <c r="C657" s="4"/>
@@ -11354,7 +11673,7 @@
       <c r="N657" s="4"/>
       <c r="O657" s="4"/>
     </row>
-    <row r="658">
+    <row r="658" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A658" s="4"/>
       <c r="B658" s="4"/>
       <c r="C658" s="4"/>
@@ -11371,7 +11690,7 @@
       <c r="N658" s="4"/>
       <c r="O658" s="4"/>
     </row>
-    <row r="659">
+    <row r="659" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A659" s="4"/>
       <c r="B659" s="4"/>
       <c r="C659" s="4"/>
@@ -11388,7 +11707,7 @@
       <c r="N659" s="4"/>
       <c r="O659" s="4"/>
     </row>
-    <row r="660">
+    <row r="660" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A660" s="4"/>
       <c r="B660" s="4"/>
       <c r="C660" s="4"/>
@@ -11405,7 +11724,7 @@
       <c r="N660" s="4"/>
       <c r="O660" s="4"/>
     </row>
-    <row r="661">
+    <row r="661" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A661" s="4"/>
       <c r="B661" s="4"/>
       <c r="C661" s="4"/>
@@ -11422,7 +11741,7 @@
       <c r="N661" s="4"/>
       <c r="O661" s="4"/>
     </row>
-    <row r="662">
+    <row r="662" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A662" s="4"/>
       <c r="B662" s="4"/>
       <c r="C662" s="4"/>
@@ -11439,7 +11758,7 @@
       <c r="N662" s="4"/>
       <c r="O662" s="4"/>
     </row>
-    <row r="663">
+    <row r="663" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A663" s="4"/>
       <c r="B663" s="4"/>
       <c r="C663" s="4"/>
@@ -11456,7 +11775,7 @@
       <c r="N663" s="4"/>
       <c r="O663" s="4"/>
     </row>
-    <row r="664">
+    <row r="664" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A664" s="4"/>
       <c r="B664" s="4"/>
       <c r="C664" s="4"/>
@@ -11473,7 +11792,7 @@
       <c r="N664" s="4"/>
       <c r="O664" s="4"/>
     </row>
-    <row r="665">
+    <row r="665" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A665" s="4"/>
       <c r="B665" s="4"/>
       <c r="C665" s="4"/>
@@ -11490,7 +11809,7 @@
       <c r="N665" s="4"/>
       <c r="O665" s="4"/>
     </row>
-    <row r="666">
+    <row r="666" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A666" s="4"/>
       <c r="B666" s="4"/>
       <c r="C666" s="4"/>
@@ -11507,7 +11826,7 @@
       <c r="N666" s="4"/>
       <c r="O666" s="4"/>
     </row>
-    <row r="667">
+    <row r="667" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A667" s="4"/>
       <c r="B667" s="4"/>
       <c r="C667" s="4"/>
@@ -11524,7 +11843,7 @@
       <c r="N667" s="4"/>
       <c r="O667" s="4"/>
     </row>
-    <row r="668">
+    <row r="668" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A668" s="4"/>
       <c r="B668" s="4"/>
       <c r="C668" s="4"/>
@@ -11541,7 +11860,7 @@
       <c r="N668" s="4"/>
       <c r="O668" s="4"/>
     </row>
-    <row r="669">
+    <row r="669" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A669" s="4"/>
       <c r="B669" s="4"/>
       <c r="C669" s="4"/>
@@ -11558,7 +11877,7 @@
       <c r="N669" s="4"/>
       <c r="O669" s="4"/>
     </row>
-    <row r="670">
+    <row r="670" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A670" s="4"/>
       <c r="B670" s="4"/>
       <c r="C670" s="4"/>
@@ -11575,7 +11894,7 @@
       <c r="N670" s="4"/>
       <c r="O670" s="4"/>
     </row>
-    <row r="671">
+    <row r="671" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A671" s="4"/>
       <c r="B671" s="4"/>
       <c r="C671" s="4"/>
@@ -11592,7 +11911,7 @@
       <c r="N671" s="4"/>
       <c r="O671" s="4"/>
     </row>
-    <row r="672">
+    <row r="672" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A672" s="4"/>
       <c r="B672" s="4"/>
       <c r="C672" s="4"/>
@@ -11609,7 +11928,7 @@
       <c r="N672" s="4"/>
       <c r="O672" s="4"/>
     </row>
-    <row r="673">
+    <row r="673" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A673" s="4"/>
       <c r="B673" s="4"/>
       <c r="C673" s="4"/>
@@ -11626,7 +11945,7 @@
       <c r="N673" s="4"/>
       <c r="O673" s="4"/>
     </row>
-    <row r="674">
+    <row r="674" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A674" s="4"/>
       <c r="B674" s="4"/>
       <c r="C674" s="4"/>
@@ -11643,7 +11962,7 @@
       <c r="N674" s="4"/>
       <c r="O674" s="4"/>
     </row>
-    <row r="675">
+    <row r="675" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A675" s="4"/>
       <c r="B675" s="4"/>
       <c r="C675" s="4"/>
@@ -11660,7 +11979,7 @@
       <c r="N675" s="4"/>
       <c r="O675" s="4"/>
     </row>
-    <row r="676">
+    <row r="676" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A676" s="4"/>
       <c r="B676" s="4"/>
       <c r="C676" s="4"/>
@@ -11677,7 +11996,7 @@
       <c r="N676" s="4"/>
       <c r="O676" s="4"/>
     </row>
-    <row r="677">
+    <row r="677" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A677" s="4"/>
       <c r="B677" s="4"/>
       <c r="C677" s="4"/>
@@ -11694,7 +12013,7 @@
       <c r="N677" s="4"/>
       <c r="O677" s="4"/>
     </row>
-    <row r="678">
+    <row r="678" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A678" s="4"/>
       <c r="B678" s="4"/>
       <c r="C678" s="4"/>
@@ -11711,7 +12030,7 @@
       <c r="N678" s="4"/>
       <c r="O678" s="4"/>
     </row>
-    <row r="679">
+    <row r="679" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A679" s="4"/>
       <c r="B679" s="4"/>
       <c r="C679" s="4"/>
@@ -11728,7 +12047,7 @@
       <c r="N679" s="4"/>
       <c r="O679" s="4"/>
     </row>
-    <row r="680">
+    <row r="680" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A680" s="4"/>
       <c r="B680" s="4"/>
       <c r="C680" s="4"/>
@@ -11745,7 +12064,7 @@
       <c r="N680" s="4"/>
       <c r="O680" s="4"/>
     </row>
-    <row r="681">
+    <row r="681" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A681" s="4"/>
       <c r="B681" s="4"/>
       <c r="C681" s="4"/>
@@ -11762,7 +12081,7 @@
       <c r="N681" s="4"/>
       <c r="O681" s="4"/>
     </row>
-    <row r="682">
+    <row r="682" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A682" s="4"/>
       <c r="B682" s="4"/>
       <c r="C682" s="4"/>
@@ -11779,7 +12098,7 @@
       <c r="N682" s="4"/>
       <c r="O682" s="4"/>
     </row>
-    <row r="683">
+    <row r="683" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A683" s="4"/>
       <c r="B683" s="4"/>
       <c r="C683" s="4"/>
@@ -11796,7 +12115,7 @@
       <c r="N683" s="4"/>
       <c r="O683" s="4"/>
     </row>
-    <row r="684">
+    <row r="684" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A684" s="4"/>
       <c r="B684" s="4"/>
       <c r="C684" s="4"/>
@@ -11813,7 +12132,7 @@
       <c r="N684" s="4"/>
       <c r="O684" s="4"/>
     </row>
-    <row r="685">
+    <row r="685" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A685" s="4"/>
       <c r="B685" s="4"/>
       <c r="C685" s="4"/>
@@ -11830,7 +12149,7 @@
       <c r="N685" s="4"/>
       <c r="O685" s="4"/>
     </row>
-    <row r="686">
+    <row r="686" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A686" s="4"/>
       <c r="B686" s="4"/>
       <c r="C686" s="4"/>
@@ -11847,7 +12166,7 @@
       <c r="N686" s="4"/>
       <c r="O686" s="4"/>
     </row>
-    <row r="687">
+    <row r="687" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A687" s="4"/>
       <c r="B687" s="4"/>
       <c r="C687" s="4"/>
@@ -11864,7 +12183,7 @@
       <c r="N687" s="4"/>
       <c r="O687" s="4"/>
     </row>
-    <row r="688">
+    <row r="688" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A688" s="4"/>
       <c r="B688" s="4"/>
       <c r="C688" s="4"/>
@@ -11881,7 +12200,7 @@
       <c r="N688" s="4"/>
       <c r="O688" s="4"/>
     </row>
-    <row r="689">
+    <row r="689" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A689" s="4"/>
       <c r="B689" s="4"/>
       <c r="C689" s="4"/>
@@ -11898,7 +12217,7 @@
       <c r="N689" s="4"/>
       <c r="O689" s="4"/>
     </row>
-    <row r="690">
+    <row r="690" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A690" s="4"/>
       <c r="B690" s="4"/>
       <c r="C690" s="4"/>
@@ -11915,7 +12234,7 @@
       <c r="N690" s="4"/>
       <c r="O690" s="4"/>
     </row>
-    <row r="691">
+    <row r="691" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A691" s="4"/>
       <c r="B691" s="4"/>
       <c r="C691" s="4"/>
@@ -11932,7 +12251,7 @@
       <c r="N691" s="4"/>
       <c r="O691" s="4"/>
     </row>
-    <row r="692">
+    <row r="692" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A692" s="4"/>
       <c r="B692" s="4"/>
       <c r="C692" s="4"/>
@@ -11949,7 +12268,7 @@
       <c r="N692" s="4"/>
       <c r="O692" s="4"/>
     </row>
-    <row r="693">
+    <row r="693" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A693" s="4"/>
       <c r="B693" s="4"/>
       <c r="C693" s="4"/>
@@ -11966,7 +12285,7 @@
       <c r="N693" s="4"/>
       <c r="O693" s="4"/>
     </row>
-    <row r="694">
+    <row r="694" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A694" s="4"/>
       <c r="B694" s="4"/>
       <c r="C694" s="4"/>
@@ -11983,7 +12302,7 @@
       <c r="N694" s="4"/>
       <c r="O694" s="4"/>
     </row>
-    <row r="695">
+    <row r="695" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A695" s="4"/>
       <c r="B695" s="4"/>
       <c r="C695" s="4"/>
@@ -12000,7 +12319,7 @@
       <c r="N695" s="4"/>
       <c r="O695" s="4"/>
     </row>
-    <row r="696">
+    <row r="696" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A696" s="4"/>
       <c r="B696" s="4"/>
       <c r="C696" s="4"/>
@@ -12017,7 +12336,7 @@
       <c r="N696" s="4"/>
       <c r="O696" s="4"/>
     </row>
-    <row r="697">
+    <row r="697" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A697" s="4"/>
       <c r="B697" s="4"/>
       <c r="C697" s="4"/>
@@ -12034,7 +12353,7 @@
       <c r="N697" s="4"/>
       <c r="O697" s="4"/>
     </row>
-    <row r="698">
+    <row r="698" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A698" s="4"/>
       <c r="B698" s="4"/>
       <c r="C698" s="4"/>
@@ -12051,7 +12370,7 @@
       <c r="N698" s="4"/>
       <c r="O698" s="4"/>
     </row>
-    <row r="699">
+    <row r="699" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A699" s="4"/>
       <c r="B699" s="4"/>
       <c r="C699" s="4"/>
@@ -12068,7 +12387,7 @@
       <c r="N699" s="4"/>
       <c r="O699" s="4"/>
     </row>
-    <row r="700">
+    <row r="700" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A700" s="4"/>
       <c r="B700" s="4"/>
       <c r="C700" s="4"/>
@@ -12085,7 +12404,7 @@
       <c r="N700" s="4"/>
       <c r="O700" s="4"/>
     </row>
-    <row r="701">
+    <row r="701" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A701" s="4"/>
       <c r="B701" s="4"/>
       <c r="C701" s="4"/>
@@ -12102,7 +12421,7 @@
       <c r="N701" s="4"/>
       <c r="O701" s="4"/>
     </row>
-    <row r="702">
+    <row r="702" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A702" s="4"/>
       <c r="B702" s="4"/>
       <c r="C702" s="4"/>
@@ -12119,7 +12438,7 @@
       <c r="N702" s="4"/>
       <c r="O702" s="4"/>
     </row>
-    <row r="703">
+    <row r="703" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A703" s="4"/>
       <c r="B703" s="4"/>
       <c r="C703" s="4"/>
@@ -12136,7 +12455,7 @@
       <c r="N703" s="4"/>
       <c r="O703" s="4"/>
     </row>
-    <row r="704">
+    <row r="704" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A704" s="4"/>
       <c r="B704" s="4"/>
       <c r="C704" s="4"/>
@@ -12153,7 +12472,7 @@
       <c r="N704" s="4"/>
       <c r="O704" s="4"/>
     </row>
-    <row r="705">
+    <row r="705" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A705" s="4"/>
       <c r="B705" s="4"/>
       <c r="C705" s="4"/>
@@ -12170,7 +12489,7 @@
       <c r="N705" s="4"/>
       <c r="O705" s="4"/>
     </row>
-    <row r="706">
+    <row r="706" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A706" s="4"/>
       <c r="B706" s="4"/>
       <c r="C706" s="4"/>
@@ -12187,7 +12506,7 @@
       <c r="N706" s="4"/>
       <c r="O706" s="4"/>
     </row>
-    <row r="707">
+    <row r="707" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A707" s="4"/>
       <c r="B707" s="4"/>
       <c r="C707" s="4"/>
@@ -12204,7 +12523,7 @@
       <c r="N707" s="4"/>
       <c r="O707" s="4"/>
     </row>
-    <row r="708">
+    <row r="708" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A708" s="4"/>
       <c r="B708" s="4"/>
       <c r="C708" s="4"/>
@@ -12221,7 +12540,7 @@
       <c r="N708" s="4"/>
       <c r="O708" s="4"/>
     </row>
-    <row r="709">
+    <row r="709" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A709" s="4"/>
       <c r="B709" s="4"/>
       <c r="C709" s="4"/>
@@ -12238,7 +12557,7 @@
       <c r="N709" s="4"/>
       <c r="O709" s="4"/>
     </row>
-    <row r="710">
+    <row r="710" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A710" s="4"/>
       <c r="B710" s="4"/>
       <c r="C710" s="4"/>
@@ -12255,7 +12574,7 @@
       <c r="N710" s="4"/>
       <c r="O710" s="4"/>
     </row>
-    <row r="711">
+    <row r="711" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A711" s="4"/>
       <c r="B711" s="4"/>
       <c r="C711" s="4"/>
@@ -12272,7 +12591,7 @@
       <c r="N711" s="4"/>
       <c r="O711" s="4"/>
     </row>
-    <row r="712">
+    <row r="712" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A712" s="4"/>
       <c r="B712" s="4"/>
       <c r="C712" s="4"/>
@@ -12289,7 +12608,7 @@
       <c r="N712" s="4"/>
       <c r="O712" s="4"/>
     </row>
-    <row r="713">
+    <row r="713" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A713" s="4"/>
       <c r="B713" s="4"/>
       <c r="C713" s="4"/>
@@ -12306,7 +12625,7 @@
       <c r="N713" s="4"/>
       <c r="O713" s="4"/>
     </row>
-    <row r="714">
+    <row r="714" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A714" s="4"/>
       <c r="B714" s="4"/>
       <c r="C714" s="4"/>
@@ -12323,7 +12642,7 @@
       <c r="N714" s="4"/>
       <c r="O714" s="4"/>
     </row>
-    <row r="715">
+    <row r="715" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A715" s="4"/>
       <c r="B715" s="4"/>
       <c r="C715" s="4"/>
@@ -12340,7 +12659,7 @@
       <c r="N715" s="4"/>
       <c r="O715" s="4"/>
     </row>
-    <row r="716">
+    <row r="716" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A716" s="4"/>
       <c r="B716" s="4"/>
       <c r="C716" s="4"/>
@@ -12357,7 +12676,7 @@
       <c r="N716" s="4"/>
       <c r="O716" s="4"/>
     </row>
-    <row r="717">
+    <row r="717" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A717" s="4"/>
       <c r="B717" s="4"/>
       <c r="C717" s="4"/>
@@ -12374,7 +12693,7 @@
       <c r="N717" s="4"/>
       <c r="O717" s="4"/>
     </row>
-    <row r="718">
+    <row r="718" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A718" s="4"/>
       <c r="B718" s="4"/>
       <c r="C718" s="4"/>
@@ -12391,7 +12710,7 @@
       <c r="N718" s="4"/>
       <c r="O718" s="4"/>
     </row>
-    <row r="719">
+    <row r="719" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A719" s="4"/>
       <c r="B719" s="4"/>
       <c r="C719" s="4"/>
@@ -12408,7 +12727,7 @@
       <c r="N719" s="4"/>
       <c r="O719" s="4"/>
     </row>
-    <row r="720">
+    <row r="720" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A720" s="4"/>
       <c r="B720" s="4"/>
       <c r="C720" s="4"/>
@@ -12425,7 +12744,7 @@
       <c r="N720" s="4"/>
       <c r="O720" s="4"/>
     </row>
-    <row r="721">
+    <row r="721" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A721" s="4"/>
       <c r="B721" s="4"/>
       <c r="C721" s="4"/>
@@ -12442,7 +12761,7 @@
       <c r="N721" s="4"/>
       <c r="O721" s="4"/>
     </row>
-    <row r="722">
+    <row r="722" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A722" s="4"/>
       <c r="B722" s="4"/>
       <c r="C722" s="4"/>
@@ -12459,7 +12778,7 @@
       <c r="N722" s="4"/>
       <c r="O722" s="4"/>
     </row>
-    <row r="723">
+    <row r="723" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A723" s="4"/>
       <c r="B723" s="4"/>
       <c r="C723" s="4"/>
@@ -12476,7 +12795,7 @@
       <c r="N723" s="4"/>
       <c r="O723" s="4"/>
     </row>
-    <row r="724">
+    <row r="724" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A724" s="4"/>
       <c r="B724" s="4"/>
       <c r="C724" s="4"/>
@@ -12493,7 +12812,7 @@
       <c r="N724" s="4"/>
       <c r="O724" s="4"/>
     </row>
-    <row r="725">
+    <row r="725" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A725" s="4"/>
       <c r="B725" s="4"/>
       <c r="C725" s="4"/>
@@ -12510,7 +12829,7 @@
       <c r="N725" s="4"/>
       <c r="O725" s="4"/>
     </row>
-    <row r="726">
+    <row r="726" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A726" s="4"/>
       <c r="B726" s="4"/>
       <c r="C726" s="4"/>
@@ -12527,7 +12846,7 @@
       <c r="N726" s="4"/>
       <c r="O726" s="4"/>
     </row>
-    <row r="727">
+    <row r="727" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A727" s="4"/>
       <c r="B727" s="4"/>
       <c r="C727" s="4"/>
@@ -12544,7 +12863,7 @@
       <c r="N727" s="4"/>
       <c r="O727" s="4"/>
     </row>
-    <row r="728">
+    <row r="728" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A728" s="4"/>
       <c r="B728" s="4"/>
       <c r="C728" s="4"/>
@@ -12561,7 +12880,7 @@
       <c r="N728" s="4"/>
       <c r="O728" s="4"/>
     </row>
-    <row r="729">
+    <row r="729" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A729" s="4"/>
       <c r="B729" s="4"/>
       <c r="C729" s="4"/>
@@ -12578,7 +12897,7 @@
       <c r="N729" s="4"/>
       <c r="O729" s="4"/>
     </row>
-    <row r="730">
+    <row r="730" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A730" s="4"/>
       <c r="B730" s="4"/>
       <c r="C730" s="4"/>
@@ -12595,7 +12914,7 @@
       <c r="N730" s="4"/>
       <c r="O730" s="4"/>
     </row>
-    <row r="731">
+    <row r="731" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A731" s="4"/>
       <c r="B731" s="4"/>
       <c r="C731" s="4"/>
@@ -12612,7 +12931,7 @@
       <c r="N731" s="4"/>
       <c r="O731" s="4"/>
     </row>
-    <row r="732">
+    <row r="732" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A732" s="4"/>
       <c r="B732" s="4"/>
       <c r="C732" s="4"/>
@@ -12629,7 +12948,7 @@
       <c r="N732" s="4"/>
       <c r="O732" s="4"/>
     </row>
-    <row r="733">
+    <row r="733" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A733" s="4"/>
       <c r="B733" s="4"/>
       <c r="C733" s="4"/>
@@ -12646,7 +12965,7 @@
       <c r="N733" s="4"/>
       <c r="O733" s="4"/>
     </row>
-    <row r="734">
+    <row r="734" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A734" s="4"/>
       <c r="B734" s="4"/>
       <c r="C734" s="4"/>
@@ -12663,7 +12982,7 @@
       <c r="N734" s="4"/>
       <c r="O734" s="4"/>
     </row>
-    <row r="735">
+    <row r="735" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A735" s="4"/>
       <c r="B735" s="4"/>
       <c r="C735" s="4"/>
@@ -12680,7 +12999,7 @@
       <c r="N735" s="4"/>
       <c r="O735" s="4"/>
     </row>
-    <row r="736">
+    <row r="736" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A736" s="4"/>
       <c r="B736" s="4"/>
       <c r="C736" s="4"/>
@@ -12697,7 +13016,7 @@
       <c r="N736" s="4"/>
       <c r="O736" s="4"/>
     </row>
-    <row r="737">
+    <row r="737" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A737" s="4"/>
       <c r="B737" s="4"/>
       <c r="C737" s="4"/>
@@ -12714,7 +13033,7 @@
       <c r="N737" s="4"/>
       <c r="O737" s="4"/>
     </row>
-    <row r="738">
+    <row r="738" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A738" s="4"/>
       <c r="B738" s="4"/>
       <c r="C738" s="4"/>
@@ -12731,7 +13050,7 @@
       <c r="N738" s="4"/>
       <c r="O738" s="4"/>
     </row>
-    <row r="739">
+    <row r="739" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A739" s="4"/>
       <c r="B739" s="4"/>
       <c r="C739" s="4"/>
@@ -12748,7 +13067,7 @@
       <c r="N739" s="4"/>
       <c r="O739" s="4"/>
     </row>
-    <row r="740">
+    <row r="740" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A740" s="4"/>
       <c r="B740" s="4"/>
       <c r="C740" s="4"/>
@@ -12765,7 +13084,7 @@
       <c r="N740" s="4"/>
       <c r="O740" s="4"/>
     </row>
-    <row r="741">
+    <row r="741" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A741" s="4"/>
       <c r="B741" s="4"/>
       <c r="C741" s="4"/>
@@ -12782,7 +13101,7 @@
       <c r="N741" s="4"/>
       <c r="O741" s="4"/>
     </row>
-    <row r="742">
+    <row r="742" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A742" s="4"/>
       <c r="B742" s="4"/>
       <c r="C742" s="4"/>
@@ -12799,7 +13118,7 @@
       <c r="N742" s="4"/>
       <c r="O742" s="4"/>
     </row>
-    <row r="743">
+    <row r="743" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A743" s="4"/>
       <c r="B743" s="4"/>
       <c r="C743" s="4"/>
@@ -12816,7 +13135,7 @@
       <c r="N743" s="4"/>
       <c r="O743" s="4"/>
     </row>
-    <row r="744">
+    <row r="744" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A744" s="4"/>
       <c r="B744" s="4"/>
       <c r="C744" s="4"/>
@@ -12833,7 +13152,7 @@
       <c r="N744" s="4"/>
       <c r="O744" s="4"/>
     </row>
-    <row r="745">
+    <row r="745" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A745" s="4"/>
       <c r="B745" s="4"/>
       <c r="C745" s="4"/>
@@ -12850,7 +13169,7 @@
       <c r="N745" s="4"/>
       <c r="O745" s="4"/>
     </row>
-    <row r="746">
+    <row r="746" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A746" s="4"/>
       <c r="B746" s="4"/>
       <c r="C746" s="4"/>
@@ -12867,7 +13186,7 @@
       <c r="N746" s="4"/>
       <c r="O746" s="4"/>
     </row>
-    <row r="747">
+    <row r="747" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A747" s="4"/>
       <c r="B747" s="4"/>
       <c r="C747" s="4"/>
@@ -12884,7 +13203,7 @@
       <c r="N747" s="4"/>
       <c r="O747" s="4"/>
     </row>
-    <row r="748">
+    <row r="748" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A748" s="4"/>
       <c r="B748" s="4"/>
       <c r="C748" s="4"/>
@@ -12901,7 +13220,7 @@
       <c r="N748" s="4"/>
       <c r="O748" s="4"/>
     </row>
-    <row r="749">
+    <row r="749" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A749" s="4"/>
       <c r="B749" s="4"/>
       <c r="C749" s="4"/>
@@ -12918,7 +13237,7 @@
       <c r="N749" s="4"/>
       <c r="O749" s="4"/>
     </row>
-    <row r="750">
+    <row r="750" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A750" s="4"/>
       <c r="B750" s="4"/>
       <c r="C750" s="4"/>
@@ -12935,7 +13254,7 @@
       <c r="N750" s="4"/>
       <c r="O750" s="4"/>
     </row>
-    <row r="751">
+    <row r="751" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A751" s="4"/>
       <c r="B751" s="4"/>
       <c r="C751" s="4"/>
@@ -12952,7 +13271,7 @@
       <c r="N751" s="4"/>
       <c r="O751" s="4"/>
     </row>
-    <row r="752">
+    <row r="752" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A752" s="4"/>
       <c r="B752" s="4"/>
       <c r="C752" s="4"/>
@@ -12969,7 +13288,7 @@
       <c r="N752" s="4"/>
       <c r="O752" s="4"/>
     </row>
-    <row r="753">
+    <row r="753" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A753" s="4"/>
       <c r="B753" s="4"/>
       <c r="C753" s="4"/>
@@ -12986,7 +13305,7 @@
       <c r="N753" s="4"/>
       <c r="O753" s="4"/>
     </row>
-    <row r="754">
+    <row r="754" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A754" s="4"/>
       <c r="B754" s="4"/>
       <c r="C754" s="4"/>
@@ -13003,7 +13322,7 @@
       <c r="N754" s="4"/>
       <c r="O754" s="4"/>
     </row>
-    <row r="755">
+    <row r="755" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A755" s="4"/>
       <c r="B755" s="4"/>
       <c r="C755" s="4"/>
@@ -13020,7 +13339,7 @@
       <c r="N755" s="4"/>
       <c r="O755" s="4"/>
     </row>
-    <row r="756">
+    <row r="756" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A756" s="4"/>
       <c r="B756" s="4"/>
       <c r="C756" s="4"/>
@@ -13037,7 +13356,7 @@
       <c r="N756" s="4"/>
       <c r="O756" s="4"/>
     </row>
-    <row r="757">
+    <row r="757" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A757" s="4"/>
       <c r="B757" s="4"/>
       <c r="C757" s="4"/>
@@ -13054,7 +13373,7 @@
       <c r="N757" s="4"/>
       <c r="O757" s="4"/>
     </row>
-    <row r="758">
+    <row r="758" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A758" s="4"/>
       <c r="B758" s="4"/>
       <c r="C758" s="4"/>
@@ -13071,7 +13390,7 @@
       <c r="N758" s="4"/>
       <c r="O758" s="4"/>
     </row>
-    <row r="759">
+    <row r="759" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A759" s="4"/>
       <c r="B759" s="4"/>
       <c r="C759" s="4"/>
@@ -13088,7 +13407,7 @@
       <c r="N759" s="4"/>
       <c r="O759" s="4"/>
     </row>
-    <row r="760">
+    <row r="760" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A760" s="4"/>
       <c r="B760" s="4"/>
       <c r="C760" s="4"/>
@@ -13105,7 +13424,7 @@
       <c r="N760" s="4"/>
       <c r="O760" s="4"/>
     </row>
-    <row r="761">
+    <row r="761" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A761" s="4"/>
       <c r="B761" s="4"/>
       <c r="C761" s="4"/>
@@ -13122,7 +13441,7 @@
       <c r="N761" s="4"/>
       <c r="O761" s="4"/>
     </row>
-    <row r="762">
+    <row r="762" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A762" s="4"/>
       <c r="B762" s="4"/>
       <c r="C762" s="4"/>
@@ -13139,7 +13458,7 @@
       <c r="N762" s="4"/>
       <c r="O762" s="4"/>
     </row>
-    <row r="763">
+    <row r="763" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A763" s="4"/>
       <c r="B763" s="4"/>
       <c r="C763" s="4"/>
@@ -13156,7 +13475,7 @@
       <c r="N763" s="4"/>
       <c r="O763" s="4"/>
     </row>
-    <row r="764">
+    <row r="764" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A764" s="4"/>
       <c r="B764" s="4"/>
       <c r="C764" s="4"/>
@@ -13173,7 +13492,7 @@
       <c r="N764" s="4"/>
       <c r="O764" s="4"/>
     </row>
-    <row r="765">
+    <row r="765" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A765" s="4"/>
       <c r="B765" s="4"/>
       <c r="C765" s="4"/>
@@ -13190,7 +13509,7 @@
       <c r="N765" s="4"/>
       <c r="O765" s="4"/>
     </row>
-    <row r="766">
+    <row r="766" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A766" s="4"/>
       <c r="B766" s="4"/>
       <c r="C766" s="4"/>
@@ -13207,7 +13526,7 @@
       <c r="N766" s="4"/>
       <c r="O766" s="4"/>
     </row>
-    <row r="767">
+    <row r="767" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A767" s="4"/>
       <c r="B767" s="4"/>
       <c r="C767" s="4"/>
@@ -13224,7 +13543,7 @@
       <c r="N767" s="4"/>
       <c r="O767" s="4"/>
     </row>
-    <row r="768">
+    <row r="768" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A768" s="4"/>
       <c r="B768" s="4"/>
       <c r="C768" s="4"/>
@@ -13241,7 +13560,7 @@
       <c r="N768" s="4"/>
       <c r="O768" s="4"/>
     </row>
-    <row r="769">
+    <row r="769" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A769" s="4"/>
       <c r="B769" s="4"/>
       <c r="C769" s="4"/>
@@ -13258,7 +13577,7 @@
       <c r="N769" s="4"/>
       <c r="O769" s="4"/>
     </row>
-    <row r="770">
+    <row r="770" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A770" s="4"/>
       <c r="B770" s="4"/>
       <c r="C770" s="4"/>
@@ -13275,7 +13594,7 @@
       <c r="N770" s="4"/>
       <c r="O770" s="4"/>
     </row>
-    <row r="771">
+    <row r="771" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A771" s="4"/>
       <c r="B771" s="4"/>
       <c r="C771" s="4"/>
@@ -13292,7 +13611,7 @@
       <c r="N771" s="4"/>
       <c r="O771" s="4"/>
     </row>
-    <row r="772">
+    <row r="772" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A772" s="4"/>
       <c r="B772" s="4"/>
       <c r="C772" s="4"/>
@@ -13309,7 +13628,7 @@
       <c r="N772" s="4"/>
       <c r="O772" s="4"/>
     </row>
-    <row r="773">
+    <row r="773" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A773" s="4"/>
       <c r="B773" s="4"/>
       <c r="C773" s="4"/>
@@ -13326,7 +13645,7 @@
       <c r="N773" s="4"/>
       <c r="O773" s="4"/>
     </row>
-    <row r="774">
+    <row r="774" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A774" s="4"/>
       <c r="B774" s="4"/>
       <c r="C774" s="4"/>
@@ -13343,7 +13662,7 @@
       <c r="N774" s="4"/>
       <c r="O774" s="4"/>
     </row>
-    <row r="775">
+    <row r="775" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A775" s="4"/>
       <c r="B775" s="4"/>
       <c r="C775" s="4"/>
@@ -13360,7 +13679,7 @@
       <c r="N775" s="4"/>
       <c r="O775" s="4"/>
     </row>
-    <row r="776">
+    <row r="776" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A776" s="4"/>
       <c r="B776" s="4"/>
       <c r="C776" s="4"/>
@@ -13377,7 +13696,7 @@
       <c r="N776" s="4"/>
       <c r="O776" s="4"/>
     </row>
-    <row r="777">
+    <row r="777" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A777" s="4"/>
       <c r="B777" s="4"/>
       <c r="C777" s="4"/>
@@ -13394,7 +13713,7 @@
       <c r="N777" s="4"/>
       <c r="O777" s="4"/>
     </row>
-    <row r="778">
+    <row r="778" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A778" s="4"/>
       <c r="B778" s="4"/>
       <c r="C778" s="4"/>
@@ -13411,7 +13730,7 @@
       <c r="N778" s="4"/>
       <c r="O778" s="4"/>
     </row>
-    <row r="779">
+    <row r="779" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A779" s="4"/>
       <c r="B779" s="4"/>
       <c r="C779" s="4"/>
@@ -13428,7 +13747,7 @@
       <c r="N779" s="4"/>
       <c r="O779" s="4"/>
     </row>
-    <row r="780">
+    <row r="780" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A780" s="4"/>
       <c r="B780" s="4"/>
       <c r="C780" s="4"/>
@@ -13445,7 +13764,7 @@
       <c r="N780" s="4"/>
       <c r="O780" s="4"/>
     </row>
-    <row r="781">
+    <row r="781" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A781" s="4"/>
       <c r="B781" s="4"/>
       <c r="C781" s="4"/>
@@ -13462,7 +13781,7 @@
       <c r="N781" s="4"/>
       <c r="O781" s="4"/>
     </row>
-    <row r="782">
+    <row r="782" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A782" s="4"/>
       <c r="B782" s="4"/>
       <c r="C782" s="4"/>
@@ -13479,7 +13798,7 @@
       <c r="N782" s="4"/>
       <c r="O782" s="4"/>
     </row>
-    <row r="783">
+    <row r="783" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A783" s="4"/>
       <c r="B783" s="4"/>
       <c r="C783" s="4"/>
@@ -13496,7 +13815,7 @@
       <c r="N783" s="4"/>
       <c r="O783" s="4"/>
     </row>
-    <row r="784">
+    <row r="784" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A784" s="4"/>
       <c r="B784" s="4"/>
       <c r="C784" s="4"/>
@@ -13513,7 +13832,7 @@
       <c r="N784" s="4"/>
       <c r="O784" s="4"/>
     </row>
-    <row r="785">
+    <row r="785" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A785" s="4"/>
       <c r="B785" s="4"/>
       <c r="C785" s="4"/>
@@ -13530,7 +13849,7 @@
       <c r="N785" s="4"/>
       <c r="O785" s="4"/>
     </row>
-    <row r="786">
+    <row r="786" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A786" s="4"/>
       <c r="B786" s="4"/>
       <c r="C786" s="4"/>
@@ -13547,7 +13866,7 @@
       <c r="N786" s="4"/>
       <c r="O786" s="4"/>
     </row>
-    <row r="787">
+    <row r="787" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A787" s="4"/>
       <c r="B787" s="4"/>
       <c r="C787" s="4"/>
@@ -13564,7 +13883,7 @@
       <c r="N787" s="4"/>
       <c r="O787" s="4"/>
     </row>
-    <row r="788">
+    <row r="788" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A788" s="4"/>
       <c r="B788" s="4"/>
       <c r="C788" s="4"/>
@@ -13581,7 +13900,7 @@
       <c r="N788" s="4"/>
       <c r="O788" s="4"/>
     </row>
-    <row r="789">
+    <row r="789" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A789" s="4"/>
       <c r="B789" s="4"/>
       <c r="C789" s="4"/>
@@ -13598,7 +13917,7 @@
       <c r="N789" s="4"/>
       <c r="O789" s="4"/>
     </row>
-    <row r="790">
+    <row r="790" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A790" s="4"/>
       <c r="B790" s="4"/>
       <c r="C790" s="4"/>
@@ -13615,7 +13934,7 @@
       <c r="N790" s="4"/>
       <c r="O790" s="4"/>
     </row>
-    <row r="791">
+    <row r="791" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A791" s="4"/>
       <c r="B791" s="4"/>
       <c r="C791" s="4"/>
@@ -13632,7 +13951,7 @@
       <c r="N791" s="4"/>
       <c r="O791" s="4"/>
     </row>
-    <row r="792">
+    <row r="792" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A792" s="4"/>
       <c r="B792" s="4"/>
       <c r="C792" s="4"/>
@@ -13649,7 +13968,7 @@
       <c r="N792" s="4"/>
       <c r="O792" s="4"/>
     </row>
-    <row r="793">
+    <row r="793" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A793" s="4"/>
       <c r="B793" s="4"/>
       <c r="C793" s="4"/>
@@ -13666,7 +13985,7 @@
       <c r="N793" s="4"/>
       <c r="O793" s="4"/>
     </row>
-    <row r="794">
+    <row r="794" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A794" s="4"/>
       <c r="B794" s="4"/>
       <c r="C794" s="4"/>
@@ -13683,7 +14002,7 @@
       <c r="N794" s="4"/>
       <c r="O794" s="4"/>
     </row>
-    <row r="795">
+    <row r="795" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A795" s="4"/>
       <c r="B795" s="4"/>
       <c r="C795" s="4"/>
@@ -13700,7 +14019,7 @@
       <c r="N795" s="4"/>
       <c r="O795" s="4"/>
     </row>
-    <row r="796">
+    <row r="796" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A796" s="4"/>
       <c r="B796" s="4"/>
       <c r="C796" s="4"/>
@@ -13717,7 +14036,7 @@
       <c r="N796" s="4"/>
       <c r="O796" s="4"/>
     </row>
-    <row r="797">
+    <row r="797" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A797" s="4"/>
       <c r="B797" s="4"/>
       <c r="C797" s="4"/>
@@ -13734,7 +14053,7 @@
       <c r="N797" s="4"/>
       <c r="O797" s="4"/>
     </row>
-    <row r="798">
+    <row r="798" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A798" s="4"/>
       <c r="B798" s="4"/>
       <c r="C798" s="4"/>
@@ -13751,7 +14070,7 @@
       <c r="N798" s="4"/>
       <c r="O798" s="4"/>
     </row>
-    <row r="799">
+    <row r="799" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A799" s="4"/>
       <c r="B799" s="4"/>
       <c r="C799" s="4"/>
@@ -13768,7 +14087,7 @@
       <c r="N799" s="4"/>
       <c r="O799" s="4"/>
     </row>
-    <row r="800">
+    <row r="800" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A800" s="4"/>
       <c r="B800" s="4"/>
       <c r="C800" s="4"/>
@@ -13785,7 +14104,7 @@
       <c r="N800" s="4"/>
       <c r="O800" s="4"/>
     </row>
-    <row r="801">
+    <row r="801" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A801" s="4"/>
       <c r="B801" s="4"/>
       <c r="C801" s="4"/>
@@ -13802,7 +14121,7 @@
       <c r="N801" s="4"/>
       <c r="O801" s="4"/>
     </row>
-    <row r="802">
+    <row r="802" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A802" s="4"/>
       <c r="B802" s="4"/>
       <c r="C802" s="4"/>
@@ -13819,7 +14138,7 @@
       <c r="N802" s="4"/>
       <c r="O802" s="4"/>
     </row>
-    <row r="803">
+    <row r="803" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A803" s="4"/>
       <c r="B803" s="4"/>
       <c r="C803" s="4"/>
@@ -13836,7 +14155,7 @@
       <c r="N803" s="4"/>
       <c r="O803" s="4"/>
     </row>
-    <row r="804">
+    <row r="804" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A804" s="4"/>
       <c r="B804" s="4"/>
       <c r="C804" s="4"/>
@@ -13853,7 +14172,7 @@
       <c r="N804" s="4"/>
       <c r="O804" s="4"/>
     </row>
-    <row r="805">
+    <row r="805" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A805" s="4"/>
       <c r="B805" s="4"/>
       <c r="C805" s="4"/>
@@ -13870,7 +14189,7 @@
       <c r="N805" s="4"/>
       <c r="O805" s="4"/>
     </row>
-    <row r="806">
+    <row r="806" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A806" s="4"/>
       <c r="B806" s="4"/>
       <c r="C806" s="4"/>
@@ -13887,7 +14206,7 @@
       <c r="N806" s="4"/>
       <c r="O806" s="4"/>
     </row>
-    <row r="807">
+    <row r="807" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A807" s="4"/>
       <c r="B807" s="4"/>
       <c r="C807" s="4"/>
@@ -13904,7 +14223,7 @@
       <c r="N807" s="4"/>
       <c r="O807" s="4"/>
     </row>
-    <row r="808">
+    <row r="808" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A808" s="4"/>
       <c r="B808" s="4"/>
       <c r="C808" s="4"/>
@@ -13921,7 +14240,7 @@
       <c r="N808" s="4"/>
       <c r="O808" s="4"/>
     </row>
-    <row r="809">
+    <row r="809" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A809" s="4"/>
       <c r="B809" s="4"/>
       <c r="C809" s="4"/>
@@ -13938,7 +14257,7 @@
       <c r="N809" s="4"/>
       <c r="O809" s="4"/>
     </row>
-    <row r="810">
+    <row r="810" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A810" s="4"/>
       <c r="B810" s="4"/>
       <c r="C810" s="4"/>
@@ -13955,7 +14274,7 @@
       <c r="N810" s="4"/>
       <c r="O810" s="4"/>
     </row>
-    <row r="811">
+    <row r="811" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A811" s="4"/>
       <c r="B811" s="4"/>
       <c r="C811" s="4"/>
@@ -13972,7 +14291,7 @@
       <c r="N811" s="4"/>
       <c r="O811" s="4"/>
     </row>
-    <row r="812">
+    <row r="812" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A812" s="4"/>
       <c r="B812" s="4"/>
       <c r="C812" s="4"/>
@@ -13989,7 +14308,7 @@
       <c r="N812" s="4"/>
       <c r="O812" s="4"/>
     </row>
-    <row r="813">
+    <row r="813" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A813" s="4"/>
       <c r="B813" s="4"/>
       <c r="C813" s="4"/>
@@ -14006,7 +14325,7 @@
       <c r="N813" s="4"/>
       <c r="O813" s="4"/>
     </row>
-    <row r="814">
+    <row r="814" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A814" s="4"/>
       <c r="B814" s="4"/>
       <c r="C814" s="4"/>
@@ -14023,7 +14342,7 @@
       <c r="N814" s="4"/>
       <c r="O814" s="4"/>
     </row>
-    <row r="815">
+    <row r="815" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A815" s="4"/>
       <c r="B815" s="4"/>
       <c r="C815" s="4"/>
@@ -14040,7 +14359,7 @@
       <c r="N815" s="4"/>
       <c r="O815" s="4"/>
     </row>
-    <row r="816">
+    <row r="816" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A816" s="4"/>
       <c r="B816" s="4"/>
       <c r="C816" s="4"/>
@@ -14057,7 +14376,7 @@
       <c r="N816" s="4"/>
       <c r="O816" s="4"/>
     </row>
-    <row r="817">
+    <row r="817" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A817" s="4"/>
       <c r="B817" s="4"/>
       <c r="C817" s="4"/>
@@ -14074,7 +14393,7 @@
       <c r="N817" s="4"/>
       <c r="O817" s="4"/>
     </row>
-    <row r="818">
+    <row r="818" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A818" s="4"/>
       <c r="B818" s="4"/>
       <c r="C818" s="4"/>
@@ -14091,7 +14410,7 @@
       <c r="N818" s="4"/>
       <c r="O818" s="4"/>
     </row>
-    <row r="819">
+    <row r="819" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A819" s="4"/>
       <c r="B819" s="4"/>
       <c r="C819" s="4"/>
@@ -14108,7 +14427,7 @@
       <c r="N819" s="4"/>
       <c r="O819" s="4"/>
     </row>
-    <row r="820">
+    <row r="820" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A820" s="4"/>
       <c r="B820" s="4"/>
       <c r="C820" s="4"/>
@@ -14125,7 +14444,7 @@
       <c r="N820" s="4"/>
       <c r="O820" s="4"/>
     </row>
-    <row r="821">
+    <row r="821" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A821" s="4"/>
       <c r="B821" s="4"/>
       <c r="C821" s="4"/>
@@ -14142,7 +14461,7 @@
       <c r="N821" s="4"/>
       <c r="O821" s="4"/>
     </row>
-    <row r="822">
+    <row r="822" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A822" s="4"/>
       <c r="B822" s="4"/>
       <c r="C822" s="4"/>
@@ -14159,7 +14478,7 @@
       <c r="N822" s="4"/>
       <c r="O822" s="4"/>
     </row>
-    <row r="823">
+    <row r="823" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A823" s="4"/>
       <c r="B823" s="4"/>
       <c r="C823" s="4"/>
@@ -14176,7 +14495,7 @@
       <c r="N823" s="4"/>
       <c r="O823" s="4"/>
     </row>
-    <row r="824">
+    <row r="824" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A824" s="4"/>
       <c r="B824" s="4"/>
       <c r="C824" s="4"/>
@@ -14193,7 +14512,7 @@
       <c r="N824" s="4"/>
       <c r="O824" s="4"/>
     </row>
-    <row r="825">
+    <row r="825" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A825" s="4"/>
       <c r="B825" s="4"/>
       <c r="C825" s="4"/>
@@ -14210,7 +14529,7 @@
       <c r="N825" s="4"/>
       <c r="O825" s="4"/>
     </row>
-    <row r="826">
+    <row r="826" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A826" s="4"/>
       <c r="B826" s="4"/>
       <c r="C826" s="4"/>
@@ -14227,7 +14546,7 @@
       <c r="N826" s="4"/>
       <c r="O826" s="4"/>
     </row>
-    <row r="827">
+    <row r="827" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A827" s="4"/>
       <c r="B827" s="4"/>
       <c r="C827" s="4"/>
@@ -14244,7 +14563,7 @@
       <c r="N827" s="4"/>
       <c r="O827" s="4"/>
     </row>
-    <row r="828">
+    <row r="828" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A828" s="4"/>
       <c r="B828" s="4"/>
       <c r="C828" s="4"/>
@@ -14261,7 +14580,7 @@
       <c r="N828" s="4"/>
       <c r="O828" s="4"/>
     </row>
-    <row r="829">
+    <row r="829" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A829" s="4"/>
       <c r="B829" s="4"/>
       <c r="C829" s="4"/>
@@ -14278,7 +14597,7 @@
       <c r="N829" s="4"/>
       <c r="O829" s="4"/>
     </row>
-    <row r="830">
+    <row r="830" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A830" s="4"/>
       <c r="B830" s="4"/>
       <c r="C830" s="4"/>
@@ -14295,7 +14614,7 @@
       <c r="N830" s="4"/>
       <c r="O830" s="4"/>
     </row>
-    <row r="831">
+    <row r="831" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A831" s="4"/>
       <c r="B831" s="4"/>
       <c r="C831" s="4"/>
@@ -14312,7 +14631,7 @@
       <c r="N831" s="4"/>
       <c r="O831" s="4"/>
     </row>
-    <row r="832">
+    <row r="832" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A832" s="4"/>
       <c r="B832" s="4"/>
       <c r="C832" s="4"/>
@@ -14329,7 +14648,7 @@
       <c r="N832" s="4"/>
       <c r="O832" s="4"/>
     </row>
-    <row r="833">
+    <row r="833" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A833" s="4"/>
       <c r="B833" s="4"/>
       <c r="C833" s="4"/>
@@ -14346,7 +14665,7 @@
       <c r="N833" s="4"/>
       <c r="O833" s="4"/>
     </row>
-    <row r="834">
+    <row r="834" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A834" s="4"/>
       <c r="B834" s="4"/>
       <c r="C834" s="4"/>
@@ -14363,7 +14682,7 @@
       <c r="N834" s="4"/>
       <c r="O834" s="4"/>
     </row>
-    <row r="835">
+    <row r="835" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A835" s="4"/>
       <c r="B835" s="4"/>
       <c r="C835" s="4"/>
@@ -14380,7 +14699,7 @@
       <c r="N835" s="4"/>
       <c r="O835" s="4"/>
     </row>
-    <row r="836">
+    <row r="836" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A836" s="4"/>
       <c r="B836" s="4"/>
       <c r="C836" s="4"/>
@@ -14397,7 +14716,7 @@
       <c r="N836" s="4"/>
       <c r="O836" s="4"/>
     </row>
-    <row r="837">
+    <row r="837" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A837" s="4"/>
       <c r="B837" s="4"/>
       <c r="C837" s="4"/>
@@ -14414,7 +14733,7 @@
       <c r="N837" s="4"/>
       <c r="O837" s="4"/>
     </row>
-    <row r="838">
+    <row r="838" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A838" s="4"/>
       <c r="B838" s="4"/>
       <c r="C838" s="4"/>
@@ -14431,7 +14750,7 @@
       <c r="N838" s="4"/>
       <c r="O838" s="4"/>
     </row>
-    <row r="839">
+    <row r="839" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A839" s="4"/>
       <c r="B839" s="4"/>
       <c r="C839" s="4"/>
@@ -14448,7 +14767,7 @@
       <c r="N839" s="4"/>
       <c r="O839" s="4"/>
     </row>
-    <row r="840">
+    <row r="840" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A840" s="4"/>
       <c r="B840" s="4"/>
       <c r="C840" s="4"/>
@@ -14465,7 +14784,7 @@
       <c r="N840" s="4"/>
       <c r="O840" s="4"/>
     </row>
-    <row r="841">
+    <row r="841" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A841" s="4"/>
       <c r="B841" s="4"/>
       <c r="C841" s="4"/>
@@ -14482,7 +14801,7 @@
       <c r="N841" s="4"/>
       <c r="O841" s="4"/>
     </row>
-    <row r="842">
+    <row r="842" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A842" s="4"/>
       <c r="B842" s="4"/>
       <c r="C842" s="4"/>
@@ -14499,7 +14818,7 @@
       <c r="N842" s="4"/>
       <c r="O842" s="4"/>
     </row>
-    <row r="843">
+    <row r="843" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A843" s="4"/>
       <c r="B843" s="4"/>
       <c r="C843" s="4"/>
@@ -14516,7 +14835,7 @@
       <c r="N843" s="4"/>
       <c r="O843" s="4"/>
     </row>
-    <row r="844">
+    <row r="844" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A844" s="4"/>
       <c r="B844" s="4"/>
       <c r="C844" s="4"/>
@@ -14533,7 +14852,7 @@
       <c r="N844" s="4"/>
       <c r="O844" s="4"/>
     </row>
-    <row r="845">
+    <row r="845" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A845" s="4"/>
       <c r="B845" s="4"/>
       <c r="C845" s="4"/>
@@ -14550,7 +14869,7 @@
       <c r="N845" s="4"/>
       <c r="O845" s="4"/>
     </row>
-    <row r="846">
+    <row r="846" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A846" s="4"/>
       <c r="B846" s="4"/>
       <c r="C846" s="4"/>
@@ -14567,7 +14886,7 @@
       <c r="N846" s="4"/>
       <c r="O846" s="4"/>
     </row>
-    <row r="847">
+    <row r="847" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A847" s="4"/>
       <c r="B847" s="4"/>
       <c r="C847" s="4"/>
@@ -14584,7 +14903,7 @@
       <c r="N847" s="4"/>
       <c r="O847" s="4"/>
     </row>
-    <row r="848">
+    <row r="848" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A848" s="4"/>
       <c r="B848" s="4"/>
       <c r="C848" s="4"/>
@@ -14601,7 +14920,7 @@
       <c r="N848" s="4"/>
       <c r="O848" s="4"/>
     </row>
-    <row r="849">
+    <row r="849" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A849" s="4"/>
       <c r="B849" s="4"/>
       <c r="C849" s="4"/>
@@ -14618,7 +14937,7 @@
       <c r="N849" s="4"/>
       <c r="O849" s="4"/>
     </row>
-    <row r="850">
+    <row r="850" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A850" s="4"/>
       <c r="B850" s="4"/>
       <c r="C850" s="4"/>
@@ -14635,7 +14954,7 @@
       <c r="N850" s="4"/>
       <c r="O850" s="4"/>
     </row>
-    <row r="851">
+    <row r="851" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A851" s="4"/>
       <c r="B851" s="4"/>
       <c r="C851" s="4"/>
@@ -14652,7 +14971,7 @@
       <c r="N851" s="4"/>
       <c r="O851" s="4"/>
     </row>
-    <row r="852">
+    <row r="852" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A852" s="4"/>
       <c r="B852" s="4"/>
       <c r="C852" s="4"/>
@@ -14669,7 +14988,7 @@
       <c r="N852" s="4"/>
       <c r="O852" s="4"/>
     </row>
-    <row r="853">
+    <row r="853" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A853" s="4"/>
       <c r="B853" s="4"/>
       <c r="C853" s="4"/>
@@ -14686,7 +15005,7 @@
       <c r="N853" s="4"/>
       <c r="O853" s="4"/>
     </row>
-    <row r="854">
+    <row r="854" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A854" s="4"/>
       <c r="B854" s="4"/>
       <c r="C854" s="4"/>
@@ -14703,7 +15022,7 @@
       <c r="N854" s="4"/>
       <c r="O854" s="4"/>
     </row>
-    <row r="855">
+    <row r="855" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A855" s="4"/>
       <c r="B855" s="4"/>
       <c r="C855" s="4"/>
@@ -14720,7 +15039,7 @@
       <c r="N855" s="4"/>
       <c r="O855" s="4"/>
     </row>
-    <row r="856">
+    <row r="856" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A856" s="4"/>
       <c r="B856" s="4"/>
       <c r="C856" s="4"/>
@@ -14737,7 +15056,7 @@
       <c r="N856" s="4"/>
       <c r="O856" s="4"/>
     </row>
-    <row r="857">
+    <row r="857" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A857" s="4"/>
       <c r="B857" s="4"/>
       <c r="C857" s="4"/>
@@ -14754,7 +15073,7 @@
       <c r="N857" s="4"/>
       <c r="O857" s="4"/>
     </row>
-    <row r="858">
+    <row r="858" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A858" s="4"/>
       <c r="B858" s="4"/>
       <c r="C858" s="4"/>
@@ -14771,7 +15090,7 @@
       <c r="N858" s="4"/>
       <c r="O858" s="4"/>
     </row>
-    <row r="859">
+    <row r="859" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A859" s="4"/>
       <c r="B859" s="4"/>
       <c r="C859" s="4"/>
@@ -14788,7 +15107,7 @@
       <c r="N859" s="4"/>
       <c r="O859" s="4"/>
     </row>
-    <row r="860">
+    <row r="860" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A860" s="4"/>
       <c r="B860" s="4"/>
       <c r="C860" s="4"/>
@@ -14805,7 +15124,7 @@
       <c r="N860" s="4"/>
       <c r="O860" s="4"/>
     </row>
-    <row r="861">
+    <row r="861" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A861" s="4"/>
       <c r="B861" s="4"/>
       <c r="C861" s="4"/>
@@ -14822,7 +15141,7 @@
       <c r="N861" s="4"/>
       <c r="O861" s="4"/>
     </row>
-    <row r="862">
+    <row r="862" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A862" s="4"/>
       <c r="B862" s="4"/>
       <c r="C862" s="4"/>
@@ -14839,7 +15158,7 @@
       <c r="N862" s="4"/>
       <c r="O862" s="4"/>
     </row>
-    <row r="863">
+    <row r="863" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A863" s="4"/>
       <c r="B863" s="4"/>
       <c r="C863" s="4"/>
@@ -14856,7 +15175,7 @@
       <c r="N863" s="4"/>
       <c r="O863" s="4"/>
     </row>
-    <row r="864">
+    <row r="864" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A864" s="4"/>
       <c r="B864" s="4"/>
       <c r="C864" s="4"/>
@@ -14873,7 +15192,7 @@
       <c r="N864" s="4"/>
       <c r="O864" s="4"/>
     </row>
-    <row r="865">
+    <row r="865" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A865" s="4"/>
       <c r="B865" s="4"/>
       <c r="C865" s="4"/>
@@ -14890,7 +15209,7 @@
       <c r="N865" s="4"/>
       <c r="O865" s="4"/>
     </row>
-    <row r="866">
+    <row r="866" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A866" s="4"/>
       <c r="B866" s="4"/>
       <c r="C866" s="4"/>
@@ -14907,7 +15226,7 @@
       <c r="N866" s="4"/>
       <c r="O866" s="4"/>
     </row>
-    <row r="867">
+    <row r="867" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A867" s="4"/>
       <c r="B867" s="4"/>
       <c r="C867" s="4"/>
@@ -14924,7 +15243,7 @@
       <c r="N867" s="4"/>
       <c r="O867" s="4"/>
     </row>
-    <row r="868">
+    <row r="868" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A868" s="4"/>
       <c r="B868" s="4"/>
       <c r="C868" s="4"/>
@@ -14941,7 +15260,7 @@
       <c r="N868" s="4"/>
       <c r="O868" s="4"/>
     </row>
-    <row r="869">
+    <row r="869" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A869" s="4"/>
       <c r="B869" s="4"/>
       <c r="C869" s="4"/>
@@ -14958,7 +15277,7 @@
       <c r="N869" s="4"/>
       <c r="O869" s="4"/>
     </row>
-    <row r="870">
+    <row r="870" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A870" s="4"/>
       <c r="B870" s="4"/>
       <c r="C870" s="4"/>
@@ -14975,7 +15294,7 @@
       <c r="N870" s="4"/>
       <c r="O870" s="4"/>
     </row>
-    <row r="871">
+    <row r="871" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A871" s="4"/>
       <c r="B871" s="4"/>
       <c r="C871" s="4"/>
@@ -14992,7 +15311,7 @@
       <c r="N871" s="4"/>
       <c r="O871" s="4"/>
     </row>
-    <row r="872">
+    <row r="872" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A872" s="4"/>
       <c r="B872" s="4"/>
       <c r="C872" s="4"/>
@@ -15009,7 +15328,7 @@
       <c r="N872" s="4"/>
       <c r="O872" s="4"/>
     </row>
-    <row r="873">
+    <row r="873" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A873" s="4"/>
       <c r="B873" s="4"/>
       <c r="C873" s="4"/>
@@ -15026,7 +15345,7 @@
       <c r="N873" s="4"/>
       <c r="O873" s="4"/>
     </row>
-    <row r="874">
+    <row r="874" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A874" s="4"/>
       <c r="B874" s="4"/>
       <c r="C874" s="4"/>
@@ -15043,7 +15362,7 @@
       <c r="N874" s="4"/>
       <c r="O874" s="4"/>
     </row>
-    <row r="875">
+    <row r="875" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A875" s="4"/>
       <c r="B875" s="4"/>
       <c r="C875" s="4"/>
@@ -15060,7 +15379,7 @@
       <c r="N875" s="4"/>
       <c r="O875" s="4"/>
     </row>
-    <row r="876">
+    <row r="876" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A876" s="4"/>
       <c r="B876" s="4"/>
       <c r="C876" s="4"/>
@@ -15077,7 +15396,7 @@
       <c r="N876" s="4"/>
       <c r="O876" s="4"/>
     </row>
-    <row r="877">
+    <row r="877" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A877" s="4"/>
       <c r="B877" s="4"/>
       <c r="C877" s="4"/>
@@ -15094,7 +15413,7 @@
       <c r="N877" s="4"/>
       <c r="O877" s="4"/>
     </row>
-    <row r="878">
+    <row r="878" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A878" s="4"/>
       <c r="B878" s="4"/>
       <c r="C878" s="4"/>
@@ -15111,7 +15430,7 @@
       <c r="N878" s="4"/>
       <c r="O878" s="4"/>
     </row>
-    <row r="879">
+    <row r="879" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A879" s="4"/>
       <c r="B879" s="4"/>
       <c r="C879" s="4"/>
@@ -15128,7 +15447,7 @@
       <c r="N879" s="4"/>
       <c r="O879" s="4"/>
     </row>
-    <row r="880">
+    <row r="880" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A880" s="4"/>
       <c r="B880" s="4"/>
       <c r="C880" s="4"/>
@@ -15145,7 +15464,7 @@
       <c r="N880" s="4"/>
       <c r="O880" s="4"/>
     </row>
-    <row r="881">
+    <row r="881" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A881" s="4"/>
       <c r="B881" s="4"/>
       <c r="C881" s="4"/>
@@ -15162,7 +15481,7 @@
       <c r="N881" s="4"/>
       <c r="O881" s="4"/>
     </row>
-    <row r="882">
+    <row r="882" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A882" s="4"/>
       <c r="B882" s="4"/>
       <c r="C882" s="4"/>
@@ -15179,7 +15498,7 @@
       <c r="N882" s="4"/>
       <c r="O882" s="4"/>
     </row>
-    <row r="883">
+    <row r="883" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A883" s="4"/>
       <c r="B883" s="4"/>
       <c r="C883" s="4"/>
@@ -15196,7 +15515,7 @@
       <c r="N883" s="4"/>
       <c r="O883" s="4"/>
     </row>
-    <row r="884">
+    <row r="884" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A884" s="4"/>
       <c r="B884" s="4"/>
       <c r="C884" s="4"/>
@@ -15213,7 +15532,7 @@
       <c r="N884" s="4"/>
       <c r="O884" s="4"/>
     </row>
-    <row r="885">
+    <row r="885" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A885" s="4"/>
       <c r="B885" s="4"/>
       <c r="C885" s="4"/>
@@ -15230,7 +15549,7 @@
       <c r="N885" s="4"/>
       <c r="O885" s="4"/>
     </row>
-    <row r="886">
+    <row r="886" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A886" s="4"/>
       <c r="B886" s="4"/>
       <c r="C886" s="4"/>
@@ -15247,7 +15566,7 @@
       <c r="N886" s="4"/>
       <c r="O886" s="4"/>
     </row>
-    <row r="887">
+    <row r="887" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A887" s="4"/>
       <c r="B887" s="4"/>
       <c r="C887" s="4"/>
@@ -15264,7 +15583,7 @@
       <c r="N887" s="4"/>
       <c r="O887" s="4"/>
     </row>
-    <row r="888">
+    <row r="888" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A888" s="4"/>
       <c r="B888" s="4"/>
       <c r="C888" s="4"/>
@@ -15281,7 +15600,7 @@
       <c r="N888" s="4"/>
       <c r="O888" s="4"/>
     </row>
-    <row r="889">
+    <row r="889" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A889" s="4"/>
       <c r="B889" s="4"/>
       <c r="C889" s="4"/>
@@ -15298,7 +15617,7 @@
       <c r="N889" s="4"/>
       <c r="O889" s="4"/>
     </row>
-    <row r="890">
+    <row r="890" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A890" s="4"/>
       <c r="B890" s="4"/>
       <c r="C890" s="4"/>
@@ -15315,7 +15634,7 @@
       <c r="N890" s="4"/>
       <c r="O890" s="4"/>
     </row>
-    <row r="891">
+    <row r="891" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A891" s="4"/>
       <c r="B891" s="4"/>
       <c r="C891" s="4"/>
@@ -15332,7 +15651,7 @@
       <c r="N891" s="4"/>
       <c r="O891" s="4"/>
     </row>
-    <row r="892">
+    <row r="892" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A892" s="4"/>
       <c r="B892" s="4"/>
       <c r="C892" s="4"/>
@@ -15349,7 +15668,7 @@
       <c r="N892" s="4"/>
       <c r="O892" s="4"/>
     </row>
-    <row r="893">
+    <row r="893" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A893" s="4"/>
       <c r="B893" s="4"/>
       <c r="C893" s="4"/>
@@ -15366,7 +15685,7 @@
       <c r="N893" s="4"/>
       <c r="O893" s="4"/>
     </row>
-    <row r="894">
+    <row r="894" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A894" s="4"/>
       <c r="B894" s="4"/>
       <c r="C894" s="4"/>
@@ -15383,7 +15702,7 @@
       <c r="N894" s="4"/>
       <c r="O894" s="4"/>
     </row>
-    <row r="895">
+    <row r="895" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A895" s="4"/>
       <c r="B895" s="4"/>
       <c r="C895" s="4"/>
@@ -15400,7 +15719,7 @@
       <c r="N895" s="4"/>
       <c r="O895" s="4"/>
     </row>
-    <row r="896">
+    <row r="896" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A896" s="4"/>
       <c r="B896" s="4"/>
       <c r="C896" s="4"/>
@@ -15417,7 +15736,7 @@
       <c r="N896" s="4"/>
       <c r="O896" s="4"/>
     </row>
-    <row r="897">
+    <row r="897" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A897" s="4"/>
       <c r="B897" s="4"/>
       <c r="C897" s="4"/>
@@ -15434,7 +15753,7 @@
       <c r="N897" s="4"/>
       <c r="O897" s="4"/>
     </row>
-    <row r="898">
+    <row r="898" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A898" s="4"/>
       <c r="B898" s="4"/>
       <c r="C898" s="4"/>
@@ -15451,7 +15770,7 @@
       <c r="N898" s="4"/>
       <c r="O898" s="4"/>
     </row>
-    <row r="899">
+    <row r="899" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A899" s="4"/>
       <c r="B899" s="4"/>
       <c r="C899" s="4"/>
@@ -15468,7 +15787,7 @@
       <c r="N899" s="4"/>
       <c r="O899" s="4"/>
     </row>
-    <row r="900">
+    <row r="900" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A900" s="4"/>
       <c r="B900" s="4"/>
       <c r="C900" s="4"/>
@@ -15485,7 +15804,7 @@
       <c r="N900" s="4"/>
       <c r="O900" s="4"/>
     </row>
-    <row r="901">
+    <row r="901" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A901" s="4"/>
       <c r="B901" s="4"/>
       <c r="C901" s="4"/>
@@ -15502,7 +15821,7 @@
       <c r="N901" s="4"/>
       <c r="O901" s="4"/>
     </row>
-    <row r="902">
+    <row r="902" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A902" s="4"/>
       <c r="B902" s="4"/>
       <c r="C902" s="4"/>
@@ -15519,7 +15838,7 @@
       <c r="N902" s="4"/>
       <c r="O902" s="4"/>
     </row>
-    <row r="903">
+    <row r="903" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A903" s="4"/>
       <c r="B903" s="4"/>
       <c r="C903" s="4"/>
@@ -15536,7 +15855,7 @@
       <c r="N903" s="4"/>
       <c r="O903" s="4"/>
     </row>
-    <row r="904">
+    <row r="904" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A904" s="4"/>
       <c r="B904" s="4"/>
       <c r="C904" s="4"/>
@@ -15553,7 +15872,7 @@
       <c r="N904" s="4"/>
       <c r="O904" s="4"/>
     </row>
-    <row r="905">
+    <row r="905" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A905" s="4"/>
       <c r="B905" s="4"/>
       <c r="C905" s="4"/>
@@ -15570,7 +15889,7 @@
       <c r="N905" s="4"/>
       <c r="O905" s="4"/>
     </row>
-    <row r="906">
+    <row r="906" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A906" s="4"/>
       <c r="B906" s="4"/>
       <c r="C906" s="4"/>
@@ -15587,7 +15906,7 @@
       <c r="N906" s="4"/>
       <c r="O906" s="4"/>
     </row>
-    <row r="907">
+    <row r="907" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A907" s="4"/>
       <c r="B907" s="4"/>
       <c r="C907" s="4"/>
@@ -15604,7 +15923,7 @@
       <c r="N907" s="4"/>
       <c r="O907" s="4"/>
     </row>
-    <row r="908">
+    <row r="908" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A908" s="4"/>
       <c r="B908" s="4"/>
       <c r="C908" s="4"/>
@@ -15621,7 +15940,7 @@
       <c r="N908" s="4"/>
       <c r="O908" s="4"/>
     </row>
-    <row r="909">
+    <row r="909" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A909" s="4"/>
       <c r="B909" s="4"/>
       <c r="C909" s="4"/>
@@ -15638,7 +15957,7 @@
       <c r="N909" s="4"/>
       <c r="O909" s="4"/>
     </row>
-    <row r="910">
+    <row r="910" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A910" s="4"/>
       <c r="B910" s="4"/>
       <c r="C910" s="4"/>
@@ -15655,7 +15974,7 @@
       <c r="N910" s="4"/>
       <c r="O910" s="4"/>
     </row>
-    <row r="911">
+    <row r="911" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A911" s="4"/>
       <c r="B911" s="4"/>
       <c r="C911" s="4"/>
@@ -15672,7 +15991,7 @@
       <c r="N911" s="4"/>
       <c r="O911" s="4"/>
     </row>
-    <row r="912">
+    <row r="912" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A912" s="4"/>
       <c r="B912" s="4"/>
       <c r="C912" s="4"/>
@@ -15689,7 +16008,7 @@
       <c r="N912" s="4"/>
       <c r="O912" s="4"/>
     </row>
-    <row r="913">
+    <row r="913" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A913" s="4"/>
       <c r="B913" s="4"/>
       <c r="C913" s="4"/>
@@ -15706,7 +16025,7 @@
       <c r="N913" s="4"/>
       <c r="O913" s="4"/>
     </row>
-    <row r="914">
+    <row r="914" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A914" s="4"/>
       <c r="B914" s="4"/>
       <c r="C914" s="4"/>
@@ -15723,7 +16042,7 @@
       <c r="N914" s="4"/>
       <c r="O914" s="4"/>
     </row>
-    <row r="915">
+    <row r="915" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A915" s="4"/>
       <c r="B915" s="4"/>
       <c r="C915" s="4"/>
@@ -15740,7 +16059,7 @@
       <c r="N915" s="4"/>
       <c r="O915" s="4"/>
     </row>
-    <row r="916">
+    <row r="916" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A916" s="4"/>
       <c r="B916" s="4"/>
       <c r="C916" s="4"/>
@@ -15757,7 +16076,7 @@
       <c r="N916" s="4"/>
       <c r="O916" s="4"/>
     </row>
-    <row r="917">
+    <row r="917" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A917" s="4"/>
       <c r="B917" s="4"/>
       <c r="C917" s="4"/>
@@ -15774,7 +16093,7 @@
       <c r="N917" s="4"/>
       <c r="O917" s="4"/>
     </row>
-    <row r="918">
+    <row r="918" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A918" s="4"/>
       <c r="B918" s="4"/>
       <c r="C918" s="4"/>
@@ -15791,7 +16110,7 @@
       <c r="N918" s="4"/>
       <c r="O918" s="4"/>
     </row>
-    <row r="919">
+    <row r="919" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A919" s="4"/>
       <c r="B919" s="4"/>
       <c r="C919" s="4"/>
@@ -15808,7 +16127,7 @@
       <c r="N919" s="4"/>
       <c r="O919" s="4"/>
     </row>
-    <row r="920">
+    <row r="920" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A920" s="4"/>
       <c r="B920" s="4"/>
       <c r="C920" s="4"/>
@@ -15825,7 +16144,7 @@
       <c r="N920" s="4"/>
       <c r="O920" s="4"/>
     </row>
-    <row r="921">
+    <row r="921" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A921" s="4"/>
       <c r="B921" s="4"/>
       <c r="C921" s="4"/>
@@ -15842,7 +16161,7 @@
       <c r="N921" s="4"/>
       <c r="O921" s="4"/>
     </row>
-    <row r="922">
+    <row r="922" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A922" s="4"/>
       <c r="B922" s="4"/>
       <c r="C922" s="4"/>
@@ -15859,7 +16178,7 @@
       <c r="N922" s="4"/>
       <c r="O922" s="4"/>
     </row>
-    <row r="923">
+    <row r="923" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A923" s="4"/>
       <c r="B923" s="4"/>
       <c r="C923" s="4"/>
@@ -15876,7 +16195,7 @@
       <c r="N923" s="4"/>
       <c r="O923" s="4"/>
     </row>
-    <row r="924">
+    <row r="924" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A924" s="4"/>
       <c r="B924" s="4"/>
       <c r="C924" s="4"/>
@@ -15893,7 +16212,7 @@
       <c r="N924" s="4"/>
       <c r="O924" s="4"/>
     </row>
-    <row r="925">
+    <row r="925" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A925" s="4"/>
       <c r="B925" s="4"/>
       <c r="C925" s="4"/>
@@ -15910,7 +16229,7 @@
       <c r="N925" s="4"/>
       <c r="O925" s="4"/>
     </row>
-    <row r="926">
+    <row r="926" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A926" s="4"/>
       <c r="B926" s="4"/>
       <c r="C926" s="4"/>
@@ -15927,7 +16246,7 @@
       <c r="N926" s="4"/>
       <c r="O926" s="4"/>
     </row>
-    <row r="927">
+    <row r="927" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A927" s="4"/>
       <c r="B927" s="4"/>
       <c r="C927" s="4"/>
@@ -15944,7 +16263,7 @@
       <c r="N927" s="4"/>
       <c r="O927" s="4"/>
     </row>
-    <row r="928">
+    <row r="928" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A928" s="4"/>
       <c r="B928" s="4"/>
       <c r="C928" s="4"/>
@@ -15961,7 +16280,7 @@
       <c r="N928" s="4"/>
       <c r="O928" s="4"/>
     </row>
-    <row r="929">
+    <row r="929" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A929" s="4"/>
       <c r="B929" s="4"/>
       <c r="C929" s="4"/>
@@ -15978,7 +16297,7 @@
       <c r="N929" s="4"/>
       <c r="O929" s="4"/>
     </row>
-    <row r="930">
+    <row r="930" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A930" s="4"/>
       <c r="B930" s="4"/>
       <c r="C930" s="4"/>
@@ -15995,7 +16314,7 @@
       <c r="N930" s="4"/>
       <c r="O930" s="4"/>
     </row>
-    <row r="931">
+    <row r="931" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A931" s="4"/>
       <c r="B931" s="4"/>
       <c r="C931" s="4"/>
@@ -16012,7 +16331,7 @@
       <c r="N931" s="4"/>
       <c r="O931" s="4"/>
     </row>
-    <row r="932">
+    <row r="932" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A932" s="4"/>
       <c r="B932" s="4"/>
       <c r="C932" s="4"/>
@@ -16029,7 +16348,7 @@
       <c r="N932" s="4"/>
       <c r="O932" s="4"/>
     </row>
-    <row r="933">
+    <row r="933" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A933" s="4"/>
       <c r="B933" s="4"/>
       <c r="C933" s="4"/>
@@ -16046,7 +16365,7 @@
       <c r="N933" s="4"/>
       <c r="O933" s="4"/>
     </row>
-    <row r="934">
+    <row r="934" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A934" s="4"/>
       <c r="B934" s="4"/>
       <c r="C934" s="4"/>
@@ -16063,7 +16382,7 @@
       <c r="N934" s="4"/>
       <c r="O934" s="4"/>
     </row>
-    <row r="935">
+    <row r="935" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A935" s="4"/>
       <c r="B935" s="4"/>
       <c r="C935" s="4"/>
@@ -16080,7 +16399,7 @@
       <c r="N935" s="4"/>
       <c r="O935" s="4"/>
     </row>
-    <row r="936">
+    <row r="936" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A936" s="4"/>
       <c r="B936" s="4"/>
       <c r="C936" s="4"/>
@@ -16097,7 +16416,7 @@
       <c r="N936" s="4"/>
       <c r="O936" s="4"/>
     </row>
-    <row r="937">
+    <row r="937" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A937" s="4"/>
       <c r="B937" s="4"/>
       <c r="C937" s="4"/>
@@ -16114,7 +16433,7 @@
       <c r="N937" s="4"/>
       <c r="O937" s="4"/>
     </row>
-    <row r="938">
+    <row r="938" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A938" s="4"/>
       <c r="B938" s="4"/>
       <c r="C938" s="4"/>
@@ -16131,7 +16450,7 @@
       <c r="N938" s="4"/>
       <c r="O938" s="4"/>
     </row>
-    <row r="939">
+    <row r="939" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A939" s="4"/>
       <c r="B939" s="4"/>
       <c r="C939" s="4"/>
@@ -16148,7 +16467,7 @@
       <c r="N939" s="4"/>
       <c r="O939" s="4"/>
     </row>
-    <row r="940">
+    <row r="940" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A940" s="4"/>
       <c r="B940" s="4"/>
       <c r="C940" s="4"/>
@@ -16165,7 +16484,7 @@
       <c r="N940" s="4"/>
       <c r="O940" s="4"/>
     </row>
-    <row r="941">
+    <row r="941" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A941" s="4"/>
       <c r="B941" s="4"/>
       <c r="C941" s="4"/>
@@ -16182,7 +16501,7 @@
       <c r="N941" s="4"/>
       <c r="O941" s="4"/>
     </row>
-    <row r="942">
+    <row r="942" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A942" s="4"/>
       <c r="B942" s="4"/>
       <c r="C942" s="4"/>
@@ -16199,7 +16518,7 @@
       <c r="N942" s="4"/>
       <c r="O942" s="4"/>
     </row>
-    <row r="943">
+    <row r="943" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A943" s="4"/>
       <c r="B943" s="4"/>
       <c r="C943" s="4"/>
@@ -16216,7 +16535,7 @@
       <c r="N943" s="4"/>
       <c r="O943" s="4"/>
     </row>
-    <row r="944">
+    <row r="944" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A944" s="4"/>
       <c r="B944" s="4"/>
       <c r="C944" s="4"/>
@@ -16233,7 +16552,7 @@
       <c r="N944" s="4"/>
       <c r="O944" s="4"/>
     </row>
-    <row r="945">
+    <row r="945" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A945" s="4"/>
       <c r="B945" s="4"/>
       <c r="C945" s="4"/>
@@ -16250,7 +16569,7 @@
       <c r="N945" s="4"/>
       <c r="O945" s="4"/>
     </row>
-    <row r="946">
+    <row r="946" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A946" s="4"/>
       <c r="B946" s="4"/>
       <c r="C946" s="4"/>
@@ -16267,7 +16586,7 @@
       <c r="N946" s="4"/>
       <c r="O946" s="4"/>
     </row>
-    <row r="947">
+    <row r="947" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A947" s="4"/>
       <c r="B947" s="4"/>
       <c r="C947" s="4"/>
@@ -16284,7 +16603,7 @@
       <c r="N947" s="4"/>
       <c r="O947" s="4"/>
     </row>
-    <row r="948">
+    <row r="948" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A948" s="4"/>
       <c r="B948" s="4"/>
       <c r="C948" s="4"/>
@@ -16301,7 +16620,7 @@
       <c r="N948" s="4"/>
       <c r="O948" s="4"/>
     </row>
-    <row r="949">
+    <row r="949" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A949" s="4"/>
       <c r="B949" s="4"/>
       <c r="C949" s="4"/>
@@ -16318,7 +16637,7 @@
       <c r="N949" s="4"/>
       <c r="O949" s="4"/>
     </row>
-    <row r="950">
+    <row r="950" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A950" s="4"/>
       <c r="B950" s="4"/>
       <c r="C950" s="4"/>
@@ -16335,7 +16654,7 @@
       <c r="N950" s="4"/>
       <c r="O950" s="4"/>
     </row>
-    <row r="951">
+    <row r="951" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A951" s="4"/>
       <c r="B951" s="4"/>
       <c r="C951" s="4"/>
@@ -16352,7 +16671,7 @@
       <c r="N951" s="4"/>
       <c r="O951" s="4"/>
     </row>
-    <row r="952">
+    <row r="952" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A952" s="4"/>
       <c r="B952" s="4"/>
       <c r="C952" s="4"/>
@@ -16369,7 +16688,7 @@
       <c r="N952" s="4"/>
       <c r="O952" s="4"/>
     </row>
-    <row r="953">
+    <row r="953" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A953" s="4"/>
       <c r="B953" s="4"/>
       <c r="C953" s="4"/>
@@ -16386,7 +16705,7 @@
       <c r="N953" s="4"/>
       <c r="O953" s="4"/>
     </row>
-    <row r="954">
+    <row r="954" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A954" s="4"/>
       <c r="B954" s="4"/>
       <c r="C954" s="4"/>
@@ -16403,7 +16722,7 @@
       <c r="N954" s="4"/>
       <c r="O954" s="4"/>
     </row>
-    <row r="955">
+    <row r="955" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A955" s="4"/>
       <c r="B955" s="4"/>
       <c r="C955" s="4"/>
@@ -16420,7 +16739,7 @@
       <c r="N955" s="4"/>
       <c r="O955" s="4"/>
     </row>
-    <row r="956">
+    <row r="956" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A956" s="4"/>
       <c r="B956" s="4"/>
       <c r="C956" s="4"/>
@@ -16437,7 +16756,7 @@
       <c r="N956" s="4"/>
       <c r="O956" s="4"/>
     </row>
-    <row r="957">
+    <row r="957" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A957" s="4"/>
       <c r="B957" s="4"/>
       <c r="C957" s="4"/>
@@ -16454,7 +16773,7 @@
       <c r="N957" s="4"/>
       <c r="O957" s="4"/>
     </row>
-    <row r="958">
+    <row r="958" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A958" s="4"/>
       <c r="B958" s="4"/>
       <c r="C958" s="4"/>
@@ -16471,7 +16790,7 @@
       <c r="N958" s="4"/>
       <c r="O958" s="4"/>
     </row>
-    <row r="959">
+    <row r="959" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A959" s="4"/>
       <c r="B959" s="4"/>
       <c r="C959" s="4"/>
@@ -16488,7 +16807,7 @@
       <c r="N959" s="4"/>
       <c r="O959" s="4"/>
     </row>
-    <row r="960">
+    <row r="960" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A960" s="4"/>
       <c r="B960" s="4"/>
       <c r="C960" s="4"/>
@@ -16505,7 +16824,7 @@
       <c r="N960" s="4"/>
       <c r="O960" s="4"/>
     </row>
-    <row r="961">
+    <row r="961" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A961" s="4"/>
       <c r="B961" s="4"/>
       <c r="C961" s="4"/>
@@ -16522,7 +16841,7 @@
       <c r="N961" s="4"/>
       <c r="O961" s="4"/>
     </row>
-    <row r="962">
+    <row r="962" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A962" s="4"/>
       <c r="B962" s="4"/>
       <c r="C962" s="4"/>
@@ -16539,7 +16858,7 @@
       <c r="N962" s="4"/>
       <c r="O962" s="4"/>
     </row>
-    <row r="963">
+    <row r="963" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A963" s="4"/>
       <c r="B963" s="4"/>
       <c r="C963" s="4"/>
@@ -16556,7 +16875,7 @@
       <c r="N963" s="4"/>
       <c r="O963" s="4"/>
     </row>
-    <row r="964">
+    <row r="964" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A964" s="4"/>
       <c r="B964" s="4"/>
       <c r="C964" s="4"/>
@@ -16573,7 +16892,7 @@
       <c r="N964" s="4"/>
       <c r="O964" s="4"/>
     </row>
-    <row r="965">
+    <row r="965" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A965" s="4"/>
       <c r="B965" s="4"/>
       <c r="C965" s="4"/>
@@ -16590,7 +16909,7 @@
       <c r="N965" s="4"/>
       <c r="O965" s="4"/>
     </row>
-    <row r="966">
+    <row r="966" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A966" s="4"/>
       <c r="B966" s="4"/>
       <c r="C966" s="4"/>
@@ -16607,7 +16926,7 @@
       <c r="N966" s="4"/>
       <c r="O966" s="4"/>
     </row>
-    <row r="967">
+    <row r="967" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A967" s="4"/>
       <c r="B967" s="4"/>
       <c r="C967" s="4"/>
@@ -16624,7 +16943,7 @@
       <c r="N967" s="4"/>
       <c r="O967" s="4"/>
     </row>
-    <row r="968">
+    <row r="968" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A968" s="4"/>
       <c r="B968" s="4"/>
       <c r="C968" s="4"/>
@@ -16641,7 +16960,7 @@
       <c r="N968" s="4"/>
       <c r="O968" s="4"/>
     </row>
-    <row r="969">
+    <row r="969" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A969" s="4"/>
       <c r="B969" s="4"/>
       <c r="C969" s="4"/>
@@ -16658,7 +16977,7 @@
       <c r="N969" s="4"/>
       <c r="O969" s="4"/>
     </row>
-    <row r="970">
+    <row r="970" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A970" s="4"/>
       <c r="B970" s="4"/>
       <c r="C970" s="4"/>
@@ -16675,7 +16994,7 @@
       <c r="N970" s="4"/>
       <c r="O970" s="4"/>
     </row>
-    <row r="971">
+    <row r="971" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A971" s="4"/>
       <c r="B971" s="4"/>
       <c r="C971" s="4"/>
@@ -16692,7 +17011,7 @@
       <c r="N971" s="4"/>
       <c r="O971" s="4"/>
     </row>
-    <row r="972">
+    <row r="972" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A972" s="4"/>
       <c r="B972" s="4"/>
       <c r="C972" s="4"/>
@@ -16709,7 +17028,7 @@
       <c r="N972" s="4"/>
       <c r="O972" s="4"/>
     </row>
-    <row r="973">
+    <row r="973" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A973" s="4"/>
       <c r="B973" s="4"/>
       <c r="C973" s="4"/>
@@ -16726,7 +17045,7 @@
       <c r="N973" s="4"/>
       <c r="O973" s="4"/>
     </row>
-    <row r="974">
+    <row r="974" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A974" s="4"/>
       <c r="B974" s="4"/>
       <c r="C974" s="4"/>
@@ -16743,7 +17062,7 @@
       <c r="N974" s="4"/>
       <c r="O974" s="4"/>
     </row>
-    <row r="975">
+    <row r="975" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A975" s="4"/>
       <c r="B975" s="4"/>
       <c r="C975" s="4"/>
@@ -16760,7 +17079,7 @@
       <c r="N975" s="4"/>
       <c r="O975" s="4"/>
     </row>
-    <row r="976">
+    <row r="976" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A976" s="4"/>
       <c r="B976" s="4"/>
       <c r="C976" s="4"/>
@@ -16777,7 +17096,7 @@
       <c r="N976" s="4"/>
       <c r="O976" s="4"/>
     </row>
-    <row r="977">
+    <row r="977" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A977" s="4"/>
       <c r="B977" s="4"/>
       <c r="C977" s="4"/>
@@ -16794,7 +17113,7 @@
       <c r="N977" s="4"/>
       <c r="O977" s="4"/>
     </row>
-    <row r="978">
+    <row r="978" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A978" s="4"/>
       <c r="B978" s="4"/>
       <c r="C978" s="4"/>
@@ -16811,7 +17130,7 @@
       <c r="N978" s="4"/>
       <c r="O978" s="4"/>
     </row>
-    <row r="979">
+    <row r="979" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A979" s="4"/>
       <c r="B979" s="4"/>
       <c r="C979" s="4"/>
@@ -16828,7 +17147,7 @@
       <c r="N979" s="4"/>
       <c r="O979" s="4"/>
     </row>
-    <row r="980">
+    <row r="980" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A980" s="4"/>
       <c r="B980" s="4"/>
       <c r="C980" s="4"/>
@@ -16845,7 +17164,7 @@
       <c r="N980" s="4"/>
       <c r="O980" s="4"/>
     </row>
-    <row r="981">
+    <row r="981" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A981" s="4"/>
       <c r="B981" s="4"/>
       <c r="C981" s="4"/>
@@ -16862,7 +17181,7 @@
       <c r="N981" s="4"/>
       <c r="O981" s="4"/>
     </row>
-    <row r="982">
+    <row r="982" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A982" s="4"/>
       <c r="B982" s="4"/>
       <c r="C982" s="4"/>
@@ -16879,7 +17198,7 @@
       <c r="N982" s="4"/>
       <c r="O982" s="4"/>
     </row>
-    <row r="983">
+    <row r="983" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A983" s="4"/>
       <c r="B983" s="4"/>
       <c r="C983" s="4"/>
@@ -16896,7 +17215,7 @@
       <c r="N983" s="4"/>
       <c r="O983" s="4"/>
     </row>
-    <row r="984">
+    <row r="984" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A984" s="4"/>
       <c r="B984" s="4"/>
       <c r="C984" s="4"/>
@@ -16913,7 +17232,7 @@
       <c r="N984" s="4"/>
       <c r="O984" s="4"/>
     </row>
-    <row r="985">
+    <row r="985" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A985" s="4"/>
       <c r="B985" s="4"/>
       <c r="C985" s="4"/>
@@ -16930,7 +17249,7 @@
       <c r="N985" s="4"/>
       <c r="O985" s="4"/>
     </row>
-    <row r="986">
+    <row r="986" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A986" s="4"/>
       <c r="B986" s="4"/>
       <c r="C986" s="4"/>
@@ -16947,7 +17266,7 @@
       <c r="N986" s="4"/>
       <c r="O986" s="4"/>
     </row>
-    <row r="987">
+    <row r="987" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A987" s="4"/>
       <c r="B987" s="4"/>
       <c r="C987" s="4"/>
@@ -16964,7 +17283,7 @@
       <c r="N987" s="4"/>
       <c r="O987" s="4"/>
     </row>
-    <row r="988">
+    <row r="988" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A988" s="4"/>
       <c r="B988" s="4"/>
       <c r="C988" s="4"/>
@@ -16981,7 +17300,7 @@
       <c r="N988" s="4"/>
       <c r="O988" s="4"/>
     </row>
-    <row r="989">
+    <row r="989" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A989" s="4"/>
       <c r="B989" s="4"/>
       <c r="C989" s="4"/>
@@ -16998,7 +17317,7 @@
       <c r="N989" s="4"/>
       <c r="O989" s="4"/>
     </row>
-    <row r="990">
+    <row r="990" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A990" s="4"/>
       <c r="B990" s="4"/>
       <c r="C990" s="4"/>
@@ -17015,7 +17334,7 @@
       <c r="N990" s="4"/>
       <c r="O990" s="4"/>
     </row>
-    <row r="991">
+    <row r="991" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A991" s="4"/>
       <c r="B991" s="4"/>
       <c r="C991" s="4"/>
@@ -17032,7 +17351,7 @@
       <c r="N991" s="4"/>
       <c r="O991" s="4"/>
     </row>
-    <row r="992">
+    <row r="992" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A992" s="4"/>
       <c r="B992" s="4"/>
       <c r="C992" s="4"/>
@@ -17049,7 +17368,7 @@
       <c r="N992" s="4"/>
       <c r="O992" s="4"/>
     </row>
-    <row r="993">
+    <row r="993" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A993" s="4"/>
       <c r="B993" s="4"/>
       <c r="C993" s="4"/>
@@ -17066,7 +17385,7 @@
       <c r="N993" s="4"/>
       <c r="O993" s="4"/>
     </row>
-    <row r="994">
+    <row r="994" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A994" s="4"/>
       <c r="B994" s="4"/>
       <c r="C994" s="4"/>
@@ -17083,7 +17402,7 @@
       <c r="N994" s="4"/>
       <c r="O994" s="4"/>
     </row>
-    <row r="995">
+    <row r="995" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A995" s="4"/>
       <c r="B995" s="4"/>
       <c r="C995" s="4"/>
@@ -17100,7 +17419,7 @@
       <c r="N995" s="4"/>
       <c r="O995" s="4"/>
     </row>
-    <row r="996">
+    <row r="996" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A996" s="4"/>
       <c r="B996" s="4"/>
       <c r="C996" s="4"/>
@@ -17117,7 +17436,7 @@
       <c r="N996" s="4"/>
       <c r="O996" s="4"/>
     </row>
-    <row r="997">
+    <row r="997" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A997" s="4"/>
       <c r="B997" s="4"/>
       <c r="C997" s="4"/>
@@ -17134,7 +17453,7 @@
       <c r="N997" s="4"/>
       <c r="O997" s="4"/>
     </row>
-    <row r="998">
+    <row r="998" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A998" s="4"/>
       <c r="B998" s="4"/>
       <c r="C998" s="4"/>
@@ -17151,7 +17470,7 @@
       <c r="N998" s="4"/>
       <c r="O998" s="4"/>
     </row>
-    <row r="999">
+    <row r="999" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A999" s="4"/>
       <c r="B999" s="4"/>
       <c r="C999" s="4"/>
@@ -17168,7 +17487,7 @@
       <c r="N999" s="4"/>
       <c r="O999" s="4"/>
     </row>
-    <row r="1000">
+    <row r="1000" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1000" s="4"/>
       <c r="B1000" s="4"/>
       <c r="C1000" s="4"/>
@@ -17186,6 +17505,6 @@
       <c r="O1000" s="4"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>